--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_13_25.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_13_25.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1389480.046579652</v>
+        <v>1495553.644732495</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>12561851.30939063</v>
+        <v>12443012.75936921</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283184</v>
+        <v>416855.1052283187</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>10636580.0389354</v>
+        <v>10651731.95406313</v>
       </c>
     </row>
     <row r="11">
@@ -656,7 +658,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -665,19 +667,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>410.9217256534534</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H2" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,22 +709,22 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>203.9179701396201</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U2" t="n">
-        <v>250.995171958902</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>99.20235183526381</v>
       </c>
       <c r="X2" t="n">
-        <v>2.834206670628514</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -750,13 +752,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>134.9994691657081</v>
+        <v>135.3343964518635</v>
       </c>
       <c r="H3" t="n">
-        <v>89.59687541851115</v>
+        <v>92.83156789269626</v>
       </c>
       <c r="I3" t="n">
-        <v>18.81721868247742</v>
+        <v>20.22295923705013</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,16 +785,16 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734098204</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>128.1435076414547</v>
+        <v>134.3646350838588</v>
       </c>
       <c r="T3" t="n">
-        <v>190.7165703189231</v>
+        <v>192.0665623188214</v>
       </c>
       <c r="U3" t="n">
-        <v>225.7871683969286</v>
+        <v>225.8092030868072</v>
       </c>
       <c r="V3" t="n">
         <v>232.8005871494253</v>
@@ -826,16 +828,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>17.0818093163682</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.0258082590282</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>110.2640268166724</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983809</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -862,10 +864,10 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S4" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -877,7 +879,7 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -896,25 +898,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>281.265644290524</v>
       </c>
       <c r="G5" t="n">
-        <v>203.8751166288486</v>
+        <v>11.54770277295399</v>
       </c>
       <c r="H5" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,7 +946,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -959,7 +961,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -987,13 +989,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>134.9994691657081</v>
+        <v>135.3343964518635</v>
       </c>
       <c r="H6" t="n">
-        <v>89.59687541851115</v>
+        <v>92.83156789269627</v>
       </c>
       <c r="I6" t="n">
-        <v>18.81721868247742</v>
+        <v>20.22295923705016</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,16 +1022,16 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734098397</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>128.1435076414547</v>
+        <v>134.3646350838588</v>
       </c>
       <c r="T6" t="n">
-        <v>190.7165703189231</v>
+        <v>192.0665623188214</v>
       </c>
       <c r="U6" t="n">
-        <v>225.7871683969286</v>
+        <v>225.8092030868072</v>
       </c>
       <c r="V6" t="n">
         <v>232.8005871494253</v>
@@ -1060,19 +1062,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>147.2515091551289</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1099,19 +1101,19 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>219.5489492761692</v>
+        <v>23.94563726208596</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>21.37163840672711</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -1136,10 +1138,10 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
@@ -1148,7 +1150,7 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>41.57692977292595</v>
@@ -1181,22 +1183,22 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>186.9625385917868</v>
       </c>
       <c r="V8" t="n">
-        <v>303.9797298768535</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1294,19 +1296,19 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>96.35242040983809</v>
@@ -1336,7 +1338,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>189.7690253314419</v>
@@ -1345,16 +1347,16 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>252.7095467955502</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>131.9745917161061</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1385,7 +1387,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H11" t="n">
-        <v>283.154082144415</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1418,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695526</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1525,28 +1527,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>99.97427419833902</v>
+        <v>63.1628130171261</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012164</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1619,7 +1621,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>409.803338518787</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H14" t="n">
         <v>283.1540821444137</v>
@@ -1655,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695526</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1768,22 +1770,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>32.27552175740455</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>27.02919805176109</v>
       </c>
       <c r="H16" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.2658363185655</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,13 +1812,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
         <v>286.1844743892441</v>
@@ -1859,7 +1861,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H17" t="n">
-        <v>283.1540821444123</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -2002,7 +2004,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -2011,13 +2013,13 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>104.8913819999782</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2047,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2096,7 +2098,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H20" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2242,22 +2244,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>101.1785556175217</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>99.97427419833815</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2302,7 +2304,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -2333,7 +2335,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H23" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2482,19 +2484,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2527,7 +2529,7 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>132.6315337216688</v>
+        <v>177.6965697803346</v>
       </c>
       <c r="U25" t="n">
         <v>286.1844743892441</v>
@@ -2603,10 +2605,10 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576155</v>
       </c>
       <c r="U26" t="n">
         <v>250.9057009881286</v>
@@ -2722,7 +2724,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>165.5241382922688</v>
@@ -2731,7 +2733,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>46.15319674220996</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,16 +2760,16 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>172.026033500079</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2849,7 +2851,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V29" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701346</v>
       </c>
       <c r="W29" t="n">
         <v>349.240968717413</v>
@@ -2962,13 +2964,13 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>93.4044447618827</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,13 +2997,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>217.4054503272883</v>
+        <v>160.1763464053468</v>
       </c>
       <c r="U31" t="n">
         <v>286.1844743892441</v>
@@ -3077,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695439</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3095,7 +3097,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
-        <v>386.2379386560531</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="33">
@@ -3190,16 +3192,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>140.2947128462239</v>
@@ -3232,13 +3234,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>9.146142788179482</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>217.4054503272883</v>
+        <v>132.6315337216688</v>
       </c>
       <c r="U34" t="n">
         <v>286.1844743892441</v>
@@ -3475,16 +3477,16 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
-        <v>172.0260335000785</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>207.0967504439648</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
@@ -3557,7 +3559,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U38" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
@@ -3661,7 +3663,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
@@ -3670,7 +3672,7 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>28.75188085812005</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>165.5241382922688</v>
@@ -3706,10 +3708,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>181.0262860016446</v>
+        <v>108.9065924712588</v>
       </c>
       <c r="T40" t="n">
         <v>217.4054503272883</v>
@@ -3794,13 +3796,13 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U41" t="n">
-        <v>250.9057009881293</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V41" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174127</v>
       </c>
       <c r="X41" t="n">
         <v>369.731100678469</v>
@@ -3901,19 +3903,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>162.1944220709586</v>
       </c>
       <c r="H43" t="n">
-        <v>20.88994825141578</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
         <v>81.26583631856553</v>
@@ -3943,13 +3945,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>286.1844743892441</v>
@@ -4028,7 +4030,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T44" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U44" t="n">
         <v>250.9057009881286</v>
@@ -4138,7 +4140,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -4153,7 +4155,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>41.55695577161151</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,16 +4182,16 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
-        <v>286.1844743892441</v>
+        <v>228.9553704673018</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4304,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1976.204921733553</v>
+        <v>1236.203140240072</v>
       </c>
       <c r="C2" t="n">
-        <v>1976.204921733553</v>
+        <v>1236.203140240072</v>
       </c>
       <c r="D2" t="n">
-        <v>1617.939223126803</v>
+        <v>877.9374416333219</v>
       </c>
       <c r="E2" t="n">
-        <v>1232.150970528558</v>
+        <v>877.9374416333219</v>
       </c>
       <c r="F2" t="n">
-        <v>821.1650657389509</v>
+        <v>466.9515368437143</v>
       </c>
       <c r="G2" t="n">
-        <v>406.0926155839475</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="H2" t="n">
-        <v>108.5090151927147</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I2" t="n">
-        <v>66.5121164321834</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912088</v>
+        <v>187.5281822362817</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810553</v>
+        <v>442.5171852816081</v>
       </c>
       <c r="L2" t="n">
-        <v>1040.244834329464</v>
+        <v>795.7553530872915</v>
       </c>
       <c r="M2" t="n">
-        <v>1573.776739001388</v>
+        <v>1220.470313923562</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.55555606017</v>
+        <v>1656.671415230817</v>
       </c>
       <c r="O2" t="n">
-        <v>2623.528026939507</v>
+        <v>2055.22848474084</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296685</v>
+        <v>2360.886721764997</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.588755052368</v>
+        <v>2542.25058172385</v>
       </c>
       <c r="R2" t="n">
-        <v>3325.60582160917</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S2" t="n">
-        <v>3215.315153136265</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="T2" t="n">
-        <v>3009.337405520487</v>
+        <v>2353.59368700598</v>
       </c>
       <c r="U2" t="n">
-        <v>2755.806928794324</v>
+        <v>2100.01262627016</v>
       </c>
       <c r="V2" t="n">
-        <v>2755.806928794324</v>
+        <v>2100.01262627016</v>
       </c>
       <c r="W2" t="n">
-        <v>2755.806928794324</v>
+        <v>1999.808230476964</v>
       </c>
       <c r="X2" t="n">
-        <v>2752.944093773487</v>
+        <v>1626.342472215884</v>
       </c>
       <c r="Y2" t="n">
-        <v>2362.804761797675</v>
+        <v>1236.203140240072</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1702.096133556937</v>
+        <v>931.3041410966389</v>
       </c>
       <c r="C3" t="n">
-        <v>1527.64310427581</v>
+        <v>756.8511118155119</v>
       </c>
       <c r="D3" t="n">
-        <v>1378.708694614559</v>
+        <v>607.9167021542605</v>
       </c>
       <c r="E3" t="n">
-        <v>1219.471239609103</v>
+        <v>448.679247148805</v>
       </c>
       <c r="F3" t="n">
-        <v>1072.936681635989</v>
+        <v>302.14468917569</v>
       </c>
       <c r="G3" t="n">
-        <v>936.573581468607</v>
+        <v>165.4432786182524</v>
       </c>
       <c r="H3" t="n">
-        <v>846.0716871064745</v>
+        <v>71.67401812057901</v>
       </c>
       <c r="I3" t="n">
-        <v>827.0643955080125</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J3" t="n">
-        <v>920.7416649986299</v>
+        <v>113.5972052500114</v>
       </c>
       <c r="K3" t="n">
-        <v>1159.005863978976</v>
+        <v>298.3188265310613</v>
       </c>
       <c r="L3" t="n">
-        <v>1525.704024291642</v>
+        <v>593.0223835625329</v>
       </c>
       <c r="M3" t="n">
-        <v>1972.980349513958</v>
+        <v>956.284402521753</v>
       </c>
       <c r="N3" t="n">
-        <v>2446.503393068412</v>
+        <v>1565.661695681274</v>
       </c>
       <c r="O3" t="n">
-        <v>2857.464672486467</v>
+        <v>2199.840679460312</v>
       </c>
       <c r="P3" t="n">
-        <v>3167.96426396257</v>
+        <v>2447.023413292609</v>
       </c>
       <c r="Q3" t="n">
-        <v>3325.60582160917</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="R3" t="n">
-        <v>3325.461468201685</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S3" t="n">
-        <v>3196.023581695165</v>
+        <v>2426.617474780096</v>
       </c>
       <c r="T3" t="n">
-        <v>3003.380581373021</v>
+        <v>2232.610846175226</v>
       </c>
       <c r="U3" t="n">
-        <v>2775.312734507436</v>
+        <v>2004.520742047138</v>
       </c>
       <c r="V3" t="n">
-        <v>2540.160626275694</v>
+        <v>1769.368633815395</v>
       </c>
       <c r="W3" t="n">
-        <v>2285.923269547492</v>
+        <v>1515.131277087194</v>
       </c>
       <c r="X3" t="n">
-        <v>2078.071769341959</v>
+        <v>1307.279776881661</v>
       </c>
       <c r="Y3" t="n">
-        <v>1870.311470577005</v>
+        <v>1099.519478116707</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>815.7608990065712</v>
+        <v>903.4321187182926</v>
       </c>
       <c r="C4" t="n">
-        <v>646.8247160786643</v>
+        <v>734.4959357903857</v>
       </c>
       <c r="D4" t="n">
-        <v>496.7080766663286</v>
+        <v>584.37929637805</v>
       </c>
       <c r="E4" t="n">
-        <v>348.7949830839354</v>
+        <v>436.4662027956568</v>
       </c>
       <c r="F4" t="n">
-        <v>331.5406302391191</v>
+        <v>436.4662027956568</v>
       </c>
       <c r="G4" t="n">
-        <v>163.837793613838</v>
+        <v>268.4797381039355</v>
       </c>
       <c r="H4" t="n">
-        <v>163.837793613838</v>
+        <v>157.1019332386098</v>
       </c>
       <c r="I4" t="n">
-        <v>66.5121164321834</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J4" t="n">
-        <v>111.634748879119</v>
+        <v>76.71595955312199</v>
       </c>
       <c r="K4" t="n">
-        <v>315.6219318279954</v>
+        <v>248.4064713020475</v>
       </c>
       <c r="L4" t="n">
-        <v>632.1817302764914</v>
+        <v>523.6376499693234</v>
       </c>
       <c r="M4" t="n">
-        <v>976.3387758760405</v>
+        <v>824.2194607096587</v>
       </c>
       <c r="N4" t="n">
-        <v>1317.747152581905</v>
+        <v>1123.088724245823</v>
       </c>
       <c r="O4" t="n">
-        <v>1617.076751502319</v>
+        <v>1383.126566999035</v>
       </c>
       <c r="P4" t="n">
-        <v>1849.684251935978</v>
+        <v>1582.113182171024</v>
       </c>
       <c r="Q4" t="n">
-        <v>1927.294548088493</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="R4" t="n">
-        <v>1927.294548088493</v>
+        <v>1533.86271359008</v>
       </c>
       <c r="S4" t="n">
-        <v>1735.608663915319</v>
+        <v>1533.86271359008</v>
       </c>
       <c r="T4" t="n">
-        <v>1735.608663915319</v>
+        <v>1533.86271359008</v>
       </c>
       <c r="U4" t="n">
-        <v>1735.608663915319</v>
+        <v>1533.86271359008</v>
       </c>
       <c r="V4" t="n">
-        <v>1735.608663915319</v>
+        <v>1533.86271359008</v>
       </c>
       <c r="W4" t="n">
-        <v>1446.191493878358</v>
+        <v>1533.86271359008</v>
       </c>
       <c r="X4" t="n">
-        <v>1218.201942980341</v>
+        <v>1305.873162692062</v>
       </c>
       <c r="Y4" t="n">
-        <v>997.4093638368109</v>
+        <v>1085.080583548532</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1381.278680221567</v>
+        <v>1101.768613746536</v>
       </c>
       <c r="C5" t="n">
-        <v>1381.278680221567</v>
+        <v>732.8060968061241</v>
       </c>
       <c r="D5" t="n">
-        <v>1023.012981614816</v>
+        <v>732.8060968061241</v>
       </c>
       <c r="E5" t="n">
-        <v>1023.012981614816</v>
+        <v>347.0178442078798</v>
       </c>
       <c r="F5" t="n">
-        <v>612.0270768252087</v>
+        <v>62.91113280331015</v>
       </c>
       <c r="G5" t="n">
-        <v>406.0926155839475</v>
+        <v>51.24678656800308</v>
       </c>
       <c r="H5" t="n">
-        <v>108.5090151927147</v>
+        <v>51.24678656800308</v>
       </c>
       <c r="I5" t="n">
-        <v>66.5121164321834</v>
+        <v>51.24678656800308</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912089</v>
+        <v>187.5281822362813</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810553</v>
+        <v>442.5171852816077</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329465</v>
+        <v>795.7553530872908</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.776739001389</v>
+        <v>1220.470313923561</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.555556060171</v>
+        <v>1656.671415230816</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939508</v>
+        <v>2055.228484740838</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296686</v>
+        <v>2360.886721764995</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052368</v>
+        <v>2542.250581723849</v>
       </c>
       <c r="R5" t="n">
-        <v>3325.60582160917</v>
+        <v>2562.339328400154</v>
       </c>
       <c r="S5" t="n">
-        <v>3215.315153136265</v>
+        <v>2562.339328400154</v>
       </c>
       <c r="T5" t="n">
-        <v>3215.315153136265</v>
+        <v>2562.339328400154</v>
       </c>
       <c r="U5" t="n">
-        <v>3215.315153136265</v>
+        <v>2562.339328400154</v>
       </c>
       <c r="V5" t="n">
-        <v>2884.252265792694</v>
+        <v>2231.276441056583</v>
       </c>
       <c r="W5" t="n">
-        <v>2531.48361052258</v>
+        <v>1878.507785786469</v>
       </c>
       <c r="X5" t="n">
-        <v>2158.0178522615</v>
+        <v>1878.507785786469</v>
       </c>
       <c r="Y5" t="n">
-        <v>1767.878520285688</v>
+        <v>1488.368453810657</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811087</v>
+        <v>931.3041410966388</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999817</v>
+        <v>756.8511118155118</v>
       </c>
       <c r="D6" t="n">
-        <v>618.1564155387305</v>
+        <v>607.9167021542605</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332749</v>
+        <v>448.679247148805</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601599</v>
+        <v>302.1446891756899</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927779</v>
+        <v>165.443278618252</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064545</v>
+        <v>71.67401812057901</v>
       </c>
       <c r="I6" t="n">
-        <v>66.5121164321834</v>
+        <v>51.24678656800308</v>
       </c>
       <c r="J6" t="n">
-        <v>160.1893859228007</v>
+        <v>113.5972052500112</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031479</v>
+        <v>298.3188265310611</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158132</v>
+        <v>593.0223835625325</v>
       </c>
       <c r="M6" t="n">
-        <v>1212.428070438129</v>
+        <v>956.2844025217523</v>
       </c>
       <c r="N6" t="n">
-        <v>1685.951113992583</v>
+        <v>1343.569531118697</v>
       </c>
       <c r="O6" t="n">
-        <v>2096.912393410638</v>
+        <v>1675.639966294859</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.411984886741</v>
+        <v>2214.708848710445</v>
       </c>
       <c r="Q6" t="n">
-        <v>2565.053542533341</v>
+        <v>2538.001278676482</v>
       </c>
       <c r="R6" t="n">
-        <v>2564.909189125856</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S6" t="n">
-        <v>2435.471302619336</v>
+        <v>2426.617474780096</v>
       </c>
       <c r="T6" t="n">
-        <v>2242.828302297192</v>
+        <v>2232.610846175226</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431608</v>
+        <v>2004.520742047138</v>
       </c>
       <c r="V6" t="n">
-        <v>1779.608347199865</v>
+        <v>1769.368633815395</v>
       </c>
       <c r="W6" t="n">
-        <v>1525.370990471663</v>
+        <v>1515.131277087193</v>
       </c>
       <c r="X6" t="n">
-        <v>1317.519490266131</v>
+        <v>1307.279776881661</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501177</v>
+        <v>1099.519478116707</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>482.8906159540807</v>
+        <v>981.8280128167644</v>
       </c>
       <c r="C7" t="n">
-        <v>313.9544330261738</v>
+        <v>812.8918298888575</v>
       </c>
       <c r="D7" t="n">
-        <v>163.837793613838</v>
+        <v>662.7751904765217</v>
       </c>
       <c r="E7" t="n">
-        <v>163.837793613838</v>
+        <v>514.8620968941286</v>
       </c>
       <c r="F7" t="n">
-        <v>163.837793613838</v>
+        <v>367.9721493962183</v>
       </c>
       <c r="G7" t="n">
-        <v>163.837793613838</v>
+        <v>199.9856847044969</v>
       </c>
       <c r="H7" t="n">
-        <v>163.837793613838</v>
+        <v>51.24678656800308</v>
       </c>
       <c r="I7" t="n">
-        <v>66.5121164321834</v>
+        <v>51.24678656800308</v>
       </c>
       <c r="J7" t="n">
-        <v>111.634748879119</v>
+        <v>76.71595955312191</v>
       </c>
       <c r="K7" t="n">
-        <v>315.6219318279954</v>
+        <v>248.4064713020474</v>
       </c>
       <c r="L7" t="n">
-        <v>632.1817302764914</v>
+        <v>523.6376499693231</v>
       </c>
       <c r="M7" t="n">
-        <v>976.3387758760405</v>
+        <v>824.2194607096583</v>
       </c>
       <c r="N7" t="n">
-        <v>1317.747152581905</v>
+        <v>1123.088724245823</v>
       </c>
       <c r="O7" t="n">
-        <v>1617.076751502319</v>
+        <v>1383.126566999034</v>
       </c>
       <c r="P7" t="n">
-        <v>1849.684251935978</v>
+        <v>1582.113182171023</v>
       </c>
       <c r="Q7" t="n">
-        <v>1927.294548088493</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="R7" t="n">
-        <v>1837.464090846021</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="S7" t="n">
-        <v>1645.778206672847</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="T7" t="n">
-        <v>1424.011591242373</v>
+        <v>1612.258607688551</v>
       </c>
       <c r="U7" t="n">
-        <v>1134.908724368016</v>
+        <v>1612.258607688551</v>
       </c>
       <c r="V7" t="n">
-        <v>1113.321210825868</v>
+        <v>1612.258607688551</v>
       </c>
       <c r="W7" t="n">
-        <v>1113.321210825868</v>
+        <v>1612.258607688551</v>
       </c>
       <c r="X7" t="n">
-        <v>885.3316599278505</v>
+        <v>1384.269056790534</v>
       </c>
       <c r="Y7" t="n">
-        <v>664.5390807843204</v>
+        <v>1163.476477647004</v>
       </c>
     </row>
     <row r="8">
@@ -4778,22 +4780,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1959.379186075721</v>
+        <v>1689.318139675982</v>
       </c>
       <c r="C8" t="n">
-        <v>1590.416669135309</v>
+        <v>1320.35562273557</v>
       </c>
       <c r="D8" t="n">
-        <v>1232.150970528558</v>
+        <v>1320.35562273557</v>
       </c>
       <c r="E8" t="n">
-        <v>1232.150970528558</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="F8" t="n">
-        <v>821.1650657389509</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G8" t="n">
-        <v>406.0926155839475</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H8" t="n">
         <v>108.5090151927147</v>
@@ -4802,10 +4804,10 @@
         <v>66.51211643218343</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810564</v>
       </c>
       <c r="L8" t="n">
         <v>1040.244834329465</v>
@@ -4817,7 +4819,7 @@
         <v>2120.555556060172</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P8" t="n">
         <v>3018.302393296687</v>
@@ -4829,25 +4831,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S8" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T8" t="n">
-        <v>3009.337405520489</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U8" t="n">
-        <v>3009.337405520489</v>
+        <v>3136.754772526559</v>
       </c>
       <c r="V8" t="n">
-        <v>2702.287173321647</v>
+        <v>2805.691885182988</v>
       </c>
       <c r="W8" t="n">
-        <v>2349.518518051532</v>
+        <v>2452.923229912873</v>
       </c>
       <c r="X8" t="n">
-        <v>2349.518518051532</v>
+        <v>2079.457471651794</v>
       </c>
       <c r="Y8" t="n">
-        <v>1959.379186075721</v>
+        <v>1689.318139675982</v>
       </c>
     </row>
     <row r="9">
@@ -4875,7 +4877,7 @@
         <v>176.0213023927781</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064554</v>
+        <v>85.51940803064576</v>
       </c>
       <c r="I9" t="n">
         <v>66.51211643218342</v>
@@ -4936,22 +4938,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>624.6477645191717</v>
+        <v>608.7574741064773</v>
       </c>
       <c r="C10" t="n">
-        <v>624.6477645191717</v>
+        <v>608.7574741064773</v>
       </c>
       <c r="D10" t="n">
-        <v>624.6477645191717</v>
+        <v>458.6408346941415</v>
       </c>
       <c r="E10" t="n">
-        <v>624.6477645191717</v>
+        <v>310.7277411117484</v>
       </c>
       <c r="F10" t="n">
-        <v>477.7578170212613</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="G10" t="n">
-        <v>310.0549803959803</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="H10" t="n">
         <v>163.8377936138381</v>
@@ -4984,28 +4986,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R10" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S10" t="n">
-        <v>1645.778206672847</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="T10" t="n">
-        <v>1424.011591242373</v>
+        <v>1513.842048484845</v>
       </c>
       <c r="U10" t="n">
-        <v>1168.749422762019</v>
+        <v>1224.739181610489</v>
       </c>
       <c r="V10" t="n">
-        <v>914.0649345561324</v>
+        <v>970.0546934046018</v>
       </c>
       <c r="W10" t="n">
-        <v>624.6477645191717</v>
+        <v>836.7470250044946</v>
       </c>
       <c r="X10" t="n">
-        <v>624.6477645191717</v>
+        <v>608.7574741064773</v>
       </c>
       <c r="Y10" t="n">
-        <v>624.6477645191717</v>
+        <v>608.7574741064773</v>
       </c>
     </row>
     <row r="11">
@@ -5015,34 +5017,34 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.776026551876</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611465</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168625</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362699</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.8166630479719</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192611</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332388</v>
@@ -5054,37 +5056,37 @@
         <v>2950.898526355938</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398595</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.28515749258</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466575</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123004</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.98095685289</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.51519859181</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615998</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="12">
@@ -5103,7 +5105,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5112,25 +5114,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756267</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K12" t="n">
-        <v>280.8495004245697</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L12" t="n">
-        <v>776.1751066403286</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M12" t="n">
-        <v>1373.553594266881</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N12" t="n">
-        <v>2001.151557821488</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O12" t="n">
         <v>2553.061288060775</v>
@@ -5173,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>513.8536007400721</v>
+        <v>695.5020655703109</v>
       </c>
       <c r="C13" t="n">
-        <v>344.9174178121652</v>
+        <v>695.5020655703109</v>
       </c>
       <c r="D13" t="n">
-        <v>194.8007783998295</v>
+        <v>695.5020655703109</v>
       </c>
       <c r="E13" t="n">
-        <v>93.81666304797191</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F13" t="n">
-        <v>93.81666304797191</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G13" t="n">
-        <v>93.81666304797191</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797191</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M13" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P13" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832664</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V13" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W13" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X13" t="n">
-        <v>916.294644713842</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y13" t="n">
-        <v>695.5020655703119</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="14">
@@ -5255,7 +5257,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
         <v>1590.547811004713</v>
@@ -5264,61 +5266,61 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168616</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797189</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192611</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
-        <v>852.852361107581</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
         <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5340,7 +5342,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5349,34 +5351,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J15" t="n">
         <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>244.2098454714565</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L15" t="n">
-        <v>739.5354516872154</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="M15" t="n">
-        <v>1336.913939313768</v>
+        <v>1336.167399417937</v>
       </c>
       <c r="N15" t="n">
-        <v>1964.511902868375</v>
+        <v>1963.765362972544</v>
       </c>
       <c r="O15" t="n">
-        <v>2516.421633107662</v>
+        <v>2515.675093211831</v>
       </c>
       <c r="P15" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q15" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>983.3556038098246</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C16" t="n">
-        <v>814.4194208819177</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D16" t="n">
-        <v>664.302781469582</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E16" t="n">
-        <v>631.7012443408905</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578601</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M16" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P16" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2446.963083580261</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>2446.963083580261</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U16" t="n">
-        <v>2157.887856924459</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V16" t="n">
-        <v>1903.203368718572</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W16" t="n">
-        <v>1613.786198681612</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X16" t="n">
-        <v>1385.796647783594</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y16" t="n">
-        <v>1165.004068640064</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="17">
@@ -5489,34 +5491,34 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406467</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168597</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362672</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797186</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075806</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
@@ -5534,31 +5536,31 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R17" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y17" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="18">
@@ -5586,34 +5588,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J18" t="n">
         <v>243.4633055756266</v>
       </c>
       <c r="K18" t="n">
-        <v>577.3880777468471</v>
+        <v>280.8495004245706</v>
       </c>
       <c r="L18" t="n">
-        <v>739.5354516872161</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M18" t="n">
-        <v>1336.913939313768</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N18" t="n">
-        <v>1964.511902868375</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O18" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,28 +5649,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>513.8536007400712</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C19" t="n">
-        <v>513.8536007400712</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D19" t="n">
-        <v>513.8536007400712</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E19" t="n">
-        <v>513.8536007400712</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F19" t="n">
-        <v>366.9636532421608</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G19" t="n">
-        <v>199.7675539570408</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
         <v>174.0526814782957</v>
@@ -5695,28 +5697,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832663</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487567</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510508</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854706</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.701365648819</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W19" t="n">
-        <v>1144.284195611858</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X19" t="n">
-        <v>916.2946447138411</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y19" t="n">
-        <v>695.5020655703109</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="20">
@@ -5732,28 +5734,28 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
@@ -5826,31 +5828,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J21" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K21" t="n">
-        <v>577.3880777468471</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="L21" t="n">
-        <v>776.1751066403293</v>
+        <v>315.9123021921482</v>
       </c>
       <c r="M21" t="n">
-        <v>1373.553594266881</v>
+        <v>913.2907898187001</v>
       </c>
       <c r="N21" t="n">
-        <v>2001.151557821488</v>
+        <v>1540.888753373307</v>
       </c>
       <c r="O21" t="n">
-        <v>2553.061288060775</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="P21" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q21" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,25 +5886,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>741.8431516380886</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C22" t="n">
-        <v>572.9069687101817</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D22" t="n">
-        <v>572.9069687101817</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E22" t="n">
-        <v>424.9938751277886</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="F22" t="n">
-        <v>278.1039276298782</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="G22" t="n">
-        <v>175.9033664000583</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
@@ -5950,10 +5952,10 @@
         <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>1144.284195611858</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y22" t="n">
-        <v>923.4916164683283</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="23">
@@ -5969,22 +5971,22 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J23" t="n">
         <v>378.1925803111715</v>
@@ -5993,16 +5995,16 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
@@ -6066,28 +6068,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J24" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K24" t="n">
-        <v>280.8495004245706</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L24" t="n">
-        <v>776.1751066403293</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="M24" t="n">
-        <v>1373.553594266881</v>
+        <v>691.1951506745238</v>
       </c>
       <c r="N24" t="n">
-        <v>2001.151557821488</v>
+        <v>1318.79311422913</v>
       </c>
       <c r="O24" t="n">
-        <v>2553.061288060775</v>
+        <v>1870.702844468417</v>
       </c>
       <c r="P24" t="n">
-        <v>2553.061288060775</v>
+        <v>2294.325993963485</v>
       </c>
       <c r="Q24" t="n">
-        <v>2553.061288060775</v>
+        <v>2527.587654338368</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,25 +6123,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>849.3843576263199</v>
+        <v>803.8641191832229</v>
       </c>
       <c r="C25" t="n">
-        <v>680.448174698413</v>
+        <v>634.927936255316</v>
       </c>
       <c r="D25" t="n">
-        <v>530.3315352860773</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E25" t="n">
-        <v>382.4184417036842</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F25" t="n">
-        <v>235.5284942057738</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G25" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
@@ -6175,22 +6177,22 @@
         <v>2446.96308358026</v>
       </c>
       <c r="T25" t="n">
-        <v>2312.991837396757</v>
+        <v>2267.47159895366</v>
       </c>
       <c r="U25" t="n">
-        <v>2023.916610740955</v>
+        <v>1978.396372297858</v>
       </c>
       <c r="V25" t="n">
-        <v>1769.232122535068</v>
+        <v>1723.711884091971</v>
       </c>
       <c r="W25" t="n">
-        <v>1479.814952498107</v>
+        <v>1434.29471405501</v>
       </c>
       <c r="X25" t="n">
-        <v>1251.82540160009</v>
+        <v>1206.305163156993</v>
       </c>
       <c r="Y25" t="n">
-        <v>1031.03282245656</v>
+        <v>985.5125840134626</v>
       </c>
     </row>
     <row r="26">
@@ -6218,16 +6220,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192592</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
@@ -6245,13 +6247,13 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R26" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T26" t="n">
         <v>4405.252601474784</v>
@@ -6297,34 +6299,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J27" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="L27" t="n">
-        <v>738.7889117913853</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="M27" t="n">
-        <v>738.7889117913853</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N27" t="n">
-        <v>1344.266747951538</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O27" t="n">
-        <v>1896.176478190825</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P27" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q27" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>3342.537229081859</v>
+        <v>3160.179968880558</v>
       </c>
       <c r="C28" t="n">
-        <v>3173.601046153952</v>
+        <v>2991.243785952651</v>
       </c>
       <c r="D28" t="n">
-        <v>3023.484406741616</v>
+        <v>2841.127146540316</v>
       </c>
       <c r="E28" t="n">
-        <v>2875.571313159223</v>
+        <v>2693.214052957922</v>
       </c>
       <c r="F28" t="n">
-        <v>2728.681365661313</v>
+        <v>2693.214052957922</v>
       </c>
       <c r="G28" t="n">
-        <v>2561.485266376193</v>
+        <v>2526.017953672802</v>
       </c>
       <c r="H28" t="n">
-        <v>2419.773435218391</v>
+        <v>2384.306122515</v>
       </c>
       <c r="I28" t="n">
-        <v>2337.686731866304</v>
+        <v>2337.686731866303</v>
       </c>
       <c r="J28" t="n">
-        <v>2417.922750296628</v>
+        <v>2417.922750296627</v>
       </c>
       <c r="K28" t="n">
-        <v>2679.612012822167</v>
+        <v>2679.612012822166</v>
       </c>
       <c r="L28" t="n">
-        <v>3070.010606998107</v>
+        <v>3070.010606998106</v>
       </c>
       <c r="M28" t="n">
-        <v>3492.020309729142</v>
+        <v>3492.020309729141</v>
       </c>
       <c r="N28" t="n">
-        <v>3909.43018138915</v>
+        <v>3909.430181389149</v>
       </c>
       <c r="O28" t="n">
-        <v>4278.959462098135</v>
+        <v>4278.959462098134</v>
       </c>
       <c r="P28" t="n">
-        <v>4571.634917671694</v>
+        <v>4571.634917671693</v>
       </c>
       <c r="Q28" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="R28" t="n">
-        <v>4690.833152398593</v>
+        <v>4623.787448650995</v>
       </c>
       <c r="S28" t="n">
-        <v>4690.833152398593</v>
+        <v>4623.787448650995</v>
       </c>
       <c r="T28" t="n">
-        <v>4517.069482196493</v>
+        <v>4623.787448650995</v>
       </c>
       <c r="U28" t="n">
-        <v>4517.069482196493</v>
+        <v>4334.712221995193</v>
       </c>
       <c r="V28" t="n">
-        <v>4262.384993990607</v>
+        <v>4080.027733789306</v>
       </c>
       <c r="W28" t="n">
-        <v>3972.967823953646</v>
+        <v>3790.610563752345</v>
       </c>
       <c r="X28" t="n">
-        <v>3744.978273055629</v>
+        <v>3562.621012854328</v>
       </c>
       <c r="Y28" t="n">
-        <v>3524.185693912098</v>
+        <v>3341.828433710798</v>
       </c>
     </row>
     <row r="29">
@@ -6449,22 +6451,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
@@ -6497,13 +6499,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6516,76 +6518,76 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>3081.170977615666</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C30" t="n">
-        <v>2906.717948334539</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D30" t="n">
-        <v>2757.783538673288</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E30" t="n">
-        <v>2598.546083667832</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F30" t="n">
-        <v>2452.011525694717</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G30" t="n">
-        <v>2316.252859740625</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>2233.355914590558</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J30" t="n">
-        <v>2383.002557118213</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K30" t="n">
-        <v>2716.927329289434</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L30" t="n">
-        <v>3212.252935505192</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M30" t="n">
-        <v>3809.631423131744</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N30" t="n">
-        <v>3869.022106831312</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O30" t="n">
-        <v>4420.931837070599</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
-        <v>4420.931837070599</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
-        <v>4654.193497445481</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R30" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S30" t="n">
-        <v>4572.622366301206</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T30" t="n">
-        <v>4382.41566002298</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U30" t="n">
-        <v>4154.387578566165</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V30" t="n">
-        <v>3919.235470334422</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W30" t="n">
-        <v>3664.998113606221</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X30" t="n">
-        <v>3457.146613400688</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y30" t="n">
-        <v>3249.386314635734</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="31">
@@ -6595,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>580.8993044876688</v>
+        <v>2815.530845237133</v>
       </c>
       <c r="C31" t="n">
-        <v>411.9631215597619</v>
+        <v>2646.594662309226</v>
       </c>
       <c r="D31" t="n">
-        <v>411.9631215597619</v>
+        <v>2646.594662309226</v>
       </c>
       <c r="E31" t="n">
-        <v>411.9631215597619</v>
+        <v>2646.594662309226</v>
       </c>
       <c r="F31" t="n">
-        <v>411.9631215597619</v>
+        <v>2646.594662309226</v>
       </c>
       <c r="G31" t="n">
-        <v>317.6151975578602</v>
+        <v>2479.398563024106</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000583</v>
+        <v>2337.686731866304</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797187</v>
+        <v>2337.686731866304</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782957</v>
+        <v>2417.922750296628</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038343</v>
+        <v>2679.612012822167</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797745</v>
+        <v>3070.010606998107</v>
       </c>
       <c r="M31" t="n">
-        <v>1248.150240910809</v>
+        <v>3492.020309729142</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570817</v>
+        <v>3909.43018138915</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279802</v>
+        <v>4278.959462098135</v>
       </c>
       <c r="P31" t="n">
-        <v>2327.764848853361</v>
+        <v>4571.634917671694</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.96308358026</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="R31" t="n">
-        <v>2446.96308358026</v>
+        <v>4623.787448650995</v>
       </c>
       <c r="S31" t="n">
-        <v>2264.108249235165</v>
+        <v>4440.9326143059</v>
       </c>
       <c r="T31" t="n">
-        <v>2044.506784258106</v>
+        <v>4279.13832500757</v>
       </c>
       <c r="U31" t="n">
-        <v>1755.431557602304</v>
+        <v>3990.063098351768</v>
       </c>
       <c r="V31" t="n">
-        <v>1500.747069396417</v>
+        <v>3735.378610145881</v>
       </c>
       <c r="W31" t="n">
-        <v>1211.329899359456</v>
+        <v>3445.96144010892</v>
       </c>
       <c r="X31" t="n">
-        <v>983.3403484614387</v>
+        <v>3217.971889210903</v>
       </c>
       <c r="Y31" t="n">
-        <v>762.5477693179085</v>
+        <v>2997.179310067373</v>
       </c>
     </row>
     <row r="32">
@@ -6692,34 +6694,34 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192592</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075807</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R32" t="n">
         <v>4690.833152398593</v>
@@ -6734,13 +6736,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.375866615997</v>
@@ -6771,10 +6773,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J33" t="n">
         <v>243.4633055756266</v>
@@ -6786,16 +6788,16 @@
         <v>1072.713683962606</v>
       </c>
       <c r="M33" t="n">
-        <v>1072.713683962606</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N33" t="n">
-        <v>1700.311647517212</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O33" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
         <v>2553.061288060775</v>
@@ -6832,28 +6834,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>571.6607764188008</v>
+        <v>849.3843576263199</v>
       </c>
       <c r="C34" t="n">
-        <v>402.7245934908939</v>
+        <v>680.448174698413</v>
       </c>
       <c r="D34" t="n">
-        <v>402.7245934908939</v>
+        <v>530.3315352860773</v>
       </c>
       <c r="E34" t="n">
-        <v>402.7245934908939</v>
+        <v>382.4184417036842</v>
       </c>
       <c r="F34" t="n">
-        <v>402.7245934908939</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G34" t="n">
         <v>235.5284942057738</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J34" t="n">
         <v>174.0526814782957</v>
@@ -6880,28 +6882,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2437.724555511392</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S34" t="n">
-        <v>2254.869721166297</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T34" t="n">
-        <v>2035.268256189238</v>
+        <v>2312.991837396757</v>
       </c>
       <c r="U34" t="n">
-        <v>1746.193029533436</v>
+        <v>2023.916610740955</v>
       </c>
       <c r="V34" t="n">
-        <v>1491.508541327549</v>
+        <v>1769.232122535068</v>
       </c>
       <c r="W34" t="n">
-        <v>1202.091371290588</v>
+        <v>1479.814952498107</v>
       </c>
       <c r="X34" t="n">
-        <v>974.1018203925706</v>
+        <v>1251.82540160009</v>
       </c>
       <c r="Y34" t="n">
-        <v>753.3092412490405</v>
+        <v>1031.03282245656</v>
       </c>
     </row>
     <row r="35">
@@ -6923,40 +6925,40 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H35" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K35" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R35" t="n">
         <v>4690.833152398593</v>
@@ -7014,22 +7016,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J36" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K36" t="n">
-        <v>93.81666304797187</v>
+        <v>280.8495004245706</v>
       </c>
       <c r="L36" t="n">
-        <v>589.1422692637306</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M36" t="n">
-        <v>1186.520756890282</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N36" t="n">
-        <v>1814.118720444889</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O36" t="n">
-        <v>2366.028450684176</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
         <v>2553.061288060775</v>
@@ -7123,13 +7125,13 @@
         <v>2446.96308358026</v>
       </c>
       <c r="T37" t="n">
-        <v>2446.96308358026</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="U37" t="n">
-        <v>2273.199413378161</v>
+        <v>1938.286391947399</v>
       </c>
       <c r="V37" t="n">
-        <v>2018.514925172274</v>
+        <v>1938.286391947399</v>
       </c>
       <c r="W37" t="n">
         <v>1729.097755135313</v>
@@ -7160,22 +7162,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H38" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192593</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111712</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7208,13 +7210,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7248,31 +7250,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>280.8495004245706</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
-        <v>776.1751066403293</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="M39" t="n">
-        <v>1373.553594266881</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N39" t="n">
-        <v>2001.151557821488</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O39" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P39" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q39" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,16 +7308,16 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>513.8536007400712</v>
+        <v>653.7474797708871</v>
       </c>
       <c r="C40" t="n">
-        <v>513.8536007400712</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D40" t="n">
-        <v>513.8536007400712</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E40" t="n">
-        <v>513.8536007400712</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F40" t="n">
         <v>484.8112968429803</v>
@@ -7354,28 +7356,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487567</v>
+        <v>2336.956424518383</v>
       </c>
       <c r="T40" t="n">
-        <v>1977.461080510508</v>
+        <v>2117.354959541324</v>
       </c>
       <c r="U40" t="n">
-        <v>1688.385853854706</v>
+        <v>1828.279732885522</v>
       </c>
       <c r="V40" t="n">
-        <v>1433.701365648819</v>
+        <v>1573.595244679635</v>
       </c>
       <c r="W40" t="n">
-        <v>1144.284195611858</v>
+        <v>1284.178074642674</v>
       </c>
       <c r="X40" t="n">
-        <v>916.2946447138411</v>
+        <v>1056.188523744657</v>
       </c>
       <c r="Y40" t="n">
-        <v>695.5020655703109</v>
+        <v>835.3959446011269</v>
       </c>
     </row>
     <row r="41">
@@ -7388,7 +7390,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
         <v>1590.547811004713</v>
@@ -7397,55 +7399,55 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192592</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111739</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075831</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332389</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014781</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355939</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R41" t="n">
-        <v>4690.833152398595</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.28515749258</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
         <v>3467.980956852889</v>
@@ -7473,7 +7475,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E42" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F42" t="n">
         <v>314.2396613568978</v>
@@ -7482,34 +7484,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J42" t="n">
         <v>243.4633055756266</v>
       </c>
       <c r="K42" t="n">
-        <v>577.3880777468472</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L42" t="n">
         <v>1072.713683962606</v>
       </c>
       <c r="M42" t="n">
-        <v>1670.092171589158</v>
+        <v>1103.652278938886</v>
       </c>
       <c r="N42" t="n">
-        <v>2001.151557821488</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O42" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P42" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q42" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,28 +7545,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>513.8536007400712</v>
+        <v>800.5007694647277</v>
       </c>
       <c r="C43" t="n">
-        <v>344.9174178121643</v>
+        <v>631.5645865368208</v>
       </c>
       <c r="D43" t="n">
-        <v>344.9174178121643</v>
+        <v>481.447947124485</v>
       </c>
       <c r="E43" t="n">
-        <v>197.0043242297712</v>
+        <v>481.447947124485</v>
       </c>
       <c r="F43" t="n">
-        <v>197.0043242297712</v>
+        <v>481.447947124485</v>
       </c>
       <c r="G43" t="n">
-        <v>197.0043242297712</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H43" t="n">
         <v>175.9033664000583</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
         <v>174.0526814782957</v>
@@ -7591,28 +7593,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S43" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T43" t="n">
-        <v>1977.461080510508</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="U43" t="n">
-        <v>1688.385853854706</v>
+        <v>1975.033022579363</v>
       </c>
       <c r="V43" t="n">
-        <v>1433.701365648819</v>
+        <v>1720.348534373476</v>
       </c>
       <c r="W43" t="n">
-        <v>1144.284195611858</v>
+        <v>1430.931364336515</v>
       </c>
       <c r="X43" t="n">
-        <v>916.2946447138411</v>
+        <v>1202.941813438498</v>
       </c>
       <c r="Y43" t="n">
-        <v>695.5020655703109</v>
+        <v>982.1492342949674</v>
       </c>
     </row>
     <row r="44">
@@ -7640,19 +7642,19 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
         <v>2206.558663014778</v>
@@ -7661,7 +7663,7 @@
         <v>2950.898526355936</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7682,13 +7684,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y44" t="n">
         <v>2704.375866615997</v>
@@ -7701,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>3081.170977615666</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C45" t="n">
-        <v>2906.717948334539</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D45" t="n">
-        <v>2757.783538673288</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E45" t="n">
-        <v>2598.546083667832</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F45" t="n">
-        <v>2452.011525694717</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G45" t="n">
-        <v>2316.252859740625</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H45" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J45" t="n">
-        <v>2381.235169913446</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K45" t="n">
-        <v>2381.235169913446</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L45" t="n">
-        <v>2680.685310603266</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="M45" t="n">
-        <v>3278.063798229818</v>
+        <v>716.6687843969308</v>
       </c>
       <c r="N45" t="n">
-        <v>3905.661761784424</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O45" t="n">
-        <v>4457.571492023711</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P45" t="n">
-        <v>4457.571492023711</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q45" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R45" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S45" t="n">
-        <v>4572.622366301206</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T45" t="n">
-        <v>4382.41566002298</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U45" t="n">
-        <v>4154.387578566165</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V45" t="n">
-        <v>3919.235470334422</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W45" t="n">
-        <v>3664.998113606221</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X45" t="n">
-        <v>3457.146613400688</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y45" t="n">
-        <v>3249.386314635734</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="46">
@@ -7780,25 +7782,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>763.7541388327643</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C46" t="n">
-        <v>594.8179559048574</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D46" t="n">
-        <v>444.7013164925216</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E46" t="n">
-        <v>444.7013164925216</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F46" t="n">
-        <v>444.7013164925216</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G46" t="n">
-        <v>277.5052172074016</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H46" t="n">
-        <v>135.7933860495997</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
@@ -7828,28 +7830,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>2227.361618603201</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>1938.286391947399</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V46" t="n">
-        <v>1683.601903741512</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W46" t="n">
-        <v>1394.184733704551</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X46" t="n">
-        <v>1166.195182806534</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y46" t="n">
-        <v>945.402603663004</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
   </sheetData>
@@ -8052,7 +8054,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -8067,10 +8069,10 @@
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>224.3355197601777</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>305.1601501039158</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -8079,7 +8081,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>20.9377812015499</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8289,7 +8291,7 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -8310,13 +8312,13 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>294.8344935184744</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -23413,28 +23415,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>46.45968844823015</v>
+        <v>83.27114962944307</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.2658363185655</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23656,16 +23658,16 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>114.1584408891646</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>138.4949402405078</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -23698,13 +23700,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012164</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23890,7 +23892,7 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
@@ -23899,13 +23901,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>35.40333084624567</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>81.26583631856553</v>
@@ -23935,7 +23937,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -24130,22 +24132,22 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>64.34558267474715</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>40.32043864788574</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24190,7 +24192,7 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24370,19 +24372,19 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24415,7 +24417,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
-        <v>84.77391660561949</v>
+        <v>39.70888054695368</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24610,7 +24612,7 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -24619,7 +24621,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>35.11263957635557</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,16 +24648,16 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
-        <v>45.37941682720927</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24850,13 +24852,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>72.11969353038614</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,13 +24885,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>57.22910392194146</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -24965,7 +24967,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="T32" t="n">
         <v>0</v>
@@ -25078,16 +25080,16 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -25120,13 +25122,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>57.2291039219422</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>84.77391660561949</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25363,16 +25365,16 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>114.1584408891656</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>79.42624789262624</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -25549,7 +25551,7 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>148.6154730182124</v>
@@ -25558,7 +25560,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>116.6691671648112</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -25594,10 +25596,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>72.11969353038577</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25789,19 +25791,19 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>3.329716221310264</v>
       </c>
       <c r="H43" t="n">
-        <v>119.4047645948081</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -25831,13 +25833,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -26026,7 +26028,7 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
@@ -26041,7 +26043,7 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>39.70888054695403</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26068,16 +26070,16 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>57.22910392194231</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26123,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>931601.2626424792</v>
+        <v>939325.7683938713</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>931601.2626424792</v>
+        <v>939325.7683938713</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>915969.1961964171</v>
+        <v>915969.1961964172</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>915969.1961964173</v>
+        <v>915969.1961964172</v>
       </c>
     </row>
     <row r="7">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>915969.1961964172</v>
+        <v>915969.1961964173</v>
       </c>
     </row>
     <row r="10">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>915969.1961964171</v>
+        <v>915969.1961964172</v>
       </c>
     </row>
     <row r="13">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>915969.1961964171</v>
+        <v>915969.1961964173</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>915969.1961964173</v>
+        <v>915969.1961964171</v>
       </c>
     </row>
   </sheetData>
@@ -26311,43 +26313,43 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>513151.106165177</v>
+      </c>
+      <c r="C2" t="n">
+        <v>513151.106165177</v>
+      </c>
+      <c r="D2" t="n">
         <v>513151.1061651771</v>
       </c>
-      <c r="C2" t="n">
-        <v>513151.1061651771</v>
-      </c>
-      <c r="D2" t="n">
-        <v>513151.106165177</v>
-      </c>
       <c r="E2" t="n">
-        <v>504466.6248062536</v>
+        <v>504466.6248062537</v>
       </c>
       <c r="F2" t="n">
-        <v>504466.6248062539</v>
+        <v>504466.6248062537</v>
       </c>
       <c r="G2" t="n">
+        <v>504466.6248062538</v>
+      </c>
+      <c r="H2" t="n">
         <v>504466.6248062537</v>
       </c>
-      <c r="H2" t="n">
-        <v>504466.6248062536</v>
-      </c>
       <c r="I2" t="n">
-        <v>504466.6248062536</v>
+        <v>504466.6248062538</v>
       </c>
       <c r="J2" t="n">
         <v>504466.6248062538</v>
       </c>
       <c r="K2" t="n">
+        <v>504466.6248062538</v>
+      </c>
+      <c r="L2" t="n">
         <v>504466.6248062537</v>
       </c>
-      <c r="L2" t="n">
-        <v>504466.6248062538</v>
-      </c>
       <c r="M2" t="n">
-        <v>504466.6248062538</v>
+        <v>504466.6248062537</v>
       </c>
       <c r="N2" t="n">
-        <v>504466.6248062538</v>
+        <v>504466.6248062537</v>
       </c>
       <c r="O2" t="n">
         <v>504466.6248062536</v>
@@ -26363,16 +26365,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1328744.745727593</v>
+        <v>1114751.78357592</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>192627.1404403384</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073556</v>
+        <v>325412.4618073551</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26387,16 +26389,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972774</v>
+        <v>167605.1778099825</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>48293.9700081908</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.0279355119</v>
+        <v>85055.02793551184</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,19 +26417,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>87914.29116309558</v>
+        <v>135522.1369769831</v>
       </c>
       <c r="C4" t="n">
-        <v>87914.29116309562</v>
+        <v>135522.1369769832</v>
       </c>
       <c r="D4" t="n">
-        <v>87914.29116309554</v>
+        <v>87914.29116309556</v>
       </c>
       <c r="E4" t="n">
-        <v>8727.256391744284</v>
+        <v>8727.256391744282</v>
       </c>
       <c r="F4" t="n">
-        <v>8727.256391744286</v>
+        <v>8727.256391744282</v>
       </c>
       <c r="G4" t="n">
         <v>8727.256391744282</v>
@@ -26436,13 +26438,13 @@
         <v>8727.256391744282</v>
       </c>
       <c r="I4" t="n">
-        <v>8727.256391744282</v>
+        <v>8727.256391744284</v>
       </c>
       <c r="J4" t="n">
         <v>8727.256391744282</v>
       </c>
       <c r="K4" t="n">
-        <v>8727.256391744284</v>
+        <v>8727.256391744282</v>
       </c>
       <c r="L4" t="n">
         <v>8727.256391744282</v>
@@ -26451,10 +26453,10 @@
         <v>8727.256391744282</v>
       </c>
       <c r="N4" t="n">
-        <v>8727.256391744282</v>
+        <v>8727.256391744284</v>
       </c>
       <c r="O4" t="n">
-        <v>8727.256391744344</v>
+        <v>8727.256391744284</v>
       </c>
       <c r="P4" t="n">
         <v>8727.256391744282</v>
@@ -26467,16 +26469,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>107933.9405613933</v>
+        <v>92937.7724398447</v>
       </c>
       <c r="C5" t="n">
-        <v>107933.9405613933</v>
+        <v>92937.77243984469</v>
       </c>
       <c r="D5" t="n">
         <v>107933.9405613933</v>
       </c>
       <c r="E5" t="n">
-        <v>101122.5298239072</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="F5" t="n">
         <v>101122.5298239071</v>
@@ -26519,46 +26521,46 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1011441.871286904</v>
+        <v>-830060.5868275706</v>
       </c>
       <c r="C6" t="n">
-        <v>317302.8744406882</v>
+        <v>284691.1967483495</v>
       </c>
       <c r="D6" t="n">
-        <v>317302.8744406882</v>
+        <v>124675.7340003498</v>
       </c>
       <c r="E6" t="n">
-        <v>69204.37678324658</v>
+        <v>69204.37678324721</v>
       </c>
       <c r="F6" t="n">
-        <v>394616.8385906025</v>
+        <v>394616.8385906023</v>
       </c>
       <c r="G6" t="n">
-        <v>394616.8385906028</v>
+        <v>394616.8385906023</v>
       </c>
       <c r="H6" t="n">
+        <v>394616.8385906023</v>
+      </c>
+      <c r="I6" t="n">
+        <v>394616.8385906024</v>
+      </c>
+      <c r="J6" t="n">
+        <v>227011.6607806199</v>
+      </c>
+      <c r="K6" t="n">
+        <v>394616.8385906024</v>
+      </c>
+      <c r="L6" t="n">
+        <v>346322.8685824116</v>
+      </c>
+      <c r="M6" t="n">
+        <v>309561.8106550904</v>
+      </c>
+      <c r="N6" t="n">
+        <v>394616.8385906023</v>
+      </c>
+      <c r="O6" t="n">
         <v>394616.8385906022</v>
-      </c>
-      <c r="I6" t="n">
-        <v>394616.8385906023</v>
-      </c>
-      <c r="J6" t="n">
-        <v>177085.636193325</v>
-      </c>
-      <c r="K6" t="n">
-        <v>394616.8385906023</v>
-      </c>
-      <c r="L6" t="n">
-        <v>394616.8385906024</v>
-      </c>
-      <c r="M6" t="n">
-        <v>309561.8106550905</v>
-      </c>
-      <c r="N6" t="n">
-        <v>394616.8385906024</v>
-      </c>
-      <c r="O6" t="n">
-        <v>394616.8385906021</v>
       </c>
       <c r="P6" t="n">
         <v>394616.8385906024</v>
@@ -26735,10 +26737,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1089.776700593298</v>
+        <v>934.0648921175392</v>
       </c>
       <c r="C3" t="n">
-        <v>1089.776700593298</v>
+        <v>934.0648921175388</v>
       </c>
       <c r="D3" t="n">
         <v>1089.776700593298</v>
@@ -26787,19 +26789,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022925</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022925</v>
+        <v>640.5848321000385</v>
       </c>
       <c r="D4" t="n">
         <v>831.4014554022929</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="G4" t="n">
         <v>1172.708288099648</v>
@@ -26826,7 +26828,7 @@
         <v>1172.708288099648</v>
       </c>
       <c r="O4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="P4" t="n">
         <v>1172.708288099648</v>
@@ -26957,16 +26959,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1089.776700593298</v>
+        <v>934.0648921175392</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>155.7118084757595</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483759</v>
+        <v>278.1987997483754</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27009,16 +27011,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022925</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>190.8166233022544</v>
       </c>
       <c r="E4" t="n">
-        <v>341.306832697356</v>
+        <v>341.3068326973555</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022925</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>190.8166233022541</v>
       </c>
       <c r="M4" t="n">
-        <v>341.306832697356</v>
+        <v>341.3068326973557</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,16 +27257,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022925</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>190.8166233022544</v>
       </c>
       <c r="M4" t="n">
-        <v>341.306832697356</v>
+        <v>341.3068326973555</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,7 +27378,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -27385,7 +27387,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -27394,10 +27396,10 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27427,7 +27429,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -27439,10 +27441,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>250.0386168821492</v>
       </c>
       <c r="X2" t="n">
-        <v>366.8968940078405</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -27546,13 +27548,13 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>128.339238706563</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>144.7550149143208</v>
+        <v>36.98748233845642</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -27582,22 +27584,22 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T4" t="n">
-        <v>219.5489492761692</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2118382056129</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -27616,25 +27618,25 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>125.6104014511874</v>
       </c>
       <c r="G5" t="n">
-        <v>207.0466090246048</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>65.70991267247055</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,13 +27666,13 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396201</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U5" t="n">
-        <v>250.995171958902</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -27679,7 +27681,7 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27780,19 +27782,19 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27819,19 +27821,19 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>101.5575724195737</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>196.803058735126</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V7" t="n">
-        <v>230.7660049171009</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -27856,10 +27858,10 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
@@ -27868,7 +27870,7 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27901,22 +27903,22 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>64.03263336711521</v>
       </c>
       <c r="V8" t="n">
-        <v>23.77252859328138</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28014,19 +28016,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -28056,7 +28058,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -28065,16 +28067,16 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>33.50229141006272</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>154.5484066204849</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -31039,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.381011861681598</v>
+        <v>3.755034742181059</v>
       </c>
       <c r="H2" t="n">
-        <v>44.86703772844668</v>
+        <v>38.45624955336179</v>
       </c>
       <c r="I2" t="n">
-        <v>168.89895979748</v>
+        <v>144.7659768979354</v>
       </c>
       <c r="J2" t="n">
-        <v>371.8329054953988</v>
+        <v>318.70387994919</v>
       </c>
       <c r="K2" t="n">
-        <v>557.281137600381</v>
+        <v>477.6545005857143</v>
       </c>
       <c r="L2" t="n">
-        <v>691.3565293623194</v>
+        <v>592.572645076738</v>
       </c>
       <c r="M2" t="n">
-        <v>769.2673490574995</v>
+        <v>659.3512441730004</v>
       </c>
       <c r="N2" t="n">
-        <v>781.7148990095023</v>
+        <v>670.0202366342224</v>
       </c>
       <c r="O2" t="n">
-        <v>738.1512123099059</v>
+        <v>632.6811099166595</v>
       </c>
       <c r="P2" t="n">
-        <v>629.9949819746414</v>
+        <v>539.9786897190645</v>
       </c>
       <c r="Q2" t="n">
-        <v>473.099994678169</v>
+        <v>405.5015080147052</v>
       </c>
       <c r="R2" t="n">
-        <v>275.1987363563569</v>
+        <v>235.8772011235312</v>
       </c>
       <c r="S2" t="n">
-        <v>99.83230779806951</v>
+        <v>85.56785418745098</v>
       </c>
       <c r="T2" t="n">
-        <v>19.1778794245112</v>
+        <v>16.4376645838976</v>
       </c>
       <c r="U2" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3004027793744847</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,49 +31120,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.344047997502566</v>
+        <v>2.00912071134716</v>
       </c>
       <c r="H3" t="n">
-        <v>22.63856881798531</v>
+        <v>19.40387634380021</v>
       </c>
       <c r="I3" t="n">
-        <v>80.70516131752258</v>
+        <v>69.17367361436494</v>
       </c>
       <c r="J3" t="n">
-        <v>221.4611312026438</v>
+        <v>189.8178475575841</v>
       </c>
       <c r="K3" t="n">
-        <v>378.5123470353157</v>
+        <v>324.4289352178438</v>
       </c>
       <c r="L3" t="n">
-        <v>508.9565619138796</v>
+        <v>436.2347404177244</v>
       </c>
       <c r="M3" t="n">
-        <v>593.9283018233475</v>
+        <v>509.0653662040588</v>
       </c>
       <c r="N3" t="n">
-        <v>609.6478166837925</v>
+        <v>522.5388116762072</v>
       </c>
       <c r="O3" t="n">
-        <v>557.708647897025</v>
+        <v>478.0209264405675</v>
       </c>
       <c r="P3" t="n">
-        <v>447.6103584002927</v>
+        <v>383.6539365378625</v>
       </c>
       <c r="Q3" t="n">
-        <v>299.2156706987487</v>
+        <v>256.4624964168761</v>
       </c>
       <c r="R3" t="n">
-        <v>145.5365940905541</v>
+        <v>124.7417227624141</v>
       </c>
       <c r="S3" t="n">
-        <v>43.53966346238316</v>
+        <v>37.31853601997902</v>
       </c>
       <c r="T3" t="n">
-        <v>9.448158375898497</v>
+        <v>8.098166376000172</v>
       </c>
       <c r="U3" t="n">
-        <v>0.1542136840462215</v>
+        <v>0.1321789941675764</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,49 +31199,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.965171099430538</v>
+        <v>1.684379313654579</v>
       </c>
       <c r="H4" t="n">
-        <v>17.47215759311879</v>
+        <v>14.97566335231072</v>
       </c>
       <c r="I4" t="n">
-        <v>59.09805451742019</v>
+        <v>50.65387972335771</v>
       </c>
       <c r="J4" t="n">
-        <v>138.937596729739</v>
+        <v>119.0856174753787</v>
       </c>
       <c r="K4" t="n">
-        <v>228.3171513702024</v>
+        <v>195.6942511682319</v>
       </c>
       <c r="L4" t="n">
-        <v>292.167346909882</v>
+        <v>250.4212663227908</v>
       </c>
       <c r="M4" t="n">
-        <v>308.0495024316432</v>
+        <v>264.0341136849627</v>
       </c>
       <c r="N4" t="n">
-        <v>300.7247737883115</v>
+        <v>257.7559726067959</v>
       </c>
       <c r="O4" t="n">
-        <v>277.7680023086001</v>
+        <v>238.0793597154673</v>
       </c>
       <c r="P4" t="n">
-        <v>237.6785118802169</v>
+        <v>203.7180217169137</v>
       </c>
       <c r="Q4" t="n">
-        <v>164.556281789588</v>
+        <v>141.0437987097484</v>
       </c>
       <c r="R4" t="n">
-        <v>88.36123870712215</v>
+        <v>75.73581895759585</v>
       </c>
       <c r="S4" t="n">
-        <v>34.24757270553036</v>
+        <v>29.35413767523479</v>
       </c>
       <c r="T4" t="n">
-        <v>8.396640152112296</v>
+        <v>7.196893431069562</v>
       </c>
       <c r="U4" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.09187523529024985</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31276,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>4.381011861681598</v>
+        <v>3.755034742181058</v>
       </c>
       <c r="H5" t="n">
-        <v>44.86703772844668</v>
+        <v>38.45624955336176</v>
       </c>
       <c r="I5" t="n">
-        <v>168.89895979748</v>
+        <v>144.7659768979354</v>
       </c>
       <c r="J5" t="n">
-        <v>371.8329054953988</v>
+        <v>318.7038799491898</v>
       </c>
       <c r="K5" t="n">
-        <v>557.281137600381</v>
+        <v>477.6545005857141</v>
       </c>
       <c r="L5" t="n">
-        <v>691.3565293623194</v>
+        <v>592.5726450767378</v>
       </c>
       <c r="M5" t="n">
-        <v>769.2673490574995</v>
+        <v>659.3512441730001</v>
       </c>
       <c r="N5" t="n">
-        <v>781.7148990095023</v>
+        <v>670.0202366342221</v>
       </c>
       <c r="O5" t="n">
-        <v>738.1512123099059</v>
+        <v>632.6811099166591</v>
       </c>
       <c r="P5" t="n">
-        <v>629.9949819746414</v>
+        <v>539.9786897190642</v>
       </c>
       <c r="Q5" t="n">
-        <v>473.099994678169</v>
+        <v>405.5015080147049</v>
       </c>
       <c r="R5" t="n">
-        <v>275.1987363563569</v>
+        <v>235.8772011235311</v>
       </c>
       <c r="S5" t="n">
-        <v>99.83230779806951</v>
+        <v>85.56785418745093</v>
       </c>
       <c r="T5" t="n">
-        <v>19.1778794245112</v>
+        <v>16.43766458389759</v>
       </c>
       <c r="U5" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3004027793744846</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,49 +31357,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>2.344047997502566</v>
+        <v>2.009120711347159</v>
       </c>
       <c r="H6" t="n">
-        <v>22.63856881798531</v>
+        <v>19.4038763438002</v>
       </c>
       <c r="I6" t="n">
-        <v>80.70516131752258</v>
+        <v>69.17367361436492</v>
       </c>
       <c r="J6" t="n">
-        <v>221.4611312026438</v>
+        <v>189.817847557584</v>
       </c>
       <c r="K6" t="n">
-        <v>378.5123470353157</v>
+        <v>324.4289352178437</v>
       </c>
       <c r="L6" t="n">
-        <v>508.9565619138796</v>
+        <v>436.2347404177241</v>
       </c>
       <c r="M6" t="n">
-        <v>593.9283018233475</v>
+        <v>509.0653662040585</v>
       </c>
       <c r="N6" t="n">
-        <v>609.6478166837925</v>
+        <v>522.5388116762069</v>
       </c>
       <c r="O6" t="n">
-        <v>557.708647897025</v>
+        <v>478.0209264405672</v>
       </c>
       <c r="P6" t="n">
-        <v>447.6103584002927</v>
+        <v>383.6539365378623</v>
       </c>
       <c r="Q6" t="n">
-        <v>299.2156706987487</v>
+        <v>256.462496416876</v>
       </c>
       <c r="R6" t="n">
-        <v>145.5365940905541</v>
+        <v>124.741722762414</v>
       </c>
       <c r="S6" t="n">
-        <v>43.53966346238316</v>
+        <v>37.318536019979</v>
       </c>
       <c r="T6" t="n">
-        <v>9.448158375898497</v>
+        <v>8.098166376000169</v>
       </c>
       <c r="U6" t="n">
-        <v>0.1542136840462215</v>
+        <v>0.1321789941675763</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,49 +31436,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.965171099430538</v>
+        <v>1.684379313654578</v>
       </c>
       <c r="H7" t="n">
-        <v>17.47215759311879</v>
+        <v>14.97566335231071</v>
       </c>
       <c r="I7" t="n">
-        <v>59.09805451742019</v>
+        <v>50.65387972335768</v>
       </c>
       <c r="J7" t="n">
-        <v>138.937596729739</v>
+        <v>119.0856174753787</v>
       </c>
       <c r="K7" t="n">
-        <v>228.3171513702024</v>
+        <v>195.6942511682318</v>
       </c>
       <c r="L7" t="n">
-        <v>292.167346909882</v>
+        <v>250.4212663227906</v>
       </c>
       <c r="M7" t="n">
-        <v>308.0495024316432</v>
+        <v>264.0341136849626</v>
       </c>
       <c r="N7" t="n">
-        <v>300.7247737883115</v>
+        <v>257.7559726067958</v>
       </c>
       <c r="O7" t="n">
-        <v>277.7680023086001</v>
+        <v>238.0793597154671</v>
       </c>
       <c r="P7" t="n">
-        <v>237.6785118802169</v>
+        <v>203.7180217169136</v>
       </c>
       <c r="Q7" t="n">
-        <v>164.556281789588</v>
+        <v>141.0437987097484</v>
       </c>
       <c r="R7" t="n">
-        <v>88.36123870712215</v>
+        <v>75.73581895759582</v>
       </c>
       <c r="S7" t="n">
-        <v>34.24757270553036</v>
+        <v>29.35413767523477</v>
       </c>
       <c r="T7" t="n">
-        <v>8.396640152112296</v>
+        <v>7.196893431069558</v>
       </c>
       <c r="U7" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.09187523529024981</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31750,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H11" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162564</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S11" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,10 +31831,10 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H12" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
         <v>99.52238</v>
@@ -31841,19 +31843,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>175.6052721551095</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473074</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862124</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071787</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437245</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P12" t="n">
         <v>133.9744074143302</v>
@@ -31865,13 +31867,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P13" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H14" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162564</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S14" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,10 +32068,10 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H15" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
         <v>99.52238</v>
@@ -32078,37 +32080,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>138.5955196772175</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473074</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862124</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071787</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437245</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P15" t="n">
-        <v>133.9744074143302</v>
+        <v>171.7382405950817</v>
       </c>
       <c r="Q15" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32145,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P16" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32315,10 +32317,10 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422585</v>
+        <v>175.6052721551106</v>
       </c>
       <c r="L18" t="n">
-        <v>302.3396059822671</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
         <v>745.5466476862121</v>
@@ -32336,7 +32338,7 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
         <v>54.65449286742438</v>
@@ -32546,16 +32548,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L21" t="n">
-        <v>339.3493584601592</v>
+        <v>209.9499448422525</v>
       </c>
       <c r="M21" t="n">
         <v>745.5466476862121</v>
@@ -32567,13 +32569,13 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P21" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q21" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S21" t="n">
         <v>54.65449286742438</v>
@@ -32786,13 +32788,13 @@
         <v>99.52238</v>
       </c>
       <c r="J24" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K24" t="n">
-        <v>175.6052721551106</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M24" t="n">
         <v>745.5466476862121</v>
@@ -32804,13 +32806,13 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P24" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q24" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R24" t="n">
-        <v>145.679503963964</v>
+        <v>171.4104471179106</v>
       </c>
       <c r="S24" t="n">
         <v>54.65449286742438</v>
@@ -33020,7 +33022,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
         <v>277.9958514420755</v>
@@ -33029,13 +33031,13 @@
         <v>137.841438974359</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M27" t="n">
-        <v>142.1340339220183</v>
+        <v>581.3243739860829</v>
       </c>
       <c r="N27" t="n">
-        <v>742.935485982477</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
         <v>700.0808204437243</v>
@@ -33047,7 +33049,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R27" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S27" t="n">
         <v>54.65449286742438</v>
@@ -33257,7 +33259,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J30" t="n">
         <v>277.9958514420755</v>
@@ -33272,19 +33274,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>191.332301678856</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P30" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742438</v>
@@ -33506,19 +33508,19 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>340.4395077511235</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
         <v>145.679503963964</v>
@@ -33676,7 +33678,7 @@
         <v>790.8204499236507</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R35" t="n">
         <v>345.4516222043725</v>
@@ -33734,10 +33736,10 @@
         <v>99.52238</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>175.6052721551106</v>
       </c>
       <c r="L36" t="n">
         <v>638.8832749473072</v>
@@ -33752,7 +33754,7 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P36" t="n">
-        <v>322.8964653704906</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
         <v>139.9817740860215</v>
@@ -33889,7 +33891,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J38" t="n">
         <v>466.7546155663283</v>
@@ -33968,19 +33970,19 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>175.6052721551106</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862121</v>
+        <v>244.0266243181833</v>
       </c>
       <c r="N39" t="n">
         <v>765.2790490071785</v>
@@ -33989,13 +33991,13 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P39" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q39" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R39" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S39" t="n">
         <v>54.65449286742438</v>
@@ -34217,10 +34219,10 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862121</v>
+        <v>173.3851399586646</v>
       </c>
       <c r="N42" t="n">
-        <v>465.7451325200306</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
         <v>700.0808204437243</v>
@@ -34229,10 +34231,10 @@
         <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R42" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742438</v>
@@ -34451,10 +34453,10 @@
         <v>137.841438974359</v>
       </c>
       <c r="L45" t="n">
-        <v>441.0292693655508</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862121</v>
+        <v>620.1193660647499</v>
       </c>
       <c r="N45" t="n">
         <v>765.2790490071785</v>
@@ -34463,7 +34465,7 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P45" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q45" t="n">
         <v>375.599612848529</v>
@@ -34696,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>190.7870009687126</v>
+        <v>137.6579754225037</v>
       </c>
       <c r="K2" t="n">
-        <v>337.1912865554005</v>
+        <v>257.5646495407337</v>
       </c>
       <c r="L2" t="n">
-        <v>455.5901143923322</v>
+        <v>356.8062301067508</v>
       </c>
       <c r="M2" t="n">
-        <v>538.9211158302268</v>
+        <v>429.0050109457277</v>
       </c>
       <c r="N2" t="n">
-        <v>552.3018354129115</v>
+        <v>440.6071730376315</v>
       </c>
       <c r="O2" t="n">
-        <v>508.0530008882191</v>
+        <v>402.5828984949727</v>
       </c>
       <c r="P2" t="n">
-        <v>398.7619862193719</v>
+        <v>308.745693963795</v>
       </c>
       <c r="Q2" t="n">
-        <v>250.7943048037195</v>
+        <v>183.1958181402557</v>
       </c>
       <c r="R2" t="n">
-        <v>59.61319854222478</v>
+        <v>20.29166330939904</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,28 +34777,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>94.6235045359771</v>
+        <v>62.98022089091742</v>
       </c>
       <c r="K3" t="n">
-        <v>240.6709080609567</v>
+        <v>186.5874962434848</v>
       </c>
       <c r="L3" t="n">
-        <v>370.4021821340054</v>
+        <v>297.6803606378502</v>
       </c>
       <c r="M3" t="n">
-        <v>451.7942679013292</v>
+        <v>366.9313322820405</v>
       </c>
       <c r="N3" t="n">
-        <v>478.3061046004592</v>
+        <v>615.5326193530516</v>
       </c>
       <c r="O3" t="n">
-        <v>415.1124034525806</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="P3" t="n">
-        <v>313.6359509859624</v>
+        <v>249.6795291235323</v>
       </c>
       <c r="Q3" t="n">
-        <v>159.2338966127272</v>
+        <v>116.4807223308546</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34854,28 +34856,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.57841661306622</v>
+        <v>25.72643735870594</v>
       </c>
       <c r="K4" t="n">
-        <v>206.0476595443196</v>
+        <v>173.4247593423491</v>
       </c>
       <c r="L4" t="n">
-        <v>319.7573721701981</v>
+        <v>278.0112915831069</v>
       </c>
       <c r="M4" t="n">
-        <v>347.6333793934838</v>
+        <v>303.6179906468033</v>
       </c>
       <c r="N4" t="n">
-        <v>344.8569461675401</v>
+        <v>301.8881449860245</v>
       </c>
       <c r="O4" t="n">
-        <v>302.3531302226398</v>
+        <v>262.6644876295069</v>
       </c>
       <c r="P4" t="n">
-        <v>234.9570711451104</v>
+        <v>200.9965809818072</v>
       </c>
       <c r="Q4" t="n">
-        <v>78.39423853789366</v>
+        <v>54.88175545805403</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34933,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>190.7870009687126</v>
+        <v>137.6579754225035</v>
       </c>
       <c r="K5" t="n">
-        <v>337.1912865554005</v>
+        <v>257.5646495407335</v>
       </c>
       <c r="L5" t="n">
-        <v>455.5901143923322</v>
+        <v>356.8062301067505</v>
       </c>
       <c r="M5" t="n">
-        <v>538.9211158302268</v>
+        <v>429.0050109457273</v>
       </c>
       <c r="N5" t="n">
-        <v>552.3018354129115</v>
+        <v>440.6071730376312</v>
       </c>
       <c r="O5" t="n">
-        <v>508.0530008882191</v>
+        <v>402.5828984949724</v>
       </c>
       <c r="P5" t="n">
-        <v>398.7619862193719</v>
+        <v>308.7456939637946</v>
       </c>
       <c r="Q5" t="n">
-        <v>250.7943048037195</v>
+        <v>183.1958181402555</v>
       </c>
       <c r="R5" t="n">
-        <v>59.61319854222478</v>
+        <v>20.29166330939893</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35012,31 +35014,31 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>94.6235045359771</v>
+        <v>62.98022089091734</v>
       </c>
       <c r="K6" t="n">
-        <v>240.6709080609567</v>
+        <v>186.5874962434847</v>
       </c>
       <c r="L6" t="n">
-        <v>370.4021821340054</v>
+        <v>297.68036063785</v>
       </c>
       <c r="M6" t="n">
-        <v>451.7942679013292</v>
+        <v>366.9313322820402</v>
       </c>
       <c r="N6" t="n">
-        <v>478.3061046004592</v>
+        <v>391.1970995928737</v>
       </c>
       <c r="O6" t="n">
-        <v>415.1124034525806</v>
+        <v>335.4246819961228</v>
       </c>
       <c r="P6" t="n">
-        <v>313.6359509859624</v>
+        <v>544.5140226420065</v>
       </c>
       <c r="Q6" t="n">
-        <v>159.2338966127272</v>
+        <v>326.5580100667036</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>24.58388860977087</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35091,28 +35093,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.57841661306622</v>
+        <v>25.72643735870588</v>
       </c>
       <c r="K7" t="n">
-        <v>206.0476595443196</v>
+        <v>173.424759342349</v>
       </c>
       <c r="L7" t="n">
-        <v>319.7573721701981</v>
+        <v>278.0112915831068</v>
       </c>
       <c r="M7" t="n">
-        <v>347.6333793934838</v>
+        <v>303.6179906468032</v>
       </c>
       <c r="N7" t="n">
-        <v>344.8569461675401</v>
+        <v>301.8881449860244</v>
       </c>
       <c r="O7" t="n">
-        <v>302.3531302226398</v>
+        <v>262.6644876295068</v>
       </c>
       <c r="P7" t="n">
-        <v>234.9570711451104</v>
+        <v>200.9965809818071</v>
       </c>
       <c r="Q7" t="n">
-        <v>78.39423853789366</v>
+        <v>54.88175545805397</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35404,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J11" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367772</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902951</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N11" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243163</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,22 +35488,22 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754089</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>37.76383318075054</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674332</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
-        <v>603.412613764194</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238455</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992801</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -35565,22 +35567,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K13" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35641,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367772</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902951</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N14" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243163</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,31 +35725,31 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>151.1582247754089</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>0.7540807028584537</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>500.3288951674332</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
-        <v>603.412613764194</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238455</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992801</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>37.7638331807514</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>37.00975247789216</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,22 +35804,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K16" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35963,10 +35965,10 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>337.2977496678996</v>
+        <v>37.76383318075158</v>
       </c>
       <c r="L18" t="n">
-        <v>163.7852262023929</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
@@ -35984,7 +35986,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36194,16 +36196,16 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>200.7949786802851</v>
+        <v>71.39556506237828</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
@@ -36215,13 +36217,13 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36434,13 +36436,13 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>37.76383318075158</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
@@ -36452,13 +36454,13 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>25.73094315394662</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36668,7 +36670,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
@@ -36677,13 +36679,13 @@
         <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>439.1903400640646</v>
       </c>
       <c r="N27" t="n">
-        <v>611.5937738991437</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
         <v>557.4845759992799</v>
@@ -36695,7 +36697,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36838,7 +36840,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M29" t="n">
-        <v>735.3001107902952</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N29" t="n">
         <v>751.8584478193516</v>
@@ -36905,7 +36907,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
@@ -36920,19 +36922,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>59.99058959552271</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37154,19 +37156,19 @@
         <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>197.843263306679</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37324,7 +37326,7 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R35" t="n">
         <v>129.8660843902404</v>
@@ -37382,10 +37384,10 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>37.76383318075158</v>
       </c>
       <c r="L36" t="n">
         <v>500.328895167433</v>
@@ -37400,7 +37402,7 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P36" t="n">
-        <v>188.9220579561604</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
@@ -37537,7 +37539,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
@@ -37616,19 +37618,19 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>37.76383318075158</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>603.4126137641938</v>
+        <v>101.892590396165</v>
       </c>
       <c r="N39" t="n">
         <v>633.9373369238452</v>
@@ -37637,13 +37639,13 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37777,7 +37779,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
-        <v>285.7087110396443</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
         <v>479.454324036777</v>
@@ -37865,10 +37867,10 @@
         <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
-        <v>603.4126137641938</v>
+        <v>31.25110603664623</v>
       </c>
       <c r="N42" t="n">
-        <v>334.4034204366973</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
         <v>557.4845759992799</v>
@@ -37877,10 +37879,10 @@
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38099,10 +38101,10 @@
         <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>302.4748895856766</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>603.4126137641938</v>
+        <v>477.9853321427316</v>
       </c>
       <c r="N45" t="n">
         <v>633.9373369238452</v>
@@ -38111,7 +38113,7 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q45" t="n">
         <v>235.6178387625075</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_13_25.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_13_25.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1495553.644732495</v>
+        <v>1491458.003227729</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283187</v>
+        <v>416855.1052283189</v>
       </c>
     </row>
     <row r="9">
@@ -658,16 +658,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>141.2007964740134</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
@@ -676,7 +676,7 @@
         <v>411.547702772954</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -709,25 +709,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T2" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>99.20235183526381</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -816,7 +816,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
@@ -828,16 +828,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>166.3066000448042</v>
       </c>
       <c r="H4" t="n">
-        <v>110.2640268166724</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -864,7 +864,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -873,13 +873,13 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>64.50612826256146</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -904,19 +904,19 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>281.265644290524</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
         <v>11.54770277295399</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>65.70991267247044</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -946,22 +946,22 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>18.0561212966827</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -992,10 +992,10 @@
         <v>135.3343964518635</v>
       </c>
       <c r="H6" t="n">
-        <v>92.83156789269627</v>
+        <v>92.83156789269626</v>
       </c>
       <c r="I6" t="n">
-        <v>20.22295923705016</v>
+        <v>20.22295923705012</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1056,22 +1056,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>147.2515091551289</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1107,16 +1107,16 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>23.94563726208596</v>
+        <v>120.3332554667406</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -1132,25 +1132,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>138.8437204680931</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>410.9217256534534</v>
+        <v>10.92172565345345</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
         <v>41.57692977292595</v>
@@ -1183,13 +1183,13 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
-        <v>186.9625385917868</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -1290,10 +1290,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
@@ -1305,7 +1305,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1341,25 +1341,25 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>61.42978662487899</v>
       </c>
       <c r="W10" t="n">
-        <v>131.9745917161061</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1381,7 +1381,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417109</v>
       </c>
       <c r="G11" t="n">
         <v>409.8033385187866</v>
@@ -1527,16 +1527,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>63.38272884730802</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>63.1628130171261</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
@@ -1548,7 +1548,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,10 +1575,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>217.4054503272883</v>
@@ -1672,7 +1672,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784677</v>
       </c>
       <c r="Y14" t="n">
         <v>386.2379386560536</v>
@@ -1767,25 +1767,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>104.8913819999782</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>27.02919805176109</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1897,7 +1897,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576155</v>
       </c>
       <c r="U17" t="n">
         <v>250.9057009881286</v>
@@ -2004,13 +2004,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>22.6126310577748</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -2019,10 +2019,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>9.146142788179482</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2149,7 +2149,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560522</v>
       </c>
     </row>
     <row r="21">
@@ -2247,16 +2247,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>99.97427419833815</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2286,10 +2286,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>55.5207962406042</v>
       </c>
       <c r="T22" t="n">
         <v>217.4054503272883</v>
@@ -2481,7 +2481,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -2493,10 +2493,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428169</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,13 +2523,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
-        <v>177.6965697803346</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
         <v>286.1844743892441</v>
@@ -2605,10 +2605,10 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T26" t="n">
-        <v>199.0222304576155</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U26" t="n">
         <v>250.9057009881286</v>
@@ -2718,10 +2718,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -2733,7 +2733,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>46.15319674220996</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,13 +2760,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>108.9065924712588</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
         <v>286.1844743892441</v>
@@ -2851,7 +2851,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V29" t="n">
-        <v>327.7522584701346</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
         <v>349.240968717413</v>
@@ -2967,10 +2967,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>1.79977260571614</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3003,7 +3003,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>160.1763464053468</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
         <v>286.1844743892441</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695439</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3088,7 +3088,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V32" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701346</v>
       </c>
       <c r="W32" t="n">
         <v>349.240968717413</v>
@@ -3192,16 +3192,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
         <v>140.2947128462239</v>
@@ -3234,13 +3234,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
-        <v>132.6315337216688</v>
+        <v>160.1763464053464</v>
       </c>
       <c r="U34" t="n">
         <v>286.1844743892441</v>
@@ -3316,13 +3316,13 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U35" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881293</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -3432,10 +3432,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>165.5241382922688</v>
@@ -3444,7 +3444,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,10 +3471,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
         <v>217.4054503272883</v>
@@ -3486,7 +3486,7 @@
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>207.0967504439648</v>
+        <v>251.5502284016995</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3663,7 +3663,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>28.75188085812055</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
@@ -3681,7 +3681,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,10 +3708,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S40" t="n">
-        <v>108.9065924712588</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
         <v>217.4054503272883</v>
@@ -3757,7 +3757,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H41" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444123</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3802,7 +3802,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
-        <v>349.2409687174127</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
         <v>369.731100678469</v>
@@ -3912,10 +3912,10 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>162.1944220709586</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>18.70843787977265</v>
       </c>
       <c r="I43" t="n">
         <v>81.26583631856553</v>
@@ -3945,13 +3945,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
         <v>286.1844743892441</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4140,13 +4140,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>165.5241382922688</v>
@@ -4155,7 +4155,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,16 +4182,16 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>228.9553704673018</v>
+        <v>172.026033500079</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4306,28 +4306,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1236.203140240072</v>
+        <v>2295.013053781158</v>
       </c>
       <c r="C2" t="n">
-        <v>1236.203140240072</v>
+        <v>1926.050536840746</v>
       </c>
       <c r="D2" t="n">
-        <v>877.9374416333219</v>
+        <v>1567.784838233996</v>
       </c>
       <c r="E2" t="n">
-        <v>877.9374416333219</v>
+        <v>1181.996585635751</v>
       </c>
       <c r="F2" t="n">
-        <v>466.9515368437143</v>
+        <v>771.0106808461439</v>
       </c>
       <c r="G2" t="n">
-        <v>51.24678656800311</v>
+        <v>355.3059305704328</v>
       </c>
       <c r="H2" t="n">
-        <v>51.24678656800311</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="I2" t="n">
-        <v>51.24678656800311</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="J2" t="n">
         <v>187.5281822362817</v>
@@ -4351,31 +4351,31 @@
         <v>2360.886721764997</v>
       </c>
       <c r="Q2" t="n">
-        <v>2542.25058172385</v>
+        <v>2542.250581723851</v>
       </c>
       <c r="R2" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="S2" t="n">
-        <v>2562.339328400155</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="T2" t="n">
-        <v>2353.59368700598</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="U2" t="n">
-        <v>2100.01262627016</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="V2" t="n">
-        <v>2100.01262627016</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="W2" t="n">
-        <v>1999.808230476964</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="X2" t="n">
-        <v>1626.342472215884</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="Y2" t="n">
-        <v>1236.203140240072</v>
+        <v>2437.640120926626</v>
       </c>
     </row>
     <row r="3">
@@ -4385,28 +4385,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>931.3041410966389</v>
+        <v>931.3041410966384</v>
       </c>
       <c r="C3" t="n">
-        <v>756.8511118155119</v>
+        <v>756.8511118155114</v>
       </c>
       <c r="D3" t="n">
-        <v>607.9167021542605</v>
+        <v>607.9167021542603</v>
       </c>
       <c r="E3" t="n">
-        <v>448.679247148805</v>
+        <v>448.6792471488047</v>
       </c>
       <c r="F3" t="n">
-        <v>302.14468917569</v>
+        <v>302.1446891756898</v>
       </c>
       <c r="G3" t="n">
-        <v>165.4432786182524</v>
+        <v>165.443278618252</v>
       </c>
       <c r="H3" t="n">
         <v>71.67401812057901</v>
       </c>
       <c r="I3" t="n">
-        <v>51.24678656800311</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="J3" t="n">
         <v>113.5972052500114</v>
@@ -4418,22 +4418,22 @@
         <v>593.0223835625329</v>
       </c>
       <c r="M3" t="n">
-        <v>956.284402521753</v>
+        <v>1227.201367341572</v>
       </c>
       <c r="N3" t="n">
-        <v>1565.661695681274</v>
+        <v>1861.38035112061</v>
       </c>
       <c r="O3" t="n">
-        <v>2199.840679460312</v>
+        <v>2193.450786296772</v>
       </c>
       <c r="P3" t="n">
-        <v>2447.023413292609</v>
+        <v>2440.633520129069</v>
       </c>
       <c r="Q3" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="R3" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="S3" t="n">
         <v>2426.617474780096</v>
@@ -4448,10 +4448,10 @@
         <v>1769.368633815395</v>
       </c>
       <c r="W3" t="n">
-        <v>1515.131277087194</v>
+        <v>1515.131277087193</v>
       </c>
       <c r="X3" t="n">
-        <v>1307.279776881661</v>
+        <v>1307.27977688166</v>
       </c>
       <c r="Y3" t="n">
         <v>1099.519478116707</v>
@@ -4464,28 +4464,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>903.4321187182926</v>
+        <v>833.0891146802707</v>
       </c>
       <c r="C4" t="n">
-        <v>734.4959357903857</v>
+        <v>664.1529317523638</v>
       </c>
       <c r="D4" t="n">
-        <v>584.37929637805</v>
+        <v>514.036292340028</v>
       </c>
       <c r="E4" t="n">
-        <v>436.4662027956568</v>
+        <v>366.1231987576349</v>
       </c>
       <c r="F4" t="n">
-        <v>436.4662027956568</v>
+        <v>219.2332512597245</v>
       </c>
       <c r="G4" t="n">
-        <v>268.4797381039355</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="H4" t="n">
-        <v>157.1019332386098</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="I4" t="n">
-        <v>51.24678656800311</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="J4" t="n">
         <v>76.71595955312199</v>
@@ -4512,28 +4512,28 @@
         <v>1636.446120074497</v>
       </c>
       <c r="R4" t="n">
-        <v>1533.86271359008</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="S4" t="n">
-        <v>1533.86271359008</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="T4" t="n">
-        <v>1533.86271359008</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="U4" t="n">
-        <v>1533.86271359008</v>
+        <v>1571.288414758779</v>
       </c>
       <c r="V4" t="n">
-        <v>1533.86271359008</v>
+        <v>1571.288414758779</v>
       </c>
       <c r="W4" t="n">
-        <v>1533.86271359008</v>
+        <v>1281.871244721818</v>
       </c>
       <c r="X4" t="n">
-        <v>1305.873162692062</v>
+        <v>1053.881693823801</v>
       </c>
       <c r="Y4" t="n">
-        <v>1085.080583548532</v>
+        <v>833.0891146802707</v>
       </c>
     </row>
     <row r="5">
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1101.768613746536</v>
+        <v>809.2519436594666</v>
       </c>
       <c r="C5" t="n">
-        <v>732.8060968061241</v>
+        <v>440.2894267190549</v>
       </c>
       <c r="D5" t="n">
-        <v>732.8060968061241</v>
+        <v>440.2894267190549</v>
       </c>
       <c r="E5" t="n">
-        <v>347.0178442078798</v>
+        <v>440.2894267190549</v>
       </c>
       <c r="F5" t="n">
-        <v>62.91113280331015</v>
+        <v>433.3439259698515</v>
       </c>
       <c r="G5" t="n">
-        <v>51.24678656800308</v>
+        <v>421.6795797345444</v>
       </c>
       <c r="H5" t="n">
-        <v>51.24678656800308</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="I5" t="n">
-        <v>51.24678656800308</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="J5" t="n">
-        <v>187.5281822362813</v>
+        <v>187.5281822362819</v>
       </c>
       <c r="K5" t="n">
-        <v>442.5171852816077</v>
+        <v>442.5171852816084</v>
       </c>
       <c r="L5" t="n">
-        <v>795.7553530872908</v>
+        <v>795.755353087292</v>
       </c>
       <c r="M5" t="n">
-        <v>1220.470313923561</v>
+        <v>1220.470313923562</v>
       </c>
       <c r="N5" t="n">
-        <v>1656.671415230816</v>
+        <v>1656.671415230818</v>
       </c>
       <c r="O5" t="n">
-        <v>2055.228484740838</v>
+        <v>2055.228484740841</v>
       </c>
       <c r="P5" t="n">
-        <v>2360.886721764995</v>
+        <v>2360.886721764998</v>
       </c>
       <c r="Q5" t="n">
-        <v>2542.250581723849</v>
+        <v>2542.250581723851</v>
       </c>
       <c r="R5" t="n">
-        <v>2562.339328400154</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="S5" t="n">
-        <v>2562.339328400154</v>
+        <v>2544.100822039871</v>
       </c>
       <c r="T5" t="n">
-        <v>2562.339328400154</v>
+        <v>2544.100822039871</v>
       </c>
       <c r="U5" t="n">
-        <v>2562.339328400154</v>
+        <v>2290.51976130405</v>
       </c>
       <c r="V5" t="n">
-        <v>2231.276441056583</v>
+        <v>1959.45687396048</v>
       </c>
       <c r="W5" t="n">
-        <v>1878.507785786469</v>
+        <v>1959.45687396048</v>
       </c>
       <c r="X5" t="n">
-        <v>1878.507785786469</v>
+        <v>1585.9911156994</v>
       </c>
       <c r="Y5" t="n">
-        <v>1488.368453810657</v>
+        <v>1195.851783723588</v>
       </c>
     </row>
     <row r="6">
@@ -4622,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>931.3041410966388</v>
+        <v>931.3041410966398</v>
       </c>
       <c r="C6" t="n">
-        <v>756.8511118155118</v>
+        <v>756.8511118155128</v>
       </c>
       <c r="D6" t="n">
-        <v>607.9167021542605</v>
+        <v>607.9167021542614</v>
       </c>
       <c r="E6" t="n">
-        <v>448.679247148805</v>
+        <v>448.6792471488059</v>
       </c>
       <c r="F6" t="n">
-        <v>302.1446891756899</v>
+        <v>302.1446891756909</v>
       </c>
       <c r="G6" t="n">
-        <v>165.443278618252</v>
+        <v>165.4432786182533</v>
       </c>
       <c r="H6" t="n">
-        <v>71.67401812057901</v>
+        <v>71.67401812058006</v>
       </c>
       <c r="I6" t="n">
-        <v>51.24678656800308</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="J6" t="n">
-        <v>113.5972052500112</v>
+        <v>113.5972052500114</v>
       </c>
       <c r="K6" t="n">
-        <v>298.3188265310611</v>
+        <v>298.3188265310615</v>
       </c>
       <c r="L6" t="n">
-        <v>593.0223835625325</v>
+        <v>932.4978103101002</v>
       </c>
       <c r="M6" t="n">
-        <v>956.2844025217523</v>
+        <v>1295.759829269321</v>
       </c>
       <c r="N6" t="n">
-        <v>1343.569531118697</v>
+        <v>1683.044957866266</v>
       </c>
       <c r="O6" t="n">
-        <v>1675.639966294859</v>
+        <v>2199.840679460313</v>
       </c>
       <c r="P6" t="n">
-        <v>2214.708848710445</v>
+        <v>2447.02341329261</v>
       </c>
       <c r="Q6" t="n">
-        <v>2538.001278676482</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="R6" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="S6" t="n">
-        <v>2426.617474780096</v>
+        <v>2426.617474780097</v>
       </c>
       <c r="T6" t="n">
-        <v>2232.610846175226</v>
+        <v>2232.610846175227</v>
       </c>
       <c r="U6" t="n">
-        <v>2004.520742047138</v>
+        <v>2004.520742047139</v>
       </c>
       <c r="V6" t="n">
-        <v>1769.368633815395</v>
+        <v>1769.368633815396</v>
       </c>
       <c r="W6" t="n">
-        <v>1515.131277087193</v>
+        <v>1515.131277087195</v>
       </c>
       <c r="X6" t="n">
-        <v>1307.279776881661</v>
+        <v>1307.279776881662</v>
       </c>
       <c r="Y6" t="n">
-        <v>1099.519478116707</v>
+        <v>1099.519478116708</v>
       </c>
     </row>
     <row r="7">
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>981.8280128167644</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="C7" t="n">
-        <v>812.8918298888575</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="D7" t="n">
-        <v>662.7751904765217</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="E7" t="n">
-        <v>514.8620968941286</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="F7" t="n">
-        <v>367.9721493962183</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="G7" t="n">
-        <v>199.9856847044969</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="H7" t="n">
-        <v>51.24678656800308</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="I7" t="n">
-        <v>51.24678656800308</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="J7" t="n">
-        <v>76.71595955312191</v>
+        <v>76.71595955312203</v>
       </c>
       <c r="K7" t="n">
-        <v>248.4064713020474</v>
+        <v>248.4064713020476</v>
       </c>
       <c r="L7" t="n">
-        <v>523.6376499693231</v>
+        <v>523.6376499693235</v>
       </c>
       <c r="M7" t="n">
-        <v>824.2194607096583</v>
+        <v>824.219460709659</v>
       </c>
       <c r="N7" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O7" t="n">
-        <v>1383.126566999034</v>
+        <v>1383.126566999035</v>
       </c>
       <c r="P7" t="n">
-        <v>1582.113182171023</v>
+        <v>1582.113182171024</v>
       </c>
       <c r="Q7" t="n">
-        <v>1636.446120074497</v>
+        <v>1636.446120074498</v>
       </c>
       <c r="R7" t="n">
-        <v>1636.446120074497</v>
+        <v>1636.446120074498</v>
       </c>
       <c r="S7" t="n">
-        <v>1636.446120074497</v>
+        <v>1636.446120074498</v>
       </c>
       <c r="T7" t="n">
-        <v>1612.258607688551</v>
+        <v>1514.8973771788</v>
       </c>
       <c r="U7" t="n">
-        <v>1612.258607688551</v>
+        <v>1225.779039682638</v>
       </c>
       <c r="V7" t="n">
-        <v>1612.258607688551</v>
+        <v>971.0945514767509</v>
       </c>
       <c r="W7" t="n">
-        <v>1612.258607688551</v>
+        <v>681.6773814397902</v>
       </c>
       <c r="X7" t="n">
-        <v>1384.269056790534</v>
+        <v>453.6878305417729</v>
       </c>
       <c r="Y7" t="n">
-        <v>1163.476477647004</v>
+        <v>232.8952513982428</v>
       </c>
     </row>
     <row r="8">
@@ -4780,22 +4780,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1689.318139675982</v>
+        <v>1168.124113652745</v>
       </c>
       <c r="C8" t="n">
-        <v>1320.35562273557</v>
+        <v>1168.124113652745</v>
       </c>
       <c r="D8" t="n">
-        <v>1320.35562273557</v>
+        <v>809.8584150459947</v>
       </c>
       <c r="E8" t="n">
-        <v>934.5673701373257</v>
+        <v>424.0701624477504</v>
       </c>
       <c r="F8" t="n">
-        <v>523.5814653477182</v>
+        <v>417.1246616985469</v>
       </c>
       <c r="G8" t="n">
-        <v>108.5090151927147</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H8" t="n">
         <v>108.5090151927147</v>
@@ -4807,13 +4807,13 @@
         <v>255.3912473912096</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810564</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L8" t="n">
         <v>1040.244834329465</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.77673900139</v>
       </c>
       <c r="N8" t="n">
         <v>2120.555556060172</v>
@@ -4831,25 +4831,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S8" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T8" t="n">
-        <v>3325.605821609171</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="U8" t="n">
-        <v>3136.754772526559</v>
+        <v>2755.806928794325</v>
       </c>
       <c r="V8" t="n">
-        <v>2805.691885182988</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="W8" t="n">
-        <v>2452.923229912873</v>
+        <v>2071.97538618064</v>
       </c>
       <c r="X8" t="n">
-        <v>2079.457471651794</v>
+        <v>1698.50962791956</v>
       </c>
       <c r="Y8" t="n">
-        <v>1689.318139675982</v>
+        <v>1308.370295943748</v>
       </c>
     </row>
     <row r="9">
@@ -4883,13 +4883,13 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228006</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031476</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158131</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
@@ -4938,19 +4938,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>608.7574741064773</v>
+        <v>945.3964936596652</v>
       </c>
       <c r="C10" t="n">
-        <v>608.7574741064773</v>
+        <v>776.4603107317583</v>
       </c>
       <c r="D10" t="n">
-        <v>458.6408346941415</v>
+        <v>626.3436713194226</v>
       </c>
       <c r="E10" t="n">
-        <v>310.7277411117484</v>
+        <v>478.4305777370295</v>
       </c>
       <c r="F10" t="n">
-        <v>163.8377936138381</v>
+        <v>331.5406302391191</v>
       </c>
       <c r="G10" t="n">
         <v>163.8377936138381</v>
@@ -4989,25 +4989,25 @@
         <v>1927.294548088493</v>
       </c>
       <c r="S10" t="n">
-        <v>1735.608663915319</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T10" t="n">
-        <v>1513.842048484845</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="U10" t="n">
-        <v>1224.739181610489</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="V10" t="n">
-        <v>970.0546934046018</v>
+        <v>1865.244258568413</v>
       </c>
       <c r="W10" t="n">
-        <v>836.7470250044946</v>
+        <v>1575.827088531452</v>
       </c>
       <c r="X10" t="n">
-        <v>608.7574741064773</v>
+        <v>1347.837537633435</v>
       </c>
       <c r="Y10" t="n">
-        <v>608.7574741064773</v>
+        <v>1127.044958489905</v>
       </c>
     </row>
     <row r="11">
@@ -5023,10 +5023,10 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F11" t="n">
         <v>793.7736536168611</v>
@@ -5035,25 +5035,25 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O11" t="n">
         <v>3640.42229106801</v>
@@ -5120,25 +5120,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K12" t="n">
-        <v>577.3880777468471</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L12" t="n">
-        <v>1072.713683962606</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="M12" t="n">
-        <v>1670.092171589158</v>
+        <v>716.6687843969308</v>
       </c>
       <c r="N12" t="n">
-        <v>2297.690135143765</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O12" t="n">
-        <v>2553.061288060775</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P12" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q12" t="n">
         <v>2553.061288060775</v>
@@ -5175,25 +5175,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>695.5020655703109</v>
+        <v>763.7541388327643</v>
       </c>
       <c r="C13" t="n">
-        <v>695.5020655703109</v>
+        <v>699.73118040114</v>
       </c>
       <c r="D13" t="n">
-        <v>695.5020655703109</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="E13" t="n">
-        <v>631.7012443408906</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F13" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I13" t="n">
         <v>93.81666304797187</v>
@@ -5223,28 +5223,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487567</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510508</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854706</v>
+        <v>1938.286391947399</v>
       </c>
       <c r="V13" t="n">
-        <v>1433.701365648819</v>
+        <v>1683.601903741512</v>
       </c>
       <c r="W13" t="n">
-        <v>1144.284195611858</v>
+        <v>1394.184733704551</v>
       </c>
       <c r="X13" t="n">
-        <v>916.2946447138411</v>
+        <v>1166.195182806534</v>
       </c>
       <c r="Y13" t="n">
-        <v>695.5020655703109</v>
+        <v>945.402603663004</v>
       </c>
     </row>
     <row r="14">
@@ -5269,16 +5269,16 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K14" t="n">
         <v>852.8523611075807</v>
@@ -5299,28 +5299,28 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R14" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5351,28 +5351,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J15" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K15" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L15" t="n">
-        <v>738.7889117913853</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M15" t="n">
-        <v>1336.167399417937</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N15" t="n">
-        <v>1963.765362972544</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O15" t="n">
-        <v>2515.675093211831</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P15" t="n">
         <v>2553.061288060775</v>
@@ -5415,25 +5415,25 @@
         <v>513.8536007400712</v>
       </c>
       <c r="C16" t="n">
-        <v>344.9174178121643</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D16" t="n">
-        <v>344.9174178121643</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="E16" t="n">
-        <v>344.9174178121643</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F16" t="n">
-        <v>344.9174178121643</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J16" t="n">
         <v>174.0526814782957</v>
@@ -5506,19 +5506,19 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J17" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
@@ -5530,19 +5530,19 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P17" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R17" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T17" t="n">
         <v>4405.252601474784</v>
@@ -5551,13 +5551,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5588,25 +5588,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J18" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>280.8495004245706</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L18" t="n">
-        <v>776.1751066403293</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>1373.553594266881</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N18" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O18" t="n">
         <v>2553.061288060775</v>
@@ -5649,28 +5649,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C19" t="n">
-        <v>402.7245934908939</v>
+        <v>491.0125592675714</v>
       </c>
       <c r="D19" t="n">
-        <v>402.7245934908939</v>
+        <v>491.0125592675714</v>
       </c>
       <c r="E19" t="n">
-        <v>402.7245934908939</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="F19" t="n">
-        <v>402.7245934908939</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G19" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J19" t="n">
         <v>174.0526814782957</v>
@@ -5697,28 +5697,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W19" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X19" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y19" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="20">
@@ -5743,19 +5743,19 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J20" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
@@ -5767,34 +5767,34 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R20" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5825,34 +5825,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J21" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K21" t="n">
-        <v>245.2306927803937</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L21" t="n">
-        <v>315.9123021921482</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M21" t="n">
-        <v>913.2907898187001</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N21" t="n">
-        <v>1540.888753373307</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O21" t="n">
-        <v>2092.798483612594</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5886,28 +5886,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>513.8536007400712</v>
+        <v>707.672526468518</v>
       </c>
       <c r="C22" t="n">
-        <v>344.9174178121643</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="D22" t="n">
-        <v>194.8007783998286</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E22" t="n">
-        <v>194.8007783998286</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F22" t="n">
-        <v>194.8007783998286</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="G22" t="n">
-        <v>194.8007783998286</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J22" t="n">
         <v>174.0526814782957</v>
@@ -5934,28 +5934,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487567</v>
+        <v>2390.881471216014</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510508</v>
+        <v>2171.280006238955</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854706</v>
+        <v>1882.204779583153</v>
       </c>
       <c r="V22" t="n">
-        <v>1433.701365648819</v>
+        <v>1627.520291377266</v>
       </c>
       <c r="W22" t="n">
-        <v>1144.284195611858</v>
+        <v>1338.103121340305</v>
       </c>
       <c r="X22" t="n">
-        <v>916.2946447138411</v>
+        <v>1110.113570442288</v>
       </c>
       <c r="Y22" t="n">
-        <v>695.5020655703109</v>
+        <v>889.3209912987577</v>
       </c>
     </row>
     <row r="23">
@@ -5968,28 +5968,28 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168611</v>
+        <v>793.773653616862</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362693</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K23" t="n">
         <v>852.8523611075807</v>
@@ -5998,40 +5998,40 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R23" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6062,34 +6062,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K24" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L24" t="n">
-        <v>93.81666304797187</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M24" t="n">
-        <v>691.1951506745238</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N24" t="n">
-        <v>1318.79311422913</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O24" t="n">
-        <v>1870.702844468417</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
-        <v>2294.325993963485</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
-        <v>2527.587654338368</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6123,28 +6123,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>803.8641191832229</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C25" t="n">
-        <v>634.927936255316</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D25" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E25" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F25" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G25" t="n">
-        <v>317.6151975578602</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J25" t="n">
         <v>174.0526814782957</v>
@@ -6171,28 +6171,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>2267.47159895366</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1978.396372297858</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1723.711884091971</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1434.29471405501</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>1206.305163156993</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y25" t="n">
-        <v>985.5125840134626</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="26">
@@ -6220,40 +6220,40 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R26" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T26" t="n">
         <v>4405.252601474784</v>
@@ -6299,34 +6299,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273902</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
-        <v>245.2306927803937</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L27" t="n">
-        <v>245.2306927803937</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M27" t="n">
-        <v>680.0291294438176</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N27" t="n">
-        <v>1307.627092998424</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O27" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>3160.179968880558</v>
+        <v>653.7474797708871</v>
       </c>
       <c r="C28" t="n">
-        <v>2991.243785952651</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D28" t="n">
-        <v>2841.127146540316</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E28" t="n">
-        <v>2693.214052957922</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F28" t="n">
-        <v>2693.214052957922</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G28" t="n">
-        <v>2526.017953672802</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H28" t="n">
-        <v>2384.306122515</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I28" t="n">
-        <v>2337.686731866303</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>2417.922750296627</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>2679.612012822166</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L28" t="n">
-        <v>3070.010606998106</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M28" t="n">
-        <v>3492.020309729141</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>3909.430181389149</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O28" t="n">
-        <v>4278.959462098134</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P28" t="n">
-        <v>4571.634917671693</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>4623.787448650995</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S28" t="n">
-        <v>4623.787448650995</v>
+        <v>2336.956424518383</v>
       </c>
       <c r="T28" t="n">
-        <v>4623.787448650995</v>
+        <v>2117.354959541324</v>
       </c>
       <c r="U28" t="n">
-        <v>4334.712221995193</v>
+        <v>1828.279732885522</v>
       </c>
       <c r="V28" t="n">
-        <v>4080.027733789306</v>
+        <v>1573.595244679635</v>
       </c>
       <c r="W28" t="n">
-        <v>3790.610563752345</v>
+        <v>1284.178074642674</v>
       </c>
       <c r="X28" t="n">
-        <v>3562.621012854328</v>
+        <v>1056.188523744657</v>
       </c>
       <c r="Y28" t="n">
-        <v>3341.828433710798</v>
+        <v>835.3959446011269</v>
       </c>
     </row>
     <row r="29">
@@ -6454,28 +6454,28 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O29" t="n">
         <v>3640.42229106801</v>
@@ -6499,13 +6499,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>2815.530845237133</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C31" t="n">
-        <v>2646.594662309226</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D31" t="n">
-        <v>2646.594662309226</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E31" t="n">
-        <v>2646.594662309226</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F31" t="n">
-        <v>2646.594662309226</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G31" t="n">
-        <v>2479.398563024106</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H31" t="n">
-        <v>2337.686731866304</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I31" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L31" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M31" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O31" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P31" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>4623.787448650995</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>4440.9326143059</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>4279.13832500757</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>3990.063098351768</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>3735.378610145881</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>3445.96144010892</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>3217.971889210903</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y31" t="n">
-        <v>2997.179310067373</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="32">
@@ -6694,7 +6694,7 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
         <v>95.34095638192548</v>
@@ -6703,25 +6703,25 @@
         <v>378.1925803111708</v>
       </c>
       <c r="K32" t="n">
-        <v>852.85236110758</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
         <v>2206.558663014778</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R32" t="n">
         <v>4690.833152398593</v>
@@ -6773,10 +6773,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J33" t="n">
         <v>243.4633055756266</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>849.3843576263199</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C34" t="n">
-        <v>680.448174698413</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D34" t="n">
-        <v>530.3315352860773</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E34" t="n">
-        <v>382.4184417036842</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F34" t="n">
-        <v>235.5284942057738</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G34" t="n">
         <v>235.5284942057738</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P34" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R34" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T34" t="n">
-        <v>2312.991837396757</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U34" t="n">
-        <v>2023.916610740955</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V34" t="n">
-        <v>1769.232122535068</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W34" t="n">
-        <v>1479.814952498107</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X34" t="n">
-        <v>1251.82540160009</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y34" t="n">
-        <v>1031.03282245656</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="35">
@@ -6925,22 +6925,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
@@ -6949,37 +6949,37 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R35" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U35" t="n">
         <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -7001,7 +7001,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E36" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F36" t="n">
         <v>314.2396613568978</v>
@@ -7010,25 +7010,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J36" t="n">
         <v>243.4633055756266</v>
       </c>
       <c r="K36" t="n">
-        <v>280.8495004245706</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L36" t="n">
-        <v>776.1751066403293</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M36" t="n">
-        <v>1373.553594266881</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N36" t="n">
-        <v>2001.151557821488</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O36" t="n">
         <v>2553.061288060775</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1098.667160263527</v>
+        <v>803.8641191832228</v>
       </c>
       <c r="C37" t="n">
-        <v>929.7309773356195</v>
+        <v>634.9279362553159</v>
       </c>
       <c r="D37" t="n">
-        <v>779.6143379232838</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="E37" t="n">
-        <v>631.7012443408906</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F37" t="n">
-        <v>484.8112968429803</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G37" t="n">
-        <v>317.6151975578602</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H37" t="n">
         <v>175.9033664000583</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P37" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R37" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T37" t="n">
-        <v>2227.361618603201</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U37" t="n">
-        <v>1938.286391947399</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V37" t="n">
-        <v>1938.286391947399</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="W37" t="n">
-        <v>1729.097755135313</v>
+        <v>1434.29471405501</v>
       </c>
       <c r="X37" t="n">
-        <v>1501.108204237296</v>
+        <v>1206.305163156993</v>
       </c>
       <c r="Y37" t="n">
-        <v>1280.315625093766</v>
+        <v>985.5125840134625</v>
       </c>
     </row>
     <row r="38">
@@ -7165,19 +7165,19 @@
         <v>793.7736536168613</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H38" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J38" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7186,13 +7186,13 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q38" t="n">
         <v>4562.265728852255</v>
@@ -7250,31 +7250,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J39" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K39" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L39" t="n">
-        <v>579.1554649516142</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>680.0291294438176</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>653.7474797708871</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C40" t="n">
-        <v>484.8112968429803</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="D40" t="n">
-        <v>484.8112968429803</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="E40" t="n">
-        <v>484.8112968429803</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F40" t="n">
-        <v>484.8112968429803</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G40" t="n">
-        <v>317.6151975578602</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H40" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P40" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R40" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2336.956424518383</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T40" t="n">
-        <v>2117.354959541324</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U40" t="n">
-        <v>1828.279732885522</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V40" t="n">
-        <v>1573.595244679635</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W40" t="n">
-        <v>1284.178074642674</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X40" t="n">
-        <v>1056.188523744657</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y40" t="n">
-        <v>835.3959446011269</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="41">
@@ -7387,34 +7387,34 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168597</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362672</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192592</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7432,31 +7432,31 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R41" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="42">
@@ -7484,34 +7484,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J42" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>1103.652278938886</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>1731.250242493492</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O42" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7545,28 +7545,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>800.5007694647277</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C43" t="n">
-        <v>631.5645865368208</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D43" t="n">
-        <v>481.447947124485</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E43" t="n">
-        <v>481.447947124485</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="F43" t="n">
-        <v>481.447947124485</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="G43" t="n">
-        <v>317.6151975578602</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="H43" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J43" t="n">
         <v>174.0526814782957</v>
@@ -7593,28 +7593,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>2264.108249235165</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>1975.033022579363</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V43" t="n">
-        <v>1720.348534373476</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W43" t="n">
-        <v>1430.931364336515</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X43" t="n">
-        <v>1202.941813438498</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y43" t="n">
-        <v>982.1492342949674</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="44">
@@ -7645,13 +7645,13 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
@@ -7724,28 +7724,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J45" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K45" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L45" t="n">
-        <v>243.4633055756266</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>716.6687843969308</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>1344.266747951538</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
         <v>2553.061288060775</v>
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>571.6607764188008</v>
+        <v>1098.667160263526</v>
       </c>
       <c r="C46" t="n">
-        <v>402.7245934908939</v>
+        <v>929.7309773356194</v>
       </c>
       <c r="D46" t="n">
-        <v>402.7245934908939</v>
+        <v>779.6143379232836</v>
       </c>
       <c r="E46" t="n">
-        <v>402.7245934908939</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F46" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G46" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H46" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P46" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R46" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S46" t="n">
-        <v>2197.062545487567</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="T46" t="n">
-        <v>1977.461080510508</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="U46" t="n">
-        <v>1746.193029533436</v>
+        <v>2273.199413378161</v>
       </c>
       <c r="V46" t="n">
-        <v>1491.508541327549</v>
+        <v>2018.514925172274</v>
       </c>
       <c r="W46" t="n">
-        <v>1202.091371290588</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="X46" t="n">
-        <v>974.1018203925706</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y46" t="n">
-        <v>753.3092412490405</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
   </sheetData>
@@ -8066,19 +8066,19 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>273.6534998179985</v>
       </c>
       <c r="N3" t="n">
-        <v>224.3355197601777</v>
+        <v>249.3877325071651</v>
       </c>
       <c r="O3" t="n">
-        <v>305.1601501039158</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>6.454437538930151</v>
       </c>
       <c r="R3" t="n">
         <v>20.9377812015499</v>
@@ -8300,7 +8300,7 @@
         <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>342.9044714621888</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -8309,16 +8309,16 @@
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>186.5911984019048</v>
       </c>
       <c r="P6" t="n">
-        <v>294.8344935184744</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>45.52166981132082</v>
+        <v>20.93778120154985</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -23415,16 +23415,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>103.8640922513198</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>83.27114962944307</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -23436,7 +23436,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,10 +23463,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23655,25 +23655,25 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>41.54258064659096</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>138.4949402405078</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631857005</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23892,13 +23892,13 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>144.634190040853</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
@@ -23907,10 +23907,10 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,7 +23937,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -24037,7 +24037,7 @@
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>1.364242052659392e-12</v>
       </c>
     </row>
     <row r="21">
@@ -24135,16 +24135,16 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>40.32043864788574</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
         <v>81.26583631856553</v>
@@ -24174,10 +24174,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>125.5054897610404</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24369,7 +24369,7 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
@@ -24381,10 +24381,10 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,13 +24411,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>39.70888054695368</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24606,10 +24606,10 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
@@ -24621,7 +24621,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>35.11263957635557</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,13 +24648,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>72.11969353038577</v>
       </c>
       <c r="T28" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24855,10 +24855,10 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>138.4949402405078</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24891,7 +24891,7 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>57.22910392194146</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -24967,7 +24967,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
         <v>0</v>
@@ -25080,22 +25080,22 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,13 +25122,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>84.77391660561949</v>
+        <v>57.22910392194191</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25320,10 +25320,10 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -25359,10 +25359,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25374,7 +25374,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>79.42624789262624</v>
+        <v>34.97276993489146</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -25551,7 +25551,7 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>138.4949402405073</v>
       </c>
       <c r="D40" t="n">
         <v>148.6154730182124</v>
@@ -25596,10 +25596,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>72.11969353038577</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25800,10 +25800,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>3.329716221310264</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>121.5862749664512</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -25833,13 +25833,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -26028,13 +26028,13 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -26043,7 +26043,7 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,16 +26070,16 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
-        <v>57.22910392194231</v>
+        <v>114.1584408891651</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>915969.1961964172</v>
+        <v>915969.196196417</v>
       </c>
     </row>
     <row r="7">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>915969.1961964171</v>
+        <v>915969.196196417</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>915969.1961964173</v>
+        <v>915969.1961964171</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>915969.1961964173</v>
+        <v>915969.1961964172</v>
       </c>
     </row>
     <row r="11">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>915969.1961964172</v>
+        <v>915969.1961964171</v>
       </c>
     </row>
     <row r="13">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>915969.1961964173</v>
+        <v>915969.1961964172</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>915969.1961964171</v>
+        <v>915969.1961964173</v>
       </c>
     </row>
   </sheetData>
@@ -26313,13 +26313,13 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>513151.1061651771</v>
+      </c>
+      <c r="C2" t="n">
+        <v>513151.1061651768</v>
+      </c>
+      <c r="D2" t="n">
         <v>513151.106165177</v>
-      </c>
-      <c r="C2" t="n">
-        <v>513151.106165177</v>
-      </c>
-      <c r="D2" t="n">
-        <v>513151.1061651771</v>
       </c>
       <c r="E2" t="n">
         <v>504466.6248062537</v>
@@ -26328,34 +26328,34 @@
         <v>504466.6248062537</v>
       </c>
       <c r="G2" t="n">
-        <v>504466.6248062538</v>
+        <v>504466.6248062536</v>
       </c>
       <c r="H2" t="n">
         <v>504466.6248062537</v>
       </c>
       <c r="I2" t="n">
+        <v>504466.6248062536</v>
+      </c>
+      <c r="J2" t="n">
+        <v>504466.6248062537</v>
+      </c>
+      <c r="K2" t="n">
+        <v>504466.6248062536</v>
+      </c>
+      <c r="L2" t="n">
         <v>504466.6248062538</v>
       </c>
-      <c r="J2" t="n">
+      <c r="M2" t="n">
         <v>504466.6248062538</v>
       </c>
-      <c r="K2" t="n">
-        <v>504466.6248062538</v>
-      </c>
-      <c r="L2" t="n">
-        <v>504466.6248062537</v>
-      </c>
-      <c r="M2" t="n">
-        <v>504466.6248062537</v>
-      </c>
       <c r="N2" t="n">
-        <v>504466.6248062537</v>
+        <v>504466.6248062536</v>
       </c>
       <c r="O2" t="n">
         <v>504466.6248062536</v>
       </c>
       <c r="P2" t="n">
-        <v>504466.6248062538</v>
+        <v>504466.6248062537</v>
       </c>
     </row>
     <row r="3">
@@ -26368,10 +26368,10 @@
         <v>1114751.78357592</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>2.07046923605958e-10</v>
       </c>
       <c r="D3" t="n">
-        <v>192627.1404403384</v>
+        <v>192627.1404403377</v>
       </c>
       <c r="E3" t="n">
         <v>325412.4618073551</v>
@@ -26389,13 +26389,13 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>167605.1778099825</v>
+        <v>167605.1778099826</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>48293.9700081908</v>
+        <v>48293.97000819087</v>
       </c>
       <c r="M3" t="n">
         <v>85055.02793551184</v>
@@ -26407,7 +26407,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>1.513344614068046e-10</v>
       </c>
     </row>
     <row r="4">
@@ -26420,10 +26420,10 @@
         <v>135522.1369769831</v>
       </c>
       <c r="C4" t="n">
-        <v>135522.1369769832</v>
+        <v>135522.1369769831</v>
       </c>
       <c r="D4" t="n">
-        <v>87914.29116309556</v>
+        <v>87914.29116309554</v>
       </c>
       <c r="E4" t="n">
         <v>8727.256391744282</v>
@@ -26438,7 +26438,7 @@
         <v>8727.256391744282</v>
       </c>
       <c r="I4" t="n">
-        <v>8727.256391744284</v>
+        <v>8727.256391744282</v>
       </c>
       <c r="J4" t="n">
         <v>8727.256391744282</v>
@@ -26453,10 +26453,10 @@
         <v>8727.256391744282</v>
       </c>
       <c r="N4" t="n">
-        <v>8727.256391744284</v>
+        <v>8727.256391744282</v>
       </c>
       <c r="O4" t="n">
-        <v>8727.256391744284</v>
+        <v>8727.256391744348</v>
       </c>
       <c r="P4" t="n">
         <v>8727.256391744282</v>
@@ -26469,10 +26469,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>92937.7724398447</v>
+        <v>92937.77243984472</v>
       </c>
       <c r="C5" t="n">
-        <v>92937.77243984469</v>
+        <v>92937.77243984473</v>
       </c>
       <c r="D5" t="n">
         <v>107933.9405613933</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-830060.5868275706</v>
+        <v>-830060.5868275703</v>
       </c>
       <c r="C6" t="n">
-        <v>284691.1967483495</v>
+        <v>284691.1967483487</v>
       </c>
       <c r="D6" t="n">
-        <v>124675.7340003498</v>
+        <v>124675.7340003505</v>
       </c>
       <c r="E6" t="n">
-        <v>69204.37678324721</v>
+        <v>68856.99752889028</v>
       </c>
       <c r="F6" t="n">
-        <v>394616.8385906023</v>
+        <v>394269.4593362453</v>
       </c>
       <c r="G6" t="n">
-        <v>394616.8385906023</v>
+        <v>394269.4593362453</v>
       </c>
       <c r="H6" t="n">
-        <v>394616.8385906023</v>
+        <v>394269.4593362453</v>
       </c>
       <c r="I6" t="n">
-        <v>394616.8385906024</v>
+        <v>394269.4593362453</v>
       </c>
       <c r="J6" t="n">
-        <v>227011.6607806199</v>
+        <v>226664.2815262627</v>
       </c>
       <c r="K6" t="n">
-        <v>394616.8385906024</v>
+        <v>394269.4593362453</v>
       </c>
       <c r="L6" t="n">
-        <v>346322.8685824116</v>
+        <v>345975.4893280545</v>
       </c>
       <c r="M6" t="n">
-        <v>309561.8106550904</v>
+        <v>309214.4314007336</v>
       </c>
       <c r="N6" t="n">
-        <v>394616.8385906023</v>
+        <v>394269.4593362453</v>
       </c>
       <c r="O6" t="n">
-        <v>394616.8385906022</v>
+        <v>394269.4593362453</v>
       </c>
       <c r="P6" t="n">
-        <v>394616.8385906024</v>
+        <v>394269.4593362451</v>
       </c>
     </row>
   </sheetData>
@@ -26740,7 +26740,7 @@
         <v>934.0648921175392</v>
       </c>
       <c r="C3" t="n">
-        <v>934.0648921175388</v>
+        <v>934.0648921175394</v>
       </c>
       <c r="D3" t="n">
         <v>1089.776700593298</v>
@@ -26789,10 +26789,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.584832100039</v>
       </c>
       <c r="C4" t="n">
-        <v>640.5848321000385</v>
+        <v>640.5848321000391</v>
       </c>
       <c r="D4" t="n">
         <v>831.4014554022929</v>
@@ -26822,7 +26822,7 @@
         <v>1172.708288099648</v>
       </c>
       <c r="M4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="N4" t="n">
         <v>1172.708288099648</v>
@@ -26962,10 +26962,10 @@
         <v>934.0648921175392</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="D3" t="n">
-        <v>155.7118084757595</v>
+        <v>155.7118084757589</v>
       </c>
       <c r="E3" t="n">
         <v>278.1987997483754</v>
@@ -26989,7 +26989,7 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -27001,7 +27001,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
     </row>
     <row r="4">
@@ -27011,13 +27011,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.584832100039</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>190.8166233022544</v>
+        <v>190.8166233022538</v>
       </c>
       <c r="E4" t="n">
         <v>341.3068326973555</v>
@@ -27035,13 +27035,13 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000392</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>190.8166233022541</v>
+        <v>190.8166233022538</v>
       </c>
       <c r="M4" t="n">
         <v>341.3068326973557</v>
@@ -27257,13 +27257,13 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.584832100039</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>190.8166233022544</v>
+        <v>190.8166233022538</v>
       </c>
       <c r="M4" t="n">
         <v>341.3068326973555</v>
@@ -27378,16 +27378,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>241.5330451894671</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -27396,7 +27396,7 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>65.70991267247049</v>
@@ -27429,25 +27429,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>250.0386168821492</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27536,7 +27536,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27548,16 +27548,16 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>36.98748233845642</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27584,7 +27584,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S4" t="n">
         <v>194.6624603617375</v>
@@ -27593,13 +27593,13 @@
         <v>220.7486959972119</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2271541212006</v>
+        <v>221.7210258586392</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -27624,19 +27624,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>125.6104014511874</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
         <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>65.70991267247055</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27666,22 +27666,22 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>123.4522153987944</v>
+        <v>105.3960941021116</v>
       </c>
       <c r="T5" t="n">
         <v>206.6581849802338</v>
       </c>
       <c r="U5" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27776,22 +27776,22 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I7" t="n">
         <v>104.7965952039006</v>
@@ -27821,22 +27821,22 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>101.5575724195737</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S7" t="n">
         <v>194.6624603617375</v>
       </c>
       <c r="T7" t="n">
-        <v>196.803058735126</v>
+        <v>100.4154405304713</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -27852,25 +27852,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>243.8901211953875</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27903,13 +27903,13 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>64.03263336711521</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -28010,10 +28010,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -28025,7 +28025,7 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>144.7550149143208</v>
@@ -28061,25 +28061,25 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>190.707856698949</v>
       </c>
       <c r="W10" t="n">
-        <v>154.5484066204849</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -28392,7 +28392,7 @@
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>1.364242052659392e-12</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -28505,7 +28505,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>-2.241631118489267e-12</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -30477,7 +30477,7 @@
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>1.4210854715202e-12</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -31278,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>3.755034742181058</v>
+        <v>3.75503474218106</v>
       </c>
       <c r="H5" t="n">
-        <v>38.45624955336176</v>
+        <v>38.45624955336179</v>
       </c>
       <c r="I5" t="n">
-        <v>144.7659768979354</v>
+        <v>144.7659768979355</v>
       </c>
       <c r="J5" t="n">
-        <v>318.7038799491898</v>
+        <v>318.70387994919</v>
       </c>
       <c r="K5" t="n">
-        <v>477.6545005857141</v>
+        <v>477.6545005857144</v>
       </c>
       <c r="L5" t="n">
-        <v>592.5726450767378</v>
+        <v>592.5726450767381</v>
       </c>
       <c r="M5" t="n">
-        <v>659.3512441730001</v>
+        <v>659.3512441730006</v>
       </c>
       <c r="N5" t="n">
-        <v>670.0202366342221</v>
+        <v>670.0202366342226</v>
       </c>
       <c r="O5" t="n">
-        <v>632.6811099166591</v>
+        <v>632.6811099166596</v>
       </c>
       <c r="P5" t="n">
-        <v>539.9786897190642</v>
+        <v>539.9786897190646</v>
       </c>
       <c r="Q5" t="n">
-        <v>405.5015080147049</v>
+        <v>405.5015080147052</v>
       </c>
       <c r="R5" t="n">
-        <v>235.8772011235311</v>
+        <v>235.8772011235312</v>
       </c>
       <c r="S5" t="n">
-        <v>85.56785418745093</v>
+        <v>85.56785418745099</v>
       </c>
       <c r="T5" t="n">
-        <v>16.43766458389759</v>
+        <v>16.4376645838976</v>
       </c>
       <c r="U5" t="n">
-        <v>0.3004027793744846</v>
+        <v>0.3004027793744848</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31357,49 +31357,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>2.009120711347159</v>
+        <v>2.009120711347161</v>
       </c>
       <c r="H6" t="n">
-        <v>19.4038763438002</v>
+        <v>19.40387634380021</v>
       </c>
       <c r="I6" t="n">
-        <v>69.17367361436492</v>
+        <v>69.17367361436496</v>
       </c>
       <c r="J6" t="n">
-        <v>189.817847557584</v>
+        <v>189.8178475575841</v>
       </c>
       <c r="K6" t="n">
-        <v>324.4289352178437</v>
+        <v>324.4289352178439</v>
       </c>
       <c r="L6" t="n">
-        <v>436.2347404177241</v>
+        <v>436.2347404177245</v>
       </c>
       <c r="M6" t="n">
-        <v>509.0653662040585</v>
+        <v>509.0653662040589</v>
       </c>
       <c r="N6" t="n">
-        <v>522.5388116762069</v>
+        <v>522.5388116762073</v>
       </c>
       <c r="O6" t="n">
-        <v>478.0209264405672</v>
+        <v>478.0209264405676</v>
       </c>
       <c r="P6" t="n">
-        <v>383.6539365378623</v>
+        <v>383.6539365378626</v>
       </c>
       <c r="Q6" t="n">
-        <v>256.462496416876</v>
+        <v>256.4624964168761</v>
       </c>
       <c r="R6" t="n">
-        <v>124.741722762414</v>
+        <v>124.7417227624141</v>
       </c>
       <c r="S6" t="n">
-        <v>37.318536019979</v>
+        <v>37.31853601997903</v>
       </c>
       <c r="T6" t="n">
-        <v>8.098166376000169</v>
+        <v>8.098166376000174</v>
       </c>
       <c r="U6" t="n">
-        <v>0.1321789941675763</v>
+        <v>0.1321789941675764</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,49 +31436,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.684379313654578</v>
+        <v>1.684379313654579</v>
       </c>
       <c r="H7" t="n">
-        <v>14.97566335231071</v>
+        <v>14.97566335231072</v>
       </c>
       <c r="I7" t="n">
-        <v>50.65387972335768</v>
+        <v>50.65387972335773</v>
       </c>
       <c r="J7" t="n">
         <v>119.0856174753787</v>
       </c>
       <c r="K7" t="n">
-        <v>195.6942511682318</v>
+        <v>195.694251168232</v>
       </c>
       <c r="L7" t="n">
-        <v>250.4212663227906</v>
+        <v>250.4212663227908</v>
       </c>
       <c r="M7" t="n">
-        <v>264.0341136849626</v>
+        <v>264.0341136849628</v>
       </c>
       <c r="N7" t="n">
-        <v>257.7559726067958</v>
+        <v>257.7559726067959</v>
       </c>
       <c r="O7" t="n">
-        <v>238.0793597154671</v>
+        <v>238.0793597154673</v>
       </c>
       <c r="P7" t="n">
-        <v>203.7180217169136</v>
+        <v>203.7180217169137</v>
       </c>
       <c r="Q7" t="n">
         <v>141.0437987097484</v>
       </c>
       <c r="R7" t="n">
-        <v>75.73581895759582</v>
+        <v>75.73581895759588</v>
       </c>
       <c r="S7" t="n">
-        <v>29.35413767523477</v>
+        <v>29.35413767523479</v>
       </c>
       <c r="T7" t="n">
-        <v>7.196893431069558</v>
+        <v>7.196893431069563</v>
       </c>
       <c r="U7" t="n">
-        <v>0.09187523529024981</v>
+        <v>0.09187523529024988</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31840,28 +31840,28 @@
         <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K12" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862121</v>
+        <v>433.9798411722591</v>
       </c>
       <c r="N12" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
-        <v>400.5469039565762</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P12" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q12" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R12" t="n">
         <v>145.679503963964</v>
@@ -32074,13 +32074,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
         <v>638.8832749473072</v>
@@ -32092,10 +32092,10 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P15" t="n">
-        <v>171.7382405950817</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
         <v>139.9817740860215</v>
@@ -32311,13 +32311,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>175.6052721551106</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
         <v>638.8832749473072</v>
@@ -32329,7 +32329,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P18" t="n">
         <v>133.9744074143302</v>
@@ -32548,16 +32548,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J21" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>209.9499448422525</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
         <v>745.5466476862121</v>
@@ -32566,16 +32566,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
         <v>54.65449286742438</v>
@@ -32788,13 +32788,13 @@
         <v>99.52238</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
         <v>745.5466476862121</v>
@@ -32803,16 +32803,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
-        <v>171.4104471179106</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
         <v>54.65449286742438</v>
@@ -33022,34 +33022,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J27" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>581.3243739860829</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
         <v>54.65449286742438</v>
@@ -33411,7 +33411,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33423,31 +33423,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L32" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S32" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33490,10 +33490,10 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H33" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I33" t="n">
         <v>99.52238</v>
@@ -33502,16 +33502,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O33" t="n">
         <v>400.5469039565762</v>
@@ -33526,13 +33526,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33572,25 +33572,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33599,19 +33599,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,7 +33648,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
@@ -33660,31 +33660,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L35" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q35" t="n">
         <v>593.8732233669224</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S35" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33727,10 +33727,10 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H36" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I36" t="n">
         <v>99.52238</v>
@@ -33739,19 +33739,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>175.6052721551106</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P36" t="n">
         <v>133.9744074143302</v>
@@ -33763,13 +33763,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33809,25 +33809,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33836,19 +33836,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,43 +33885,43 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J38" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L38" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669214</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S38" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33964,10 +33964,10 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H39" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I39" t="n">
         <v>101.3076196007749</v>
@@ -33976,37 +33976,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M39" t="n">
-        <v>244.0266243181833</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34046,25 +34046,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34073,19 +34073,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34207,7 +34207,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
         <v>277.9958514420755</v>
@@ -34219,22 +34219,22 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>173.3851399586646</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P42" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742438</v>
@@ -34359,7 +34359,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
@@ -34371,31 +34371,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L44" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S44" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34438,49 +34438,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H45" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M45" t="n">
-        <v>620.1193660647499</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34520,25 +34520,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34547,19 +34547,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34786,19 +34786,19 @@
         <v>297.6803606378502</v>
       </c>
       <c r="M3" t="n">
-        <v>366.9313322820405</v>
+        <v>640.584832100039</v>
       </c>
       <c r="N3" t="n">
-        <v>615.5326193530516</v>
+        <v>640.584832100039</v>
       </c>
       <c r="O3" t="n">
-        <v>640.5848321000389</v>
+        <v>335.424681996123</v>
       </c>
       <c r="P3" t="n">
         <v>249.6795291235323</v>
       </c>
       <c r="Q3" t="n">
-        <v>116.4807223308546</v>
+        <v>122.9351598697847</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34935,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>137.6579754225035</v>
+        <v>137.6579754225037</v>
       </c>
       <c r="K5" t="n">
-        <v>257.5646495407335</v>
+        <v>257.5646495407339</v>
       </c>
       <c r="L5" t="n">
-        <v>356.8062301067505</v>
+        <v>356.8062301067509</v>
       </c>
       <c r="M5" t="n">
-        <v>429.0050109457273</v>
+        <v>429.0050109457279</v>
       </c>
       <c r="N5" t="n">
-        <v>440.6071730376312</v>
+        <v>440.6071730376316</v>
       </c>
       <c r="O5" t="n">
-        <v>402.5828984949724</v>
+        <v>402.5828984949728</v>
       </c>
       <c r="P5" t="n">
-        <v>308.7456939637946</v>
+        <v>308.7456939637951</v>
       </c>
       <c r="Q5" t="n">
-        <v>183.1958181402555</v>
+        <v>183.1958181402557</v>
       </c>
       <c r="R5" t="n">
-        <v>20.29166330939893</v>
+        <v>20.2916633093991</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35014,31 +35014,31 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>62.98022089091734</v>
+        <v>62.98022089091745</v>
       </c>
       <c r="K6" t="n">
-        <v>186.5874962434847</v>
+        <v>186.5874962434849</v>
       </c>
       <c r="L6" t="n">
-        <v>297.68036063785</v>
+        <v>640.5848321000391</v>
       </c>
       <c r="M6" t="n">
-        <v>366.9313322820402</v>
+        <v>366.9313322820406</v>
       </c>
       <c r="N6" t="n">
-        <v>391.1970995928737</v>
+        <v>391.197099592874</v>
       </c>
       <c r="O6" t="n">
-        <v>335.4246819961228</v>
+        <v>522.0158803980279</v>
       </c>
       <c r="P6" t="n">
-        <v>544.5140226420065</v>
+        <v>249.6795291235323</v>
       </c>
       <c r="Q6" t="n">
-        <v>326.5580100667036</v>
+        <v>116.4807223308546</v>
       </c>
       <c r="R6" t="n">
-        <v>24.58388860977087</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35093,28 +35093,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>25.72643735870588</v>
+        <v>25.72643735870597</v>
       </c>
       <c r="K7" t="n">
-        <v>173.424759342349</v>
+        <v>173.4247593423491</v>
       </c>
       <c r="L7" t="n">
-        <v>278.0112915831068</v>
+        <v>278.011291583107</v>
       </c>
       <c r="M7" t="n">
-        <v>303.6179906468032</v>
+        <v>303.6179906468034</v>
       </c>
       <c r="N7" t="n">
-        <v>301.8881449860244</v>
+        <v>301.8881449860245</v>
       </c>
       <c r="O7" t="n">
-        <v>262.6644876295068</v>
+        <v>262.664487629507</v>
       </c>
       <c r="P7" t="n">
-        <v>200.9965809818071</v>
+        <v>200.9965809818072</v>
       </c>
       <c r="Q7" t="n">
-        <v>54.88175545805397</v>
+        <v>54.88175545805406</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35488,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641938</v>
+        <v>291.8458072502408</v>
       </c>
       <c r="N12" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
-        <v>257.9506595121318</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35722,13 +35722,13 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J15" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
         <v>500.328895167433</v>
@@ -35740,10 +35740,10 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P15" t="n">
-        <v>37.7638331807514</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -35959,13 +35959,13 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>37.76383318075158</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
         <v>500.328895167433</v>
@@ -35977,7 +35977,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -36196,16 +36196,16 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>71.39556506237828</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
@@ -36214,16 +36214,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36436,13 +36436,13 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
@@ -36451,16 +36451,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>25.73094315394662</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36670,34 +36670,34 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
-        <v>439.1903400640646</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -37065,34 +37065,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L32" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M32" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O32" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37153,13 +37153,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O33" t="n">
         <v>257.9506595121318</v>
@@ -37226,22 +37226,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K34" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37302,34 +37302,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L35" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M35" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O35" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q35" t="n">
         <v>371.5675334924729</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37387,19 +37387,19 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>37.76383318075158</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
@@ -37463,22 +37463,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K37" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37539,34 +37539,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L38" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O38" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924719</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37618,7 +37618,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
@@ -37627,25 +37627,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M39" t="n">
-        <v>101.892590396165</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37700,22 +37700,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K40" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37855,7 +37855,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
         <v>151.1582247754088</v>
@@ -37867,22 +37867,22 @@
         <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
-        <v>31.25110603664623</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38013,34 +38013,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L44" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M44" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O44" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38092,31 +38092,31 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M45" t="n">
-        <v>477.9853321427316</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38174,22 +38174,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K46" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_13_25.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_13_25.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1491458.003227729</v>
+        <v>1493218.533530515</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283189</v>
+        <v>416855.1052283187</v>
       </c>
     </row>
     <row r="9">
@@ -658,10 +658,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>141.2007964740134</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>234.1055905923159</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
@@ -679,7 +679,7 @@
         <v>301.0185525624054</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -712,7 +712,7 @@
         <v>123.4522153987944</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I3" t="n">
-        <v>20.22295923705013</v>
+        <v>20.22295923705015</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -816,13 +816,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
@@ -831,13 +831,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>123.9786225373127</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -867,25 +867,25 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U4" t="n">
-        <v>64.50612826256146</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -895,7 +895,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -904,19 +904,19 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>11.54770277295399</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H5" t="n">
-        <v>301.0185525624054</v>
+        <v>243.3613788683474</v>
       </c>
       <c r="I5" t="n">
-        <v>65.70991267247044</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -946,25 +946,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>18.0561212966827</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -995,7 +995,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I6" t="n">
-        <v>20.22295923705012</v>
+        <v>20.22295923705015</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1056,16 +1056,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1107,13 +1107,13 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>120.3332554667406</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>50.98074812542808</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -1132,10 +1132,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>138.8437204680931</v>
+        <v>240.7199646803068</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
@@ -1144,16 +1144,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>10.92172565345345</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H8" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1186,22 +1186,22 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1232,7 +1232,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I9" t="n">
-        <v>18.81721868247742</v>
+        <v>18.8172186824774</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,10 +1259,10 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.142909873409792</v>
       </c>
       <c r="S9" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T9" t="n">
         <v>190.7165703189231</v>
@@ -1302,10 +1302,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>86.66480470122582</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1347,10 +1347,10 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
-        <v>61.42978662487899</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -1381,7 +1381,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417109</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
         <v>409.8033385187866</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695439</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1530,22 +1530,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>63.38272884730802</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1575,10 +1575,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
         <v>217.4054503272883</v>
@@ -1593,7 +1593,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>33.828918917875</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1624,7 +1624,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H14" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1672,7 +1672,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>369.7311006784677</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
         <v>386.2379386560536</v>
@@ -1770,13 +1770,13 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>104.8913819999782</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>165.5241382922688</v>
@@ -1818,7 +1818,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4054503272883</v>
+        <v>172.6684446854161</v>
       </c>
       <c r="U16" t="n">
         <v>286.1844743892441</v>
@@ -1894,10 +1894,10 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T17" t="n">
-        <v>199.0222304576155</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U17" t="n">
         <v>250.9057009881286</v>
@@ -2004,13 +2004,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>22.6126310577748</v>
+        <v>28.75188085812005</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -2019,7 +2019,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
         <v>81.26583631856553</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2149,7 +2149,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560522</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="21">
@@ -2244,22 +2244,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,16 +2286,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
-        <v>55.5207962406042</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
-        <v>286.1844743892441</v>
+        <v>227.9781415148424</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2304,7 +2304,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -2487,13 +2487,13 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="G25" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>83.06560892428169</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2563,7 +2563,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722623</v>
       </c>
       <c r="F26" t="n">
         <v>406.8760457417114</v>
@@ -2718,22 +2718,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>99.97427419833859</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,10 +2760,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S28" t="n">
-        <v>108.9065924712588</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
         <v>217.4054503272883</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695619</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2955,22 +2955,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>1.79977260571614</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,16 +2997,16 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>217.4054503272883</v>
+        <v>172.026033500079</v>
       </c>
       <c r="U31" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -3088,7 +3088,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V32" t="n">
-        <v>327.7522584701346</v>
+        <v>327.7522584701355</v>
       </c>
       <c r="W32" t="n">
         <v>349.240968717413</v>
@@ -3192,19 +3192,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3240,7 +3240,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
-        <v>160.1763464053464</v>
+        <v>25.52471385612679</v>
       </c>
       <c r="U34" t="n">
         <v>286.1844743892441</v>
@@ -3316,13 +3316,13 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695619</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U35" t="n">
-        <v>250.9057009881293</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -3432,10 +3432,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>165.5241382922688</v>
@@ -3444,7 +3444,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3483,13 +3483,13 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>251.5502284016995</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>14.53306611597379</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -3663,22 +3663,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>28.75188085812055</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>97.98413062224105</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>81.26583631856552</v>
@@ -3726,7 +3726,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -3757,7 +3757,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H41" t="n">
-        <v>283.1540821444123</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3906,19 +3906,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>18.70843787977265</v>
+        <v>107.4021082756242</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,13 +3945,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>286.1844743892441</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4134,7 +4134,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>167.2468210986278</v>
@@ -4146,7 +4146,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>165.5241382922688</v>
@@ -4155,7 +4155,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,16 +4182,16 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>8.579726596858007</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
-        <v>172.026033500079</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4306,37 +4306,37 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2295.013053781158</v>
+        <v>2228.89447953245</v>
       </c>
       <c r="C2" t="n">
-        <v>1926.050536840746</v>
+        <v>1992.424186004858</v>
       </c>
       <c r="D2" t="n">
-        <v>1567.784838233996</v>
+        <v>1634.158487398107</v>
       </c>
       <c r="E2" t="n">
-        <v>1181.996585635751</v>
+        <v>1248.370234799863</v>
       </c>
       <c r="F2" t="n">
-        <v>771.0106808461439</v>
+        <v>837.3843300102556</v>
       </c>
       <c r="G2" t="n">
-        <v>355.3059305704328</v>
+        <v>421.6795797345444</v>
       </c>
       <c r="H2" t="n">
-        <v>51.24678656800312</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="I2" t="n">
-        <v>51.24678656800312</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J2" t="n">
-        <v>187.5281822362817</v>
+        <v>187.5281822362822</v>
       </c>
       <c r="K2" t="n">
-        <v>442.5171852816081</v>
+        <v>442.5171852816079</v>
       </c>
       <c r="L2" t="n">
-        <v>795.7553530872915</v>
+        <v>795.755353087292</v>
       </c>
       <c r="M2" t="n">
         <v>1220.470313923562</v>
@@ -4351,31 +4351,31 @@
         <v>2360.886721764997</v>
       </c>
       <c r="Q2" t="n">
-        <v>2542.250581723851</v>
+        <v>2542.25058172385</v>
       </c>
       <c r="R2" t="n">
-        <v>2562.339328400156</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S2" t="n">
-        <v>2437.640120926626</v>
+        <v>2437.640120926625</v>
       </c>
       <c r="T2" t="n">
-        <v>2437.640120926626</v>
+        <v>2228.89447953245</v>
       </c>
       <c r="U2" t="n">
-        <v>2437.640120926626</v>
+        <v>2228.89447953245</v>
       </c>
       <c r="V2" t="n">
-        <v>2437.640120926626</v>
+        <v>2228.89447953245</v>
       </c>
       <c r="W2" t="n">
-        <v>2437.640120926626</v>
+        <v>2228.89447953245</v>
       </c>
       <c r="X2" t="n">
-        <v>2437.640120926626</v>
+        <v>2228.89447953245</v>
       </c>
       <c r="Y2" t="n">
-        <v>2437.640120926626</v>
+        <v>2228.89447953245</v>
       </c>
     </row>
     <row r="3">
@@ -4391,49 +4391,49 @@
         <v>756.8511118155114</v>
       </c>
       <c r="D3" t="n">
-        <v>607.9167021542603</v>
+        <v>607.9167021542601</v>
       </c>
       <c r="E3" t="n">
-        <v>448.6792471488047</v>
+        <v>448.6792471488045</v>
       </c>
       <c r="F3" t="n">
-        <v>302.1446891756898</v>
+        <v>302.1446891756896</v>
       </c>
       <c r="G3" t="n">
         <v>165.443278618252</v>
       </c>
       <c r="H3" t="n">
-        <v>71.67401812057901</v>
+        <v>71.67401812057875</v>
       </c>
       <c r="I3" t="n">
-        <v>51.24678656800312</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J3" t="n">
-        <v>113.5972052500114</v>
+        <v>238.4273302370161</v>
       </c>
       <c r="K3" t="n">
-        <v>298.3188265310613</v>
+        <v>590.2049751143496</v>
       </c>
       <c r="L3" t="n">
-        <v>593.0223835625329</v>
+        <v>884.9085321458213</v>
       </c>
       <c r="M3" t="n">
-        <v>1227.201367341572</v>
+        <v>1248.170551105041</v>
       </c>
       <c r="N3" t="n">
-        <v>1861.38035112061</v>
+        <v>1635.455679701987</v>
       </c>
       <c r="O3" t="n">
-        <v>2193.450786296772</v>
+        <v>1967.526114878148</v>
       </c>
       <c r="P3" t="n">
-        <v>2440.633520129069</v>
+        <v>2214.708848710445</v>
       </c>
       <c r="Q3" t="n">
-        <v>2562.339328400156</v>
+        <v>2538.001278676482</v>
       </c>
       <c r="R3" t="n">
-        <v>2562.339328400156</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S3" t="n">
         <v>2426.617474780096</v>
@@ -4442,7 +4442,7 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U3" t="n">
-        <v>2004.520742047138</v>
+        <v>2004.520742047137</v>
       </c>
       <c r="V3" t="n">
         <v>1769.368633815395</v>
@@ -4464,49 +4464,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>833.0891146802707</v>
+        <v>746.0720891026916</v>
       </c>
       <c r="C4" t="n">
-        <v>664.1529317523638</v>
+        <v>577.1359061747847</v>
       </c>
       <c r="D4" t="n">
-        <v>514.036292340028</v>
+        <v>577.1359061747847</v>
       </c>
       <c r="E4" t="n">
-        <v>366.1231987576349</v>
+        <v>429.2228125923916</v>
       </c>
       <c r="F4" t="n">
-        <v>219.2332512597245</v>
+        <v>282.3328650944812</v>
       </c>
       <c r="G4" t="n">
-        <v>51.24678656800312</v>
+        <v>282.3328650944812</v>
       </c>
       <c r="H4" t="n">
-        <v>51.24678656800312</v>
+        <v>157.1019332386098</v>
       </c>
       <c r="I4" t="n">
-        <v>51.24678656800312</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J4" t="n">
-        <v>76.71595955312199</v>
+        <v>76.71595955312196</v>
       </c>
       <c r="K4" t="n">
         <v>248.4064713020475</v>
       </c>
       <c r="L4" t="n">
-        <v>523.6376499693234</v>
+        <v>523.6376499693233</v>
       </c>
       <c r="M4" t="n">
-        <v>824.2194607096587</v>
+        <v>824.2194607096585</v>
       </c>
       <c r="N4" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O4" t="n">
-        <v>1383.126566999035</v>
+        <v>1383.126566999034</v>
       </c>
       <c r="P4" t="n">
-        <v>1582.113182171024</v>
+        <v>1582.113182171023</v>
       </c>
       <c r="Q4" t="n">
         <v>1636.446120074497</v>
@@ -4515,25 +4515,25 @@
         <v>1636.446120074497</v>
       </c>
       <c r="S4" t="n">
-        <v>1636.446120074497</v>
+        <v>1439.817372234358</v>
       </c>
       <c r="T4" t="n">
-        <v>1636.446120074497</v>
+        <v>1216.838891429094</v>
       </c>
       <c r="U4" t="n">
-        <v>1571.288414758779</v>
+        <v>927.7205539329314</v>
       </c>
       <c r="V4" t="n">
-        <v>1571.288414758779</v>
+        <v>927.7205539329314</v>
       </c>
       <c r="W4" t="n">
-        <v>1281.871244721818</v>
+        <v>927.7205539329314</v>
       </c>
       <c r="X4" t="n">
-        <v>1053.881693823801</v>
+        <v>927.7205539329314</v>
       </c>
       <c r="Y4" t="n">
-        <v>833.0891146802707</v>
+        <v>927.7205539329314</v>
       </c>
     </row>
     <row r="5">
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>809.2519436594666</v>
+        <v>1878.50778578647</v>
       </c>
       <c r="C5" t="n">
-        <v>440.2894267190549</v>
+        <v>1509.545268846058</v>
       </c>
       <c r="D5" t="n">
-        <v>440.2894267190549</v>
+        <v>1509.545268846058</v>
       </c>
       <c r="E5" t="n">
-        <v>440.2894267190549</v>
+        <v>1123.757016247814</v>
       </c>
       <c r="F5" t="n">
-        <v>433.3439259698515</v>
+        <v>712.7711114582066</v>
       </c>
       <c r="G5" t="n">
-        <v>421.6795797345444</v>
+        <v>297.0663611824955</v>
       </c>
       <c r="H5" t="n">
-        <v>117.6204357321147</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="I5" t="n">
-        <v>51.24678656800313</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J5" t="n">
-        <v>187.5281822362819</v>
+        <v>187.5281822362817</v>
       </c>
       <c r="K5" t="n">
-        <v>442.5171852816084</v>
+        <v>442.5171852816081</v>
       </c>
       <c r="L5" t="n">
-        <v>795.755353087292</v>
+        <v>795.7553530872913</v>
       </c>
       <c r="M5" t="n">
         <v>1220.470313923562</v>
       </c>
       <c r="N5" t="n">
-        <v>1656.671415230818</v>
+        <v>1656.671415230817</v>
       </c>
       <c r="O5" t="n">
-        <v>2055.228484740841</v>
+        <v>2055.22848474084</v>
       </c>
       <c r="P5" t="n">
-        <v>2360.886721764998</v>
+        <v>2360.886721764997</v>
       </c>
       <c r="Q5" t="n">
-        <v>2542.250581723851</v>
+        <v>2542.25058172385</v>
       </c>
       <c r="R5" t="n">
-        <v>2562.339328400156</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S5" t="n">
-        <v>2544.100822039871</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="T5" t="n">
-        <v>2544.100822039871</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="U5" t="n">
-        <v>2290.51976130405</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="V5" t="n">
-        <v>1959.45687396048</v>
+        <v>2231.276441056584</v>
       </c>
       <c r="W5" t="n">
-        <v>1959.45687396048</v>
+        <v>1878.50778578647</v>
       </c>
       <c r="X5" t="n">
-        <v>1585.9911156994</v>
+        <v>1878.50778578647</v>
       </c>
       <c r="Y5" t="n">
-        <v>1195.851783723588</v>
+        <v>1878.50778578647</v>
       </c>
     </row>
     <row r="6">
@@ -4622,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>931.3041410966398</v>
+        <v>931.3041410966388</v>
       </c>
       <c r="C6" t="n">
-        <v>756.8511118155128</v>
+        <v>756.8511118155118</v>
       </c>
       <c r="D6" t="n">
-        <v>607.9167021542614</v>
+        <v>607.9167021542605</v>
       </c>
       <c r="E6" t="n">
-        <v>448.6792471488059</v>
+        <v>448.679247148805</v>
       </c>
       <c r="F6" t="n">
-        <v>302.1446891756909</v>
+        <v>302.1446891756899</v>
       </c>
       <c r="G6" t="n">
-        <v>165.4432786182533</v>
+        <v>165.443278618252</v>
       </c>
       <c r="H6" t="n">
-        <v>71.67401812058006</v>
+        <v>71.67401812057901</v>
       </c>
       <c r="I6" t="n">
-        <v>51.24678656800313</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J6" t="n">
-        <v>113.5972052500114</v>
+        <v>238.4273302370161</v>
       </c>
       <c r="K6" t="n">
-        <v>298.3188265310615</v>
+        <v>614.5430248380227</v>
       </c>
       <c r="L6" t="n">
-        <v>932.4978103101002</v>
+        <v>909.2465818694943</v>
       </c>
       <c r="M6" t="n">
-        <v>1295.759829269321</v>
+        <v>1272.508600828714</v>
       </c>
       <c r="N6" t="n">
-        <v>1683.044957866266</v>
+        <v>1659.79372942566</v>
       </c>
       <c r="O6" t="n">
-        <v>2199.840679460313</v>
+        <v>1991.864164601821</v>
       </c>
       <c r="P6" t="n">
-        <v>2447.02341329261</v>
+        <v>2239.046898434118</v>
       </c>
       <c r="Q6" t="n">
-        <v>2562.339328400156</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="R6" t="n">
-        <v>2562.339328400156</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S6" t="n">
-        <v>2426.617474780097</v>
+        <v>2426.617474780096</v>
       </c>
       <c r="T6" t="n">
-        <v>2232.610846175227</v>
+        <v>2232.610846175226</v>
       </c>
       <c r="U6" t="n">
-        <v>2004.520742047139</v>
+        <v>2004.520742047138</v>
       </c>
       <c r="V6" t="n">
-        <v>1769.368633815396</v>
+        <v>1769.368633815395</v>
       </c>
       <c r="W6" t="n">
-        <v>1515.131277087195</v>
+        <v>1515.131277087193</v>
       </c>
       <c r="X6" t="n">
-        <v>1307.279776881662</v>
+        <v>1307.279776881661</v>
       </c>
       <c r="Y6" t="n">
-        <v>1099.519478116708</v>
+        <v>1099.519478116707</v>
       </c>
     </row>
     <row r="7">
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>51.24678656800313</v>
+        <v>665.1026499885492</v>
       </c>
       <c r="C7" t="n">
-        <v>51.24678656800313</v>
+        <v>496.1664670606423</v>
       </c>
       <c r="D7" t="n">
-        <v>51.24678656800313</v>
+        <v>346.0498276483066</v>
       </c>
       <c r="E7" t="n">
-        <v>51.24678656800313</v>
+        <v>198.1367340659135</v>
       </c>
       <c r="F7" t="n">
-        <v>51.24678656800313</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="G7" t="n">
-        <v>51.24678656800313</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="H7" t="n">
-        <v>51.24678656800313</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="I7" t="n">
-        <v>51.24678656800313</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J7" t="n">
-        <v>76.71595955312203</v>
+        <v>76.71595955312196</v>
       </c>
       <c r="K7" t="n">
-        <v>248.4064713020476</v>
+        <v>248.4064713020475</v>
       </c>
       <c r="L7" t="n">
-        <v>523.6376499693235</v>
+        <v>523.6376499693233</v>
       </c>
       <c r="M7" t="n">
-        <v>824.219460709659</v>
+        <v>824.2194607096585</v>
       </c>
       <c r="N7" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O7" t="n">
-        <v>1383.126566999035</v>
+        <v>1383.126566999034</v>
       </c>
       <c r="P7" t="n">
-        <v>1582.113182171024</v>
+        <v>1582.113182171023</v>
       </c>
       <c r="Q7" t="n">
-        <v>1636.446120074498</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="R7" t="n">
-        <v>1636.446120074498</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="S7" t="n">
-        <v>1636.446120074498</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="T7" t="n">
-        <v>1514.8973771788</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="U7" t="n">
-        <v>1225.779039682638</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="V7" t="n">
-        <v>971.0945514767509</v>
+        <v>1584.950414897297</v>
       </c>
       <c r="W7" t="n">
-        <v>681.6773814397902</v>
+        <v>1295.533244860336</v>
       </c>
       <c r="X7" t="n">
-        <v>453.6878305417729</v>
+        <v>1067.543693962319</v>
       </c>
       <c r="Y7" t="n">
-        <v>232.8952513982428</v>
+        <v>846.7511148187889</v>
       </c>
     </row>
     <row r="8">
@@ -4780,19 +4780,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1168.124113652745</v>
+        <v>2345.167438673965</v>
       </c>
       <c r="C8" t="n">
-        <v>1168.124113652745</v>
+        <v>1976.204921733553</v>
       </c>
       <c r="D8" t="n">
-        <v>809.8584150459947</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="E8" t="n">
-        <v>424.0701624477504</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F8" t="n">
-        <v>417.1246616985469</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G8" t="n">
         <v>406.0926155839475</v>
@@ -4801,31 +4801,31 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810562</v>
+        <v>589.2106210810555</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.77673900139</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R8" t="n">
         <v>3325.605821609171</v>
@@ -4834,22 +4834,22 @@
         <v>3215.315153136266</v>
       </c>
       <c r="T8" t="n">
-        <v>3009.337405520489</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U8" t="n">
-        <v>2755.806928794325</v>
+        <v>2961.784676410102</v>
       </c>
       <c r="V8" t="n">
-        <v>2424.744041450754</v>
+        <v>2961.784676410102</v>
       </c>
       <c r="W8" t="n">
-        <v>2071.97538618064</v>
+        <v>2961.784676410102</v>
       </c>
       <c r="X8" t="n">
-        <v>1698.50962791956</v>
+        <v>2588.318918149022</v>
       </c>
       <c r="Y8" t="n">
-        <v>1308.370295943748</v>
+        <v>2588.318918149022</v>
       </c>
     </row>
     <row r="9">
@@ -4859,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811091</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999821</v>
       </c>
       <c r="D9" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387309</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332754</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601604</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927781</v>
+        <v>176.0213023927783</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064576</v>
+        <v>85.51940803064583</v>
       </c>
       <c r="I9" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228006</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031476</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L9" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158134</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P9" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q9" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R9" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125857</v>
       </c>
       <c r="S9" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619337</v>
       </c>
       <c r="T9" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V9" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W9" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X9" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="10">
@@ -4938,19 +4938,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>945.3964936596652</v>
+        <v>718.3439163053888</v>
       </c>
       <c r="C10" t="n">
-        <v>776.4603107317583</v>
+        <v>549.4077333774819</v>
       </c>
       <c r="D10" t="n">
-        <v>626.3436713194226</v>
+        <v>399.2910939651462</v>
       </c>
       <c r="E10" t="n">
-        <v>478.4305777370295</v>
+        <v>251.378000382753</v>
       </c>
       <c r="F10" t="n">
-        <v>331.5406302391191</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="G10" t="n">
         <v>163.8377936138381</v>
@@ -4959,22 +4959,22 @@
         <v>163.8377936138381</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J10" t="n">
         <v>111.634748879119</v>
       </c>
       <c r="K10" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279955</v>
       </c>
       <c r="L10" t="n">
-        <v>632.1817302764914</v>
+        <v>632.1817302764916</v>
       </c>
       <c r="M10" t="n">
-        <v>976.3387758760405</v>
+        <v>976.3387758760407</v>
       </c>
       <c r="N10" t="n">
-        <v>1317.747152581905</v>
+        <v>1317.747152581906</v>
       </c>
       <c r="O10" t="n">
         <v>1617.076751502319</v>
@@ -4995,19 +4995,19 @@
         <v>1927.294548088493</v>
       </c>
       <c r="U10" t="n">
-        <v>1927.294548088493</v>
+        <v>1638.191681214137</v>
       </c>
       <c r="V10" t="n">
-        <v>1865.244258568413</v>
+        <v>1638.191681214137</v>
       </c>
       <c r="W10" t="n">
-        <v>1575.827088531452</v>
+        <v>1348.774511177176</v>
       </c>
       <c r="X10" t="n">
-        <v>1347.837537633435</v>
+        <v>1120.784960279159</v>
       </c>
       <c r="Y10" t="n">
-        <v>1127.044958489905</v>
+        <v>899.9923811356285</v>
       </c>
     </row>
     <row r="11">
@@ -5023,10 +5023,10 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
         <v>793.7736536168611</v>
@@ -5035,7 +5035,7 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I11" t="n">
         <v>95.34095638192593</v>
@@ -5062,7 +5062,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R11" t="n">
         <v>4690.833152398593</v>
@@ -5077,13 +5077,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5114,28 +5114,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J12" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K12" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L12" t="n">
-        <v>427.7414352191925</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M12" t="n">
-        <v>716.6687843969308</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N12" t="n">
-        <v>1344.266747951538</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O12" t="n">
-        <v>1896.176478190825</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="P12" t="n">
         <v>2319.799627685893</v>
@@ -5175,28 +5175,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>763.7541388327643</v>
+        <v>707.672526468518</v>
       </c>
       <c r="C13" t="n">
-        <v>699.73118040114</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="D13" t="n">
-        <v>549.6145409888043</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E13" t="n">
-        <v>549.6145409888043</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F13" t="n">
-        <v>402.7245934908939</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="G13" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J13" t="n">
         <v>174.0526814782957</v>
@@ -5223,28 +5223,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T13" t="n">
-        <v>2227.361618603201</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U13" t="n">
-        <v>1938.286391947399</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V13" t="n">
-        <v>1683.601903741512</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W13" t="n">
-        <v>1394.184733704551</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X13" t="n">
-        <v>1166.195182806534</v>
+        <v>1110.113570442288</v>
       </c>
       <c r="Y13" t="n">
-        <v>945.402603663004</v>
+        <v>889.3209912987577</v>
       </c>
     </row>
     <row r="14">
@@ -5260,37 +5260,37 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O14" t="n">
         <v>3640.42229106801</v>
@@ -5299,28 +5299,28 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R14" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5351,25 +5351,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>95.58405025273902</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J15" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L15" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M15" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N15" t="n">
-        <v>2299.457522348532</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O15" t="n">
         <v>2553.061288060775</v>
@@ -5412,28 +5412,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>513.8536007400712</v>
+        <v>559.0424953278208</v>
       </c>
       <c r="C16" t="n">
-        <v>513.8536007400712</v>
+        <v>559.0424953278208</v>
       </c>
       <c r="D16" t="n">
-        <v>513.8536007400712</v>
+        <v>408.925855915485</v>
       </c>
       <c r="E16" t="n">
-        <v>407.9027098310023</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F16" t="n">
         <v>261.0127623330919</v>
       </c>
       <c r="G16" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
         <v>174.0526814782957</v>
@@ -5466,22 +5466,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510508</v>
+        <v>2022.649975098258</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854706</v>
+        <v>1733.574748442456</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.701365648819</v>
+        <v>1478.890260236569</v>
       </c>
       <c r="W16" t="n">
-        <v>1144.284195611858</v>
+        <v>1189.473090199608</v>
       </c>
       <c r="X16" t="n">
-        <v>916.2946447138411</v>
+        <v>961.4835393015907</v>
       </c>
       <c r="Y16" t="n">
-        <v>695.5020655703109</v>
+        <v>740.6909601580605</v>
       </c>
     </row>
     <row r="17">
@@ -5509,16 +5509,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
@@ -5530,19 +5530,19 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R17" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T17" t="n">
         <v>4405.252601474784</v>
@@ -5588,10 +5588,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>95.58405025273902</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J18" t="n">
         <v>245.2306927803937</v>
@@ -5652,25 +5652,25 @@
         <v>513.8536007400712</v>
       </c>
       <c r="C19" t="n">
-        <v>491.0125592675714</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D19" t="n">
-        <v>491.0125592675714</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E19" t="n">
-        <v>343.0994656851783</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F19" t="n">
-        <v>343.0994656851783</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G19" t="n">
-        <v>175.9033664000582</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
         <v>174.0526814782957</v>
@@ -5746,55 +5746,55 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R20" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5825,10 +5825,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J21" t="n">
         <v>243.4633055756266</v>
@@ -5840,10 +5840,10 @@
         <v>1072.713683962606</v>
       </c>
       <c r="M21" t="n">
-        <v>1670.092171589158</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N21" t="n">
-        <v>2297.690135143765</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O21" t="n">
         <v>2553.061288060775</v>
@@ -5886,28 +5886,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>707.672526468518</v>
+        <v>800.6374272687975</v>
       </c>
       <c r="C22" t="n">
-        <v>538.7363435406111</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="D22" t="n">
-        <v>388.6197041282753</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="E22" t="n">
-        <v>240.7066105458822</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F22" t="n">
-        <v>93.81666304797186</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G22" t="n">
-        <v>93.81666304797186</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797186</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
         <v>174.0526814782957</v>
@@ -5934,28 +5934,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2390.881471216014</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>2171.280006238955</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>1882.204779583153</v>
+        <v>1747.180129485415</v>
       </c>
       <c r="V22" t="n">
-        <v>1627.520291377266</v>
+        <v>1492.495641279528</v>
       </c>
       <c r="W22" t="n">
-        <v>1338.103121340305</v>
+        <v>1203.078471242567</v>
       </c>
       <c r="X22" t="n">
-        <v>1110.113570442288</v>
+        <v>1203.078471242567</v>
       </c>
       <c r="Y22" t="n">
-        <v>889.3209912987577</v>
+        <v>982.2858920990373</v>
       </c>
     </row>
     <row r="23">
@@ -5968,28 +5968,28 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.773653616862</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362693</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K23" t="n">
         <v>852.8523611075807</v>
@@ -6010,28 +6010,28 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R23" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6062,10 +6062,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J24" t="n">
         <v>243.4633055756266</v>
@@ -6135,16 +6135,16 @@
         <v>344.9174178121643</v>
       </c>
       <c r="F25" t="n">
-        <v>344.9174178121643</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G25" t="n">
-        <v>177.7213185270443</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
         <v>174.0526814782957</v>
@@ -6205,7 +6205,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D26" t="n">
         <v>1590.547811004713</v>
@@ -6220,46 +6220,46 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192602</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075805</v>
+        <v>852.852361107581</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R26" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V26" t="n">
         <v>3820.749612123003</v>
@@ -6290,7 +6290,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E27" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F27" t="n">
         <v>314.2396613568978</v>
@@ -6299,10 +6299,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J27" t="n">
         <v>243.4633055756266</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>653.7474797708871</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C28" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D28" t="n">
-        <v>484.8112968429803</v>
+        <v>194.8007783998291</v>
       </c>
       <c r="E28" t="n">
-        <v>484.8112968429803</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="F28" t="n">
-        <v>484.8112968429803</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="G28" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R28" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2336.956424518383</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T28" t="n">
-        <v>2117.354959541324</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U28" t="n">
-        <v>1828.279732885522</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V28" t="n">
-        <v>1573.595244679635</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W28" t="n">
-        <v>1284.178074642674</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X28" t="n">
-        <v>1056.188523744657</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y28" t="n">
-        <v>835.3959446011269</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="29">
@@ -6454,40 +6454,40 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I29" t="n">
         <v>95.34095638192571</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R29" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S29" t="n">
         <v>4606.285157492578</v>
@@ -6499,13 +6499,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6527,7 +6527,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E30" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F30" t="n">
         <v>314.2396613568978</v>
@@ -6536,25 +6536,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J30" t="n">
         <v>243.4633055756266</v>
       </c>
       <c r="K30" t="n">
-        <v>577.3880777468471</v>
+        <v>280.8495004245705</v>
       </c>
       <c r="L30" t="n">
-        <v>1072.713683962606</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M30" t="n">
-        <v>1670.092171589158</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N30" t="n">
-        <v>2297.690135143765</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O30" t="n">
         <v>2553.061288060775</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>513.8536007400712</v>
+        <v>1098.667160263526</v>
       </c>
       <c r="C31" t="n">
-        <v>344.9174178121643</v>
+        <v>929.7309773356194</v>
       </c>
       <c r="D31" t="n">
-        <v>344.9174178121643</v>
+        <v>779.6143379232836</v>
       </c>
       <c r="E31" t="n">
-        <v>344.9174178121643</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F31" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G31" t="n">
-        <v>177.7213185270443</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H31" t="n">
         <v>175.9033664000583</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P31" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R31" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487567</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.461080510508</v>
+        <v>2273.199413378161</v>
       </c>
       <c r="U31" t="n">
-        <v>1688.385853854706</v>
+        <v>2273.199413378161</v>
       </c>
       <c r="V31" t="n">
-        <v>1433.701365648819</v>
+        <v>2018.514925172274</v>
       </c>
       <c r="W31" t="n">
-        <v>1144.284195611858</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="X31" t="n">
-        <v>916.2946447138411</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y31" t="n">
-        <v>695.5020655703109</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="32">
@@ -6694,22 +6694,22 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
         <v>2950.898526355937</v>
@@ -6718,22 +6718,22 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R32" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V32" t="n">
         <v>3820.749612123003</v>
@@ -6764,7 +6764,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E33" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F33" t="n">
         <v>314.2396613568978</v>
@@ -6773,10 +6773,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J33" t="n">
         <v>243.4633055756266</v>
@@ -6834,28 +6834,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>571.6607764188008</v>
+        <v>707.672526468518</v>
       </c>
       <c r="C34" t="n">
-        <v>402.7245934908938</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="D34" t="n">
-        <v>402.7245934908938</v>
+        <v>388.6197041282754</v>
       </c>
       <c r="E34" t="n">
-        <v>402.7245934908938</v>
+        <v>240.7066105458823</v>
       </c>
       <c r="F34" t="n">
-        <v>402.7245934908938</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="G34" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J34" t="n">
         <v>174.0526814782958</v>
@@ -6888,22 +6888,22 @@
         <v>2197.062545487568</v>
       </c>
       <c r="T34" t="n">
-        <v>2035.268256189238</v>
+        <v>2171.280006238955</v>
       </c>
       <c r="U34" t="n">
-        <v>1746.193029533436</v>
+        <v>1882.204779583153</v>
       </c>
       <c r="V34" t="n">
-        <v>1491.508541327549</v>
+        <v>1627.520291377266</v>
       </c>
       <c r="W34" t="n">
-        <v>1202.091371290588</v>
+        <v>1338.103121340305</v>
       </c>
       <c r="X34" t="n">
-        <v>974.1018203925706</v>
+        <v>1110.113570442288</v>
       </c>
       <c r="Y34" t="n">
-        <v>753.3092412490405</v>
+        <v>889.3209912987577</v>
       </c>
     </row>
     <row r="35">
@@ -6934,13 +6934,13 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
@@ -6952,7 +6952,7 @@
         <v>2950.898526355938</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694708</v>
@@ -6964,10 +6964,10 @@
         <v>4690.833152398594</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
         <v>4151.812499466573</v>
@@ -7071,25 +7071,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>803.8641191832228</v>
+        <v>1016.58045691144</v>
       </c>
       <c r="C37" t="n">
-        <v>634.9279362553159</v>
+        <v>847.644273983533</v>
       </c>
       <c r="D37" t="n">
-        <v>484.8112968429802</v>
+        <v>697.5276345711973</v>
       </c>
       <c r="E37" t="n">
-        <v>484.8112968429802</v>
+        <v>549.6145409888042</v>
       </c>
       <c r="F37" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G37" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H37" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I37" t="n">
         <v>93.81666304797189</v>
@@ -7131,16 +7131,16 @@
         <v>1688.385853854707</v>
       </c>
       <c r="V37" t="n">
-        <v>1688.385853854707</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W37" t="n">
-        <v>1434.29471405501</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="X37" t="n">
-        <v>1206.305163156993</v>
+        <v>1419.02150088521</v>
       </c>
       <c r="Y37" t="n">
-        <v>985.5125840134625</v>
+        <v>1198.22892174168</v>
       </c>
     </row>
     <row r="38">
@@ -7183,16 +7183,16 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
         <v>4562.265728852255</v>
@@ -7308,22 +7308,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>513.8536007400717</v>
+        <v>741.843151638089</v>
       </c>
       <c r="C40" t="n">
-        <v>484.8112968429802</v>
+        <v>572.9069687101821</v>
       </c>
       <c r="D40" t="n">
-        <v>484.8112968429802</v>
+        <v>422.7903292978464</v>
       </c>
       <c r="E40" t="n">
-        <v>484.8112968429802</v>
+        <v>274.8772357154533</v>
       </c>
       <c r="F40" t="n">
-        <v>484.8112968429802</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="G40" t="n">
-        <v>317.6151975578601</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="H40" t="n">
         <v>175.9033664000582</v>
@@ -7374,10 +7374,10 @@
         <v>1144.284195611859</v>
       </c>
       <c r="X40" t="n">
-        <v>916.2946447138415</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="Y40" t="n">
-        <v>695.5020655703114</v>
+        <v>923.4916164683287</v>
       </c>
     </row>
     <row r="41">
@@ -7387,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406467</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168597</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362672</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R41" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="42">
@@ -7484,16 +7484,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273902</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J42" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K42" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L42" t="n">
         <v>1074.481071167373</v>
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>513.8536007400712</v>
+        <v>983.3556038098242</v>
       </c>
       <c r="C43" t="n">
-        <v>344.9174178121643</v>
+        <v>814.4194208819173</v>
       </c>
       <c r="D43" t="n">
-        <v>194.8007783998286</v>
+        <v>664.3027814695815</v>
       </c>
       <c r="E43" t="n">
-        <v>194.8007783998286</v>
+        <v>516.3896878871884</v>
       </c>
       <c r="F43" t="n">
-        <v>194.8007783998286</v>
+        <v>369.499740389278</v>
       </c>
       <c r="G43" t="n">
-        <v>194.8007783998286</v>
+        <v>202.303641104158</v>
       </c>
       <c r="H43" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P43" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R43" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S43" t="n">
-        <v>2197.062545487567</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="T43" t="n">
-        <v>1977.461080510508</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="U43" t="n">
-        <v>1688.385853854706</v>
+        <v>2157.887856924459</v>
       </c>
       <c r="V43" t="n">
-        <v>1433.701365648819</v>
+        <v>1903.203368718572</v>
       </c>
       <c r="W43" t="n">
-        <v>1144.284195611858</v>
+        <v>1613.786198681611</v>
       </c>
       <c r="X43" t="n">
-        <v>916.2946447138411</v>
+        <v>1385.796647783594</v>
       </c>
       <c r="Y43" t="n">
-        <v>695.5020655703109</v>
+        <v>1165.004068640064</v>
       </c>
     </row>
     <row r="44">
@@ -7639,19 +7639,19 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797189</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
@@ -7724,13 +7724,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
         <v>1074.481071167373</v>
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1098.667160263526</v>
+        <v>869.6905094135296</v>
       </c>
       <c r="C46" t="n">
-        <v>929.7309773356194</v>
+        <v>700.7543264856228</v>
       </c>
       <c r="D46" t="n">
-        <v>779.6143379232836</v>
+        <v>550.637687073287</v>
       </c>
       <c r="E46" t="n">
-        <v>631.7012443408905</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F46" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G46" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H46" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P46" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2446.963083580261</v>
+        <v>2371.250989330786</v>
       </c>
       <c r="T46" t="n">
-        <v>2446.963083580261</v>
+        <v>2151.649524353727</v>
       </c>
       <c r="U46" t="n">
-        <v>2273.199413378161</v>
+        <v>1862.574297697925</v>
       </c>
       <c r="V46" t="n">
-        <v>2018.514925172274</v>
+        <v>1607.889809492038</v>
       </c>
       <c r="W46" t="n">
-        <v>1729.097755135313</v>
+        <v>1318.472639455077</v>
       </c>
       <c r="X46" t="n">
-        <v>1501.108204237296</v>
+        <v>1090.48308855706</v>
       </c>
       <c r="Y46" t="n">
-        <v>1280.315625093766</v>
+        <v>869.6905094135296</v>
       </c>
     </row>
   </sheetData>
@@ -8057,19 +8057,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>168.7434581780643</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>273.6534998179985</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>249.3877325071651</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -8078,10 +8078,10 @@
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>6.454437538930151</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
-        <v>20.9377812015499</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8294,13 +8294,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>193.327346787835</v>
       </c>
       <c r="L6" t="n">
-        <v>342.9044714621888</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -8309,16 +8309,16 @@
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>186.5911984019048</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
-        <v>20.93778120154985</v>
+        <v>20.93778120154991</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -23308,7 +23308,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -23418,22 +23418,22 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>103.8640922513198</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
         <v>81.26583631856553</v>
@@ -23463,10 +23463,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23481,7 +23481,7 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>191.8807364711622</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23658,13 +23658,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>41.54258064659096</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -23673,7 +23673,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631857005</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23706,7 +23706,7 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>44.7370056418722</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23892,13 +23892,13 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>144.634190040853</v>
+        <v>138.4949402405078</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
@@ -23907,7 +23907,7 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -24037,7 +24037,7 @@
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>1.364242052659392e-12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -24132,22 +24132,22 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,16 +24174,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>125.5054897610404</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>58.20633287440171</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24192,7 +24192,7 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24375,13 +24375,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>62.35543909864957</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>57.2291039219422</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
         <v>81.26583631856553</v>
@@ -24606,22 +24606,22 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>46.45968844823058</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,10 +24648,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>72.11969353038577</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24843,19 +24843,19 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>138.4949402405078</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -24885,16 +24885,16 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>45.37941682720927</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -25080,19 +25080,19 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
         <v>81.26583631856552</v>
@@ -25128,7 +25128,7 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>57.22910392194191</v>
+        <v>191.8807364711615</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25320,10 +25320,10 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -25332,7 +25332,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25371,13 +25371,13 @@
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>34.97276993489146</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>211.1765892730634</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -25551,22 +25551,22 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>138.4949402405073</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>47.43691740069019</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -25614,7 +25614,7 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -25794,19 +25794,19 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>121.5862749664512</v>
+        <v>32.89260457059963</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,13 +25833,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -26022,7 +26022,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
@@ -26034,7 +26034,7 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -26043,7 +26043,7 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,16 +26070,16 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>181.0262860016446</v>
+        <v>172.4465594047866</v>
       </c>
       <c r="T46" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>114.1584408891651</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>915969.1961964172</v>
+        <v>915969.1961964171</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>915969.196196417</v>
+        <v>915969.1961964171</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>915969.1961964171</v>
+        <v>915969.1961964172</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>915969.196196417</v>
+        <v>915969.1961964171</v>
       </c>
     </row>
     <row r="9">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>915969.1961964172</v>
+        <v>915969.1961964171</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>915969.1961964172</v>
+        <v>915969.1961964173</v>
       </c>
     </row>
     <row r="12">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>915969.1961964173</v>
+        <v>915969.1961964172</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>915969.1961964172</v>
+        <v>915969.1961964171</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>915969.1961964172</v>
+        <v>915969.1961964173</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>915969.1961964173</v>
+        <v>915969.1961964172</v>
       </c>
     </row>
   </sheetData>
@@ -26316,31 +26316,31 @@
         <v>513151.1061651771</v>
       </c>
       <c r="C2" t="n">
-        <v>513151.1061651768</v>
+        <v>513151.1061651771</v>
       </c>
       <c r="D2" t="n">
-        <v>513151.106165177</v>
+        <v>513151.1061651771</v>
       </c>
       <c r="E2" t="n">
-        <v>504466.6248062537</v>
+        <v>504466.6248062536</v>
       </c>
       <c r="F2" t="n">
-        <v>504466.6248062537</v>
+        <v>504466.6248062536</v>
       </c>
       <c r="G2" t="n">
+        <v>504466.6248062538</v>
+      </c>
+      <c r="H2" t="n">
         <v>504466.6248062536</v>
       </c>
-      <c r="H2" t="n">
-        <v>504466.6248062537</v>
-      </c>
       <c r="I2" t="n">
-        <v>504466.6248062536</v>
+        <v>504466.6248062538</v>
       </c>
       <c r="J2" t="n">
         <v>504466.6248062537</v>
       </c>
       <c r="K2" t="n">
-        <v>504466.6248062536</v>
+        <v>504466.6248062537</v>
       </c>
       <c r="L2" t="n">
         <v>504466.6248062538</v>
@@ -26365,16 +26365,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1114751.78357592</v>
+        <v>1114751.783575919</v>
       </c>
       <c r="C3" t="n">
-        <v>2.07046923605958e-10</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>192627.1404403377</v>
+        <v>192627.1404403382</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073551</v>
+        <v>325412.4618073549</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26389,16 +26389,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>167605.1778099826</v>
+        <v>167605.1778099828</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>48293.97000819087</v>
+        <v>48293.97000819077</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551184</v>
+        <v>85055.02793551175</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26407,7 +26407,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>1.513344614068046e-10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -26417,13 +26417,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>135522.1369769831</v>
+        <v>135522.1369769832</v>
       </c>
       <c r="C4" t="n">
-        <v>135522.1369769831</v>
+        <v>135522.1369769832</v>
       </c>
       <c r="D4" t="n">
-        <v>87914.29116309554</v>
+        <v>87914.29116309556</v>
       </c>
       <c r="E4" t="n">
         <v>8727.256391744282</v>
@@ -26444,7 +26444,7 @@
         <v>8727.256391744282</v>
       </c>
       <c r="K4" t="n">
-        <v>8727.256391744282</v>
+        <v>8727.256391744284</v>
       </c>
       <c r="L4" t="n">
         <v>8727.256391744282</v>
@@ -26456,7 +26456,7 @@
         <v>8727.256391744282</v>
       </c>
       <c r="O4" t="n">
-        <v>8727.256391744348</v>
+        <v>8727.256391744282</v>
       </c>
       <c r="P4" t="n">
         <v>8727.256391744282</v>
@@ -26469,10 +26469,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>92937.77243984472</v>
+        <v>92937.7724398447</v>
       </c>
       <c r="C5" t="n">
-        <v>92937.77243984473</v>
+        <v>92937.7724398447</v>
       </c>
       <c r="D5" t="n">
         <v>107933.9405613933</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-830060.5868275703</v>
+        <v>-830060.5868275701</v>
       </c>
       <c r="C6" t="n">
-        <v>284691.1967483487</v>
+        <v>284691.1967483492</v>
       </c>
       <c r="D6" t="n">
-        <v>124675.7340003505</v>
+        <v>124675.73400035</v>
       </c>
       <c r="E6" t="n">
-        <v>68856.99752889028</v>
+        <v>69169.6388578117</v>
       </c>
       <c r="F6" t="n">
-        <v>394269.4593362453</v>
+        <v>394582.1006651665</v>
       </c>
       <c r="G6" t="n">
-        <v>394269.4593362453</v>
+        <v>394582.1006651667</v>
       </c>
       <c r="H6" t="n">
-        <v>394269.4593362453</v>
+        <v>394582.1006651665</v>
       </c>
       <c r="I6" t="n">
-        <v>394269.4593362453</v>
+        <v>394582.1006651666</v>
       </c>
       <c r="J6" t="n">
-        <v>226664.2815262627</v>
+        <v>226976.9228551838</v>
       </c>
       <c r="K6" t="n">
-        <v>394269.4593362453</v>
+        <v>394582.1006651666</v>
       </c>
       <c r="L6" t="n">
-        <v>345975.4893280545</v>
+        <v>346288.1306569758</v>
       </c>
       <c r="M6" t="n">
-        <v>309214.4314007336</v>
+        <v>309527.0727296549</v>
       </c>
       <c r="N6" t="n">
-        <v>394269.4593362453</v>
+        <v>394582.1006651665</v>
       </c>
       <c r="O6" t="n">
-        <v>394269.4593362453</v>
+        <v>394582.1006651665</v>
       </c>
       <c r="P6" t="n">
-        <v>394269.4593362451</v>
+        <v>394582.1006651667</v>
       </c>
     </row>
   </sheetData>
@@ -26737,13 +26737,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175392</v>
+        <v>934.0648921175391</v>
       </c>
       <c r="C3" t="n">
-        <v>934.0648921175394</v>
+        <v>934.0648921175391</v>
       </c>
       <c r="D3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26789,13 +26789,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.584832100039</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="C4" t="n">
-        <v>640.5848321000391</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26813,13 +26813,13 @@
         <v>1172.708288099648</v>
       </c>
       <c r="J4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="K4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="L4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="M4" t="n">
         <v>1172.708288099649</v>
@@ -26959,37 +26959,37 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175392</v>
+        <v>934.0648921175391</v>
       </c>
       <c r="C3" t="n">
+        <v>0</v>
+      </c>
+      <c r="D3" t="n">
+        <v>155.7118084757594</v>
+      </c>
+      <c r="E3" t="n">
+        <v>278.1987997483752</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
         <v>2.273736754432321e-13</v>
       </c>
-      <c r="D3" t="n">
-        <v>155.7118084757589</v>
-      </c>
-      <c r="E3" t="n">
-        <v>278.1987997483754</v>
-      </c>
-      <c r="F3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>0</v>
-      </c>
-      <c r="J3" t="n">
-        <v>0</v>
-      </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -27001,7 +27001,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -27011,40 +27011,40 @@
         </is>
       </c>
       <c r="B4" t="n">
+        <v>640.5848321000387</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0</v>
+      </c>
+      <c r="D4" t="n">
+        <v>190.816623302254</v>
+      </c>
+      <c r="E4" t="n">
+        <v>341.3068326973554</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" t="n">
         <v>640.584832100039</v>
       </c>
-      <c r="C4" t="n">
-        <v>0</v>
-      </c>
-      <c r="D4" t="n">
-        <v>190.8166233022538</v>
-      </c>
-      <c r="E4" t="n">
-        <v>341.3068326973555</v>
-      </c>
-      <c r="F4" t="n">
-        <v>0</v>
-      </c>
-      <c r="G4" t="n">
-        <v>0</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" t="n">
-        <v>640.5848321000392</v>
-      </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>190.8166233022538</v>
+        <v>190.816623302254</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973557</v>
+        <v>341.3068326973554</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27257,16 +27257,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.584832100039</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>190.8166233022538</v>
+        <v>190.816623302254</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973555</v>
+        <v>341.3068326973554</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,10 +27378,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>241.5330451894671</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>131.1673011786917</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -27399,7 +27399,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>65.70991267247049</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27432,7 +27432,7 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>251.045250128462</v>
@@ -27536,13 +27536,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -27551,13 +27551,13 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H4" t="n">
-        <v>147.2515091551288</v>
+        <v>23.27288661781613</v>
       </c>
       <c r="I4" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27587,25 +27587,25 @@
         <v>101.5575724195736</v>
       </c>
       <c r="S4" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>221.7210258586392</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27615,7 +27615,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -27624,19 +27624,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>57.65717369405795</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27666,25 +27666,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>105.3960941021116</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T5" t="n">
         <v>206.6581849802338</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27776,22 +27776,22 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>166.3066000448042</v>
       </c>
       <c r="H7" t="n">
-        <v>147.2515091551288</v>
+        <v>147.2515091551289</v>
       </c>
       <c r="I7" t="n">
         <v>104.7965952039006</v>
@@ -27827,13 +27827,13 @@
         <v>194.6624603617375</v>
       </c>
       <c r="T7" t="n">
-        <v>100.4154405304713</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>201.1568951983999</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -27852,10 +27852,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>243.8901211953875</v>
+        <v>142.0138769831738</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -27864,10 +27864,10 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -27906,22 +27906,22 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28022,10 +28022,10 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>58.75624332170543</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
         <v>144.7550149143208</v>
@@ -28058,7 +28058,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004732</v>
       </c>
       <c r="S10" t="n">
         <v>189.7690253314419</v>
@@ -28067,10 +28067,10 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>190.707856698949</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -28392,7 +28392,7 @@
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>1.364242052659392e-12</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -28505,7 +28505,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>-2.241631118489267e-12</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -30477,7 +30477,7 @@
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>1.4210854715202e-12</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -31044,43 +31044,43 @@
         <v>3.755034742181059</v>
       </c>
       <c r="H2" t="n">
-        <v>38.45624955336179</v>
+        <v>38.45624955336178</v>
       </c>
       <c r="I2" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J2" t="n">
-        <v>318.70387994919</v>
+        <v>318.7038799491899</v>
       </c>
       <c r="K2" t="n">
-        <v>477.6545005857143</v>
+        <v>477.6545005857142</v>
       </c>
       <c r="L2" t="n">
-        <v>592.572645076738</v>
+        <v>592.5726450767379</v>
       </c>
       <c r="M2" t="n">
-        <v>659.3512441730004</v>
+        <v>659.3512441730003</v>
       </c>
       <c r="N2" t="n">
-        <v>670.0202366342224</v>
+        <v>670.0202366342223</v>
       </c>
       <c r="O2" t="n">
-        <v>632.6811099166595</v>
+        <v>632.6811099166594</v>
       </c>
       <c r="P2" t="n">
-        <v>539.9786897190645</v>
+        <v>539.9786897190644</v>
       </c>
       <c r="Q2" t="n">
-        <v>405.5015080147052</v>
+        <v>405.5015080147051</v>
       </c>
       <c r="R2" t="n">
-        <v>235.8772011235312</v>
+        <v>235.8772011235311</v>
       </c>
       <c r="S2" t="n">
-        <v>85.56785418745098</v>
+        <v>85.56785418745096</v>
       </c>
       <c r="T2" t="n">
-        <v>16.4376645838976</v>
+        <v>16.43766458389759</v>
       </c>
       <c r="U2" t="n">
         <v>0.3004027793744847</v>
@@ -31123,10 +31123,10 @@
         <v>2.00912071134716</v>
       </c>
       <c r="H3" t="n">
-        <v>19.40387634380021</v>
+        <v>19.4038763438002</v>
       </c>
       <c r="I3" t="n">
-        <v>69.17367361436494</v>
+        <v>69.17367361436493</v>
       </c>
       <c r="J3" t="n">
         <v>189.8178475575841</v>
@@ -31135,7 +31135,7 @@
         <v>324.4289352178438</v>
       </c>
       <c r="L3" t="n">
-        <v>436.2347404177244</v>
+        <v>436.2347404177243</v>
       </c>
       <c r="M3" t="n">
         <v>509.0653662040588</v>
@@ -31144,25 +31144,25 @@
         <v>522.5388116762072</v>
       </c>
       <c r="O3" t="n">
-        <v>478.0209264405675</v>
+        <v>478.0209264405674</v>
       </c>
       <c r="P3" t="n">
         <v>383.6539365378625</v>
       </c>
       <c r="Q3" t="n">
-        <v>256.4624964168761</v>
+        <v>256.462496416876</v>
       </c>
       <c r="R3" t="n">
-        <v>124.7417227624141</v>
+        <v>124.741722762414</v>
       </c>
       <c r="S3" t="n">
-        <v>37.31853601997902</v>
+        <v>37.31853601997901</v>
       </c>
       <c r="T3" t="n">
-        <v>8.098166376000172</v>
+        <v>8.098166376000171</v>
       </c>
       <c r="U3" t="n">
-        <v>0.1321789941675764</v>
+        <v>0.1321789941675763</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31205,7 +31205,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I4" t="n">
-        <v>50.65387972335771</v>
+        <v>50.6538797233577</v>
       </c>
       <c r="J4" t="n">
         <v>119.0856174753787</v>
@@ -31220,10 +31220,10 @@
         <v>264.0341136849627</v>
       </c>
       <c r="N4" t="n">
-        <v>257.7559726067959</v>
+        <v>257.7559726067958</v>
       </c>
       <c r="O4" t="n">
-        <v>238.0793597154673</v>
+        <v>238.0793597154672</v>
       </c>
       <c r="P4" t="n">
         <v>203.7180217169137</v>
@@ -31235,13 +31235,13 @@
         <v>75.73581895759585</v>
       </c>
       <c r="S4" t="n">
-        <v>29.35413767523479</v>
+        <v>29.35413767523478</v>
       </c>
       <c r="T4" t="n">
-        <v>7.196893431069562</v>
+        <v>7.196893431069561</v>
       </c>
       <c r="U4" t="n">
-        <v>0.09187523529024985</v>
+        <v>0.09187523529024984</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31278,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>3.75503474218106</v>
+        <v>3.755034742181059</v>
       </c>
       <c r="H5" t="n">
-        <v>38.45624955336179</v>
+        <v>38.45624955336178</v>
       </c>
       <c r="I5" t="n">
-        <v>144.7659768979355</v>
+        <v>144.7659768979354</v>
       </c>
       <c r="J5" t="n">
-        <v>318.70387994919</v>
+        <v>318.7038799491899</v>
       </c>
       <c r="K5" t="n">
-        <v>477.6545005857144</v>
+        <v>477.6545005857142</v>
       </c>
       <c r="L5" t="n">
-        <v>592.5726450767381</v>
+        <v>592.5726450767379</v>
       </c>
       <c r="M5" t="n">
-        <v>659.3512441730006</v>
+        <v>659.3512441730003</v>
       </c>
       <c r="N5" t="n">
-        <v>670.0202366342226</v>
+        <v>670.0202366342223</v>
       </c>
       <c r="O5" t="n">
-        <v>632.6811099166596</v>
+        <v>632.6811099166594</v>
       </c>
       <c r="P5" t="n">
-        <v>539.9786897190646</v>
+        <v>539.9786897190644</v>
       </c>
       <c r="Q5" t="n">
-        <v>405.5015080147052</v>
+        <v>405.5015080147051</v>
       </c>
       <c r="R5" t="n">
-        <v>235.8772011235312</v>
+        <v>235.8772011235311</v>
       </c>
       <c r="S5" t="n">
-        <v>85.56785418745099</v>
+        <v>85.56785418745096</v>
       </c>
       <c r="T5" t="n">
-        <v>16.4376645838976</v>
+        <v>16.43766458389759</v>
       </c>
       <c r="U5" t="n">
-        <v>0.3004027793744848</v>
+        <v>0.3004027793744847</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31357,49 +31357,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>2.009120711347161</v>
+        <v>2.00912071134716</v>
       </c>
       <c r="H6" t="n">
-        <v>19.40387634380021</v>
+        <v>19.4038763438002</v>
       </c>
       <c r="I6" t="n">
-        <v>69.17367361436496</v>
+        <v>69.17367361436493</v>
       </c>
       <c r="J6" t="n">
         <v>189.8178475575841</v>
       </c>
       <c r="K6" t="n">
-        <v>324.4289352178439</v>
+        <v>324.4289352178438</v>
       </c>
       <c r="L6" t="n">
-        <v>436.2347404177245</v>
+        <v>436.2347404177243</v>
       </c>
       <c r="M6" t="n">
-        <v>509.0653662040589</v>
+        <v>509.0653662040588</v>
       </c>
       <c r="N6" t="n">
-        <v>522.5388116762073</v>
+        <v>522.5388116762072</v>
       </c>
       <c r="O6" t="n">
-        <v>478.0209264405676</v>
+        <v>478.0209264405674</v>
       </c>
       <c r="P6" t="n">
-        <v>383.6539365378626</v>
+        <v>383.6539365378625</v>
       </c>
       <c r="Q6" t="n">
-        <v>256.4624964168761</v>
+        <v>256.462496416876</v>
       </c>
       <c r="R6" t="n">
-        <v>124.7417227624141</v>
+        <v>124.741722762414</v>
       </c>
       <c r="S6" t="n">
-        <v>37.31853601997903</v>
+        <v>37.31853601997901</v>
       </c>
       <c r="T6" t="n">
-        <v>8.098166376000174</v>
+        <v>8.098166376000171</v>
       </c>
       <c r="U6" t="n">
-        <v>0.1321789941675764</v>
+        <v>0.1321789941675763</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31442,25 +31442,25 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I7" t="n">
-        <v>50.65387972335773</v>
+        <v>50.6538797233577</v>
       </c>
       <c r="J7" t="n">
         <v>119.0856174753787</v>
       </c>
       <c r="K7" t="n">
-        <v>195.694251168232</v>
+        <v>195.6942511682319</v>
       </c>
       <c r="L7" t="n">
         <v>250.4212663227908</v>
       </c>
       <c r="M7" t="n">
-        <v>264.0341136849628</v>
+        <v>264.0341136849627</v>
       </c>
       <c r="N7" t="n">
-        <v>257.7559726067959</v>
+        <v>257.7559726067958</v>
       </c>
       <c r="O7" t="n">
-        <v>238.0793597154673</v>
+        <v>238.0793597154672</v>
       </c>
       <c r="P7" t="n">
         <v>203.7180217169137</v>
@@ -31469,16 +31469,16 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R7" t="n">
-        <v>75.73581895759588</v>
+        <v>75.73581895759585</v>
       </c>
       <c r="S7" t="n">
-        <v>29.35413767523479</v>
+        <v>29.35413767523478</v>
       </c>
       <c r="T7" t="n">
-        <v>7.196893431069563</v>
+        <v>7.196893431069561</v>
       </c>
       <c r="U7" t="n">
-        <v>0.09187523529024988</v>
+        <v>0.09187523529024984</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31515,7 +31515,7 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681599</v>
       </c>
       <c r="H8" t="n">
         <v>44.86703772844668</v>
@@ -31524,40 +31524,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J8" t="n">
-        <v>371.8329054953988</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K8" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003812</v>
       </c>
       <c r="L8" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623195</v>
       </c>
       <c r="M8" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574996</v>
       </c>
       <c r="N8" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095025</v>
       </c>
       <c r="O8" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099061</v>
       </c>
       <c r="P8" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746415</v>
       </c>
       <c r="Q8" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781691</v>
       </c>
       <c r="R8" t="n">
-        <v>275.1987363563569</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S8" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806954</v>
       </c>
       <c r="T8" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,46 +31594,46 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H9" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I9" t="n">
-        <v>80.70516131752258</v>
+        <v>80.7051613175226</v>
       </c>
       <c r="J9" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K9" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L9" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M9" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N9" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837926</v>
       </c>
       <c r="O9" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970251</v>
       </c>
       <c r="P9" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002928</v>
       </c>
       <c r="Q9" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R9" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S9" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238317</v>
       </c>
       <c r="T9" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898499</v>
       </c>
       <c r="U9" t="n">
         <v>0.1542136840462215</v>
@@ -31676,43 +31676,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H10" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I10" t="n">
-        <v>59.09805451742019</v>
+        <v>59.0980545174202</v>
       </c>
       <c r="J10" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K10" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L10" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M10" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316433</v>
       </c>
       <c r="N10" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O10" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P10" t="n">
-        <v>237.6785118802169</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q10" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R10" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712217</v>
       </c>
       <c r="S10" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T10" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112298</v>
       </c>
       <c r="U10" t="n">
         <v>0.1071911508780295</v>
@@ -31837,28 +31837,28 @@
         <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>433.9798411722591</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437243</v>
+        <v>163.1438255932938</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
         <v>375.599612848529</v>
@@ -32074,7 +32074,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J15" t="n">
         <v>277.9958514420755</v>
@@ -32092,7 +32092,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>398.7616643558013</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P15" t="n">
         <v>133.9744074143302</v>
@@ -32560,13 +32560,13 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862121</v>
+        <v>446.0127311990643</v>
       </c>
       <c r="N21" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>400.5469039565762</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P21" t="n">
         <v>133.9744074143302</v>
@@ -32718,7 +32718,7 @@
         <v>867.846407116256</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175679</v>
       </c>
       <c r="N23" t="n">
         <v>981.2715114159425</v>
@@ -32937,7 +32937,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32949,31 +32949,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L26" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S26" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33016,10 +33016,10 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H27" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I27" t="n">
         <v>99.52238</v>
@@ -33028,16 +33028,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O27" t="n">
         <v>400.5469039565762</v>
@@ -33052,13 +33052,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33098,25 +33098,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33125,19 +33125,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,7 +33174,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33186,31 +33186,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L29" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S29" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33253,10 +33253,10 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H30" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I30" t="n">
         <v>99.52238</v>
@@ -33265,19 +33265,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422585</v>
+        <v>175.6052721551105</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O30" t="n">
-        <v>400.5469039565762</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P30" t="n">
         <v>133.9744074143302</v>
@@ -33289,13 +33289,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33335,25 +33335,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33362,19 +33362,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33903,7 +33903,7 @@
         <v>867.8464071162563</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175661</v>
       </c>
       <c r="N38" t="n">
         <v>981.2715114159428</v>
@@ -33915,7 +33915,7 @@
         <v>790.8204499236508</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669214</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R38" t="n">
         <v>345.4516222043726</v>
@@ -34122,7 +34122,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
@@ -34134,31 +34134,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L41" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S41" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34201,10 +34201,10 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H42" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I42" t="n">
         <v>101.3076196007749</v>
@@ -34213,16 +34213,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O42" t="n">
         <v>398.7616643558013</v>
@@ -34237,13 +34237,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34283,25 +34283,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34310,19 +34310,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,7 +34359,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
@@ -34371,31 +34371,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L44" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S44" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34438,10 +34438,10 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H45" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
         <v>101.3076196007749</v>
@@ -34450,16 +34450,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
         <v>398.7616643558013</v>
@@ -34474,13 +34474,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34520,25 +34520,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34547,19 +34547,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34698,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>137.6579754225037</v>
+        <v>137.6579754225036</v>
       </c>
       <c r="K2" t="n">
         <v>257.5646495407337</v>
       </c>
       <c r="L2" t="n">
-        <v>356.8062301067508</v>
+        <v>356.8062301067507</v>
       </c>
       <c r="M2" t="n">
-        <v>429.0050109457277</v>
+        <v>429.0050109457276</v>
       </c>
       <c r="N2" t="n">
-        <v>440.6071730376315</v>
+        <v>440.6071730376314</v>
       </c>
       <c r="O2" t="n">
-        <v>402.5828984949727</v>
+        <v>402.5828984949726</v>
       </c>
       <c r="P2" t="n">
-        <v>308.745693963795</v>
+        <v>308.7456939637948</v>
       </c>
       <c r="Q2" t="n">
-        <v>183.1958181402557</v>
+        <v>183.1958181402556</v>
       </c>
       <c r="R2" t="n">
-        <v>20.29166330939904</v>
+        <v>20.29166330939901</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34777,31 +34777,31 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>62.98022089091742</v>
+        <v>189.0712562313262</v>
       </c>
       <c r="K3" t="n">
-        <v>186.5874962434848</v>
+        <v>355.3309544215491</v>
       </c>
       <c r="L3" t="n">
-        <v>297.6803606378502</v>
+        <v>297.6803606378501</v>
       </c>
       <c r="M3" t="n">
-        <v>640.584832100039</v>
+        <v>366.9313322820404</v>
       </c>
       <c r="N3" t="n">
-        <v>640.584832100039</v>
+        <v>391.1970995928739</v>
       </c>
       <c r="O3" t="n">
         <v>335.424681996123</v>
       </c>
       <c r="P3" t="n">
-        <v>249.6795291235323</v>
+        <v>249.6795291235322</v>
       </c>
       <c r="Q3" t="n">
-        <v>122.9351598697847</v>
+        <v>326.5580100667036</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>24.58388860977091</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34856,10 +34856,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>25.72643735870594</v>
+        <v>25.72643735870592</v>
       </c>
       <c r="K4" t="n">
-        <v>173.4247593423491</v>
+        <v>173.424759342349</v>
       </c>
       <c r="L4" t="n">
         <v>278.0112915831069</v>
@@ -34868,7 +34868,7 @@
         <v>303.6179906468033</v>
       </c>
       <c r="N4" t="n">
-        <v>301.8881449860245</v>
+        <v>301.8881449860244</v>
       </c>
       <c r="O4" t="n">
         <v>262.6644876295069</v>
@@ -34877,7 +34877,7 @@
         <v>200.9965809818072</v>
       </c>
       <c r="Q4" t="n">
-        <v>54.88175545805403</v>
+        <v>54.881755458054</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34935,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>137.6579754225037</v>
+        <v>137.6579754225036</v>
       </c>
       <c r="K5" t="n">
-        <v>257.5646495407339</v>
+        <v>257.5646495407337</v>
       </c>
       <c r="L5" t="n">
-        <v>356.8062301067509</v>
+        <v>356.8062301067507</v>
       </c>
       <c r="M5" t="n">
-        <v>429.0050109457279</v>
+        <v>429.0050109457276</v>
       </c>
       <c r="N5" t="n">
-        <v>440.6071730376316</v>
+        <v>440.6071730376314</v>
       </c>
       <c r="O5" t="n">
-        <v>402.5828984949728</v>
+        <v>402.5828984949726</v>
       </c>
       <c r="P5" t="n">
-        <v>308.7456939637951</v>
+        <v>308.7456939637948</v>
       </c>
       <c r="Q5" t="n">
-        <v>183.1958181402557</v>
+        <v>183.1958181402556</v>
       </c>
       <c r="R5" t="n">
-        <v>20.2916633093991</v>
+        <v>20.29166330939901</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35014,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>62.98022089091745</v>
+        <v>189.0712562313262</v>
       </c>
       <c r="K6" t="n">
-        <v>186.5874962434849</v>
+        <v>379.9148430313198</v>
       </c>
       <c r="L6" t="n">
-        <v>640.5848321000391</v>
+        <v>297.6803606378501</v>
       </c>
       <c r="M6" t="n">
-        <v>366.9313322820406</v>
+        <v>366.9313322820404</v>
       </c>
       <c r="N6" t="n">
-        <v>391.197099592874</v>
+        <v>391.1970995928739</v>
       </c>
       <c r="O6" t="n">
-        <v>522.0158803980279</v>
+        <v>335.424681996123</v>
       </c>
       <c r="P6" t="n">
-        <v>249.6795291235323</v>
+        <v>249.6795291235322</v>
       </c>
       <c r="Q6" t="n">
-        <v>116.4807223308546</v>
+        <v>326.5580100667036</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35093,28 +35093,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>25.72643735870597</v>
+        <v>25.72643735870592</v>
       </c>
       <c r="K7" t="n">
-        <v>173.4247593423491</v>
+        <v>173.424759342349</v>
       </c>
       <c r="L7" t="n">
-        <v>278.011291583107</v>
+        <v>278.0112915831069</v>
       </c>
       <c r="M7" t="n">
-        <v>303.6179906468034</v>
+        <v>303.6179906468033</v>
       </c>
       <c r="N7" t="n">
-        <v>301.8881449860245</v>
+        <v>301.8881449860244</v>
       </c>
       <c r="O7" t="n">
-        <v>262.664487629507</v>
+        <v>262.6644876295069</v>
       </c>
       <c r="P7" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q7" t="n">
-        <v>54.88175545805406</v>
+        <v>54.881755458054</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35172,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687127</v>
       </c>
       <c r="K8" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554006</v>
       </c>
       <c r="L8" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923323</v>
       </c>
       <c r="M8" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302269</v>
       </c>
       <c r="N8" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O8" t="n">
-        <v>508.0530008882191</v>
+        <v>508.0530008882193</v>
       </c>
       <c r="P8" t="n">
-        <v>398.7619862193719</v>
+        <v>398.761986219372</v>
       </c>
       <c r="Q8" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037196</v>
       </c>
       <c r="R8" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222484</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35251,25 +35251,25 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K9" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L9" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M9" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N9" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004593</v>
       </c>
       <c r="O9" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525807</v>
       </c>
       <c r="P9" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q9" t="n">
         <v>159.2338966127272</v>
@@ -35330,28 +35330,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.57841661306622</v>
+        <v>45.57841661306625</v>
       </c>
       <c r="K10" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L10" t="n">
-        <v>319.7573721701981</v>
+        <v>319.7573721701982</v>
       </c>
       <c r="M10" t="n">
-        <v>347.6333793934838</v>
+        <v>347.6333793934839</v>
       </c>
       <c r="N10" t="n">
-        <v>344.8569461675401</v>
+        <v>344.8569461675402</v>
       </c>
       <c r="O10" t="n">
         <v>302.3531302226398</v>
       </c>
       <c r="P10" t="n">
-        <v>234.9570711451104</v>
+        <v>234.9570711451105</v>
       </c>
       <c r="Q10" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789368</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35485,28 +35485,28 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
-        <v>291.8458072502408</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992799</v>
+        <v>20.54758114884936</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>235.6178387625075</v>
@@ -35722,7 +35722,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
         <v>151.1582247754088</v>
@@ -35740,7 +35740,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>256.1654199113569</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -36208,13 +36208,13 @@
         <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
-        <v>603.4126137641938</v>
+        <v>303.8786972770459</v>
       </c>
       <c r="N21" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>257.9506595121318</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -36366,7 +36366,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902952</v>
       </c>
       <c r="N23" t="n">
         <v>751.8584478193516</v>
@@ -36591,34 +36591,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L26" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M26" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O26" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36679,13 +36679,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O27" t="n">
         <v>257.9506595121318</v>
@@ -36752,22 +36752,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K28" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36828,34 +36828,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L29" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M29" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O29" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36913,19 +36913,19 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>337.2977496678996</v>
+        <v>37.76383318075146</v>
       </c>
       <c r="L30" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O30" t="n">
-        <v>257.9506595121318</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
@@ -36989,22 +36989,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K31" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37551,7 +37551,7 @@
         <v>632.079992146269</v>
       </c>
       <c r="M38" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902934</v>
       </c>
       <c r="N38" t="n">
         <v>751.8584478193518</v>
@@ -37563,7 +37563,7 @@
         <v>559.5874541683813</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924719</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R38" t="n">
         <v>129.8660843902405</v>
@@ -37776,34 +37776,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L41" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O41" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37855,7 +37855,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J42" t="n">
         <v>151.1582247754088</v>
@@ -37864,13 +37864,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O42" t="n">
         <v>256.1654199113569</v>
@@ -37937,22 +37937,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K43" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38013,34 +38013,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L44" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M44" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O44" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38092,7 +38092,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
@@ -38101,13 +38101,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
         <v>256.1654199113569</v>
@@ -38174,22 +38174,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K46" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>
